--- a/database/industries/lastic/pekerman/product/monthly.xlsx
+++ b/database/industries/lastic/pekerman/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D3112-24AF-4659-9260-9382A1174302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +36,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
@@ -185,6 +181,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>نوار</t>
@@ -253,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +445,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -458,7 +457,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -505,23 +504,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,23 +539,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,17 +690,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +755,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +812,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,7 +869,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -959,7 +924,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +981,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1038,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1128,7 +1093,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1340,7 +1305,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1362,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1406,157 +1371,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>83728</v>
+        <v>125442</v>
       </c>
       <c r="F11" s="11">
-        <v>125442</v>
+        <v>156925</v>
       </c>
       <c r="G11" s="11">
-        <v>156925</v>
+        <v>109835</v>
       </c>
       <c r="H11" s="11">
-        <v>109835</v>
+        <v>119917</v>
       </c>
       <c r="I11" s="11">
-        <v>119917</v>
+        <v>145327</v>
       </c>
       <c r="J11" s="11">
-        <v>145327</v>
+        <v>116904</v>
       </c>
       <c r="K11" s="11">
-        <v>116904</v>
+        <v>95451</v>
       </c>
       <c r="L11" s="11">
-        <v>95451</v>
+        <v>151783</v>
       </c>
       <c r="M11" s="11">
-        <v>151783</v>
+        <v>120955</v>
       </c>
       <c r="N11" s="11">
-        <v>120955</v>
+        <v>114780</v>
       </c>
       <c r="O11" s="11">
-        <v>114780</v>
+        <v>132928</v>
       </c>
       <c r="P11" s="11">
-        <v>132928</v>
+        <v>152516</v>
       </c>
       <c r="Q11" s="11">
-        <v>152516</v>
+        <v>128823</v>
       </c>
       <c r="R11" s="11">
-        <v>128823</v>
+        <v>117676</v>
       </c>
       <c r="S11" s="11">
-        <v>117676</v>
+        <v>143963</v>
       </c>
       <c r="T11" s="11">
-        <v>143963</v>
+        <v>148065</v>
       </c>
       <c r="U11" s="11">
-        <v>148065</v>
+        <v>130464</v>
       </c>
       <c r="V11" s="11">
-        <v>130464</v>
+        <v>137491</v>
       </c>
       <c r="W11" s="11">
-        <v>137491</v>
+        <v>123926</v>
       </c>
       <c r="X11" s="11">
-        <v>123926</v>
+        <v>151869</v>
       </c>
       <c r="Y11" s="11">
-        <v>151869</v>
+        <v>190579</v>
       </c>
       <c r="Z11" s="11">
-        <v>190579</v>
+        <v>133862</v>
       </c>
       <c r="AA11" s="11">
-        <v>133862</v>
+        <v>192349</v>
       </c>
       <c r="AB11" s="11">
-        <v>192349</v>
+        <v>160459</v>
       </c>
       <c r="AC11" s="11">
-        <v>160459</v>
+        <v>147792</v>
       </c>
       <c r="AD11" s="11">
-        <v>147792</v>
+        <v>124953</v>
       </c>
       <c r="AE11" s="11">
-        <v>124953</v>
+        <v>123835</v>
       </c>
       <c r="AF11" s="11">
-        <v>123835</v>
+        <v>129275</v>
       </c>
       <c r="AG11" s="11">
-        <v>129275</v>
+        <v>163599</v>
       </c>
       <c r="AH11" s="11">
-        <v>163599</v>
+        <v>196055</v>
       </c>
       <c r="AI11" s="11">
-        <v>196055</v>
+        <v>111434</v>
       </c>
       <c r="AJ11" s="11">
-        <v>111434</v>
+        <v>152945</v>
       </c>
       <c r="AK11" s="11">
-        <v>152945</v>
+        <v>155975</v>
       </c>
       <c r="AL11" s="11">
-        <v>155975</v>
+        <v>142096</v>
       </c>
       <c r="AM11" s="11">
-        <v>142096</v>
+        <v>120974</v>
       </c>
       <c r="AN11" s="11">
-        <v>120974</v>
+        <v>131422</v>
       </c>
       <c r="AO11" s="11">
-        <v>131422</v>
+        <v>135395</v>
       </c>
       <c r="AP11" s="11">
-        <v>135395</v>
+        <v>132289</v>
       </c>
       <c r="AQ11" s="11">
-        <v>132289</v>
+        <v>137703</v>
       </c>
       <c r="AR11" s="11">
-        <v>137703</v>
+        <v>150376</v>
       </c>
       <c r="AS11" s="11">
-        <v>150376</v>
+        <v>98751</v>
       </c>
       <c r="AT11" s="11">
-        <v>98751</v>
+        <v>83857</v>
       </c>
       <c r="AU11" s="11">
-        <v>83857</v>
+        <v>55707</v>
       </c>
       <c r="AV11" s="11">
-        <v>55707</v>
+        <v>63774</v>
       </c>
       <c r="AW11" s="11">
-        <v>63774</v>
+        <v>96015</v>
       </c>
       <c r="AX11" s="11">
-        <v>96015</v>
+        <v>104375</v>
       </c>
       <c r="AY11" s="11">
-        <v>104375</v>
+        <v>97588</v>
       </c>
       <c r="AZ11" s="11">
-        <v>97588</v>
+        <v>106321</v>
       </c>
       <c r="BA11" s="11">
-        <v>106321</v>
+        <v>107491</v>
       </c>
       <c r="BB11" s="11">
-        <v>107491</v>
+        <v>135177</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1565,157 +1530,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>180017</v>
+        <v>259142</v>
       </c>
       <c r="F12" s="13">
-        <v>259142</v>
+        <v>152685</v>
       </c>
       <c r="G12" s="13">
-        <v>152685</v>
+        <v>199268</v>
       </c>
       <c r="H12" s="13">
-        <v>199268</v>
+        <v>203814</v>
       </c>
       <c r="I12" s="13">
-        <v>203814</v>
+        <v>210714</v>
       </c>
       <c r="J12" s="13">
-        <v>210714</v>
+        <v>172748</v>
       </c>
       <c r="K12" s="13">
-        <v>172748</v>
+        <v>195662</v>
       </c>
       <c r="L12" s="13">
-        <v>195662</v>
+        <v>117680</v>
       </c>
       <c r="M12" s="13">
-        <v>117680</v>
+        <v>0</v>
       </c>
       <c r="N12" s="13">
-        <v>0</v>
+        <v>68867</v>
       </c>
       <c r="O12" s="13">
-        <v>68867</v>
+        <v>202751</v>
       </c>
       <c r="P12" s="13">
-        <v>202751</v>
+        <v>153332</v>
       </c>
       <c r="Q12" s="13">
-        <v>153332</v>
+        <v>206060</v>
       </c>
       <c r="R12" s="13">
-        <v>206060</v>
+        <v>235229</v>
       </c>
       <c r="S12" s="13">
-        <v>235229</v>
+        <v>208451</v>
       </c>
       <c r="T12" s="13">
-        <v>208451</v>
+        <v>225759</v>
       </c>
       <c r="U12" s="13">
-        <v>225759</v>
+        <v>242073</v>
       </c>
       <c r="V12" s="13">
-        <v>242073</v>
+        <v>234858</v>
       </c>
       <c r="W12" s="13">
-        <v>234858</v>
+        <v>199813</v>
       </c>
       <c r="X12" s="13">
-        <v>199813</v>
+        <v>315140</v>
       </c>
       <c r="Y12" s="13">
-        <v>315140</v>
+        <v>318642</v>
       </c>
       <c r="Z12" s="13">
-        <v>318642</v>
+        <v>244820</v>
       </c>
       <c r="AA12" s="13">
-        <v>244820</v>
+        <v>286880</v>
       </c>
       <c r="AB12" s="13">
-        <v>286880</v>
+        <v>316978</v>
       </c>
       <c r="AC12" s="13">
-        <v>316978</v>
+        <v>275490</v>
       </c>
       <c r="AD12" s="13">
-        <v>275490</v>
+        <v>298710</v>
       </c>
       <c r="AE12" s="13">
-        <v>298710</v>
+        <v>301000</v>
       </c>
       <c r="AF12" s="13">
-        <v>301000</v>
+        <v>302677</v>
       </c>
       <c r="AG12" s="13">
-        <v>302677</v>
+        <v>321774</v>
       </c>
       <c r="AH12" s="13">
-        <v>321774</v>
+        <v>300944</v>
       </c>
       <c r="AI12" s="13">
-        <v>300944</v>
+        <v>170432</v>
       </c>
       <c r="AJ12" s="13">
-        <v>170432</v>
+        <v>300451</v>
       </c>
       <c r="AK12" s="13">
-        <v>300451</v>
+        <v>303856</v>
       </c>
       <c r="AL12" s="13">
-        <v>303856</v>
+        <v>293876</v>
       </c>
       <c r="AM12" s="13">
-        <v>293876</v>
+        <v>200669</v>
       </c>
       <c r="AN12" s="13">
-        <v>200669</v>
+        <v>255651</v>
       </c>
       <c r="AO12" s="13">
-        <v>255651</v>
+        <v>262963</v>
       </c>
       <c r="AP12" s="13">
-        <v>262963</v>
+        <v>262524</v>
       </c>
       <c r="AQ12" s="13">
-        <v>262524</v>
+        <v>266704</v>
       </c>
       <c r="AR12" s="13">
-        <v>266704</v>
+        <v>270866</v>
       </c>
       <c r="AS12" s="13">
-        <v>270866</v>
+        <v>241075</v>
       </c>
       <c r="AT12" s="13">
-        <v>241075</v>
+        <v>255272</v>
       </c>
       <c r="AU12" s="13">
-        <v>255272</v>
+        <v>92280</v>
       </c>
       <c r="AV12" s="13">
-        <v>92280</v>
+        <v>171554</v>
       </c>
       <c r="AW12" s="13">
-        <v>171554</v>
+        <v>210493</v>
       </c>
       <c r="AX12" s="13">
-        <v>210493</v>
+        <v>219954</v>
       </c>
       <c r="AY12" s="13">
-        <v>219954</v>
+        <v>153426</v>
       </c>
       <c r="AZ12" s="13">
-        <v>153426</v>
+        <v>265597</v>
       </c>
       <c r="BA12" s="13">
-        <v>265597</v>
+        <v>280858</v>
       </c>
       <c r="BB12" s="13">
-        <v>280858</v>
+        <v>190885</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1724,157 +1689,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2276621</v>
+        <v>2510797</v>
       </c>
       <c r="F13" s="11">
-        <v>2510797</v>
+        <v>2295241</v>
       </c>
       <c r="G13" s="11">
-        <v>2295241</v>
+        <v>2388771</v>
       </c>
       <c r="H13" s="11">
-        <v>2388771</v>
+        <v>2362903</v>
       </c>
       <c r="I13" s="11">
-        <v>2362903</v>
+        <v>2439318</v>
       </c>
       <c r="J13" s="11">
-        <v>2439318</v>
+        <v>2241890</v>
       </c>
       <c r="K13" s="11">
-        <v>2241890</v>
+        <v>2217869</v>
       </c>
       <c r="L13" s="11">
-        <v>2217869</v>
+        <v>2066449</v>
       </c>
       <c r="M13" s="11">
-        <v>2066449</v>
+        <v>2092900</v>
       </c>
       <c r="N13" s="11">
-        <v>2092900</v>
+        <v>1593761</v>
       </c>
       <c r="O13" s="11">
-        <v>1593761</v>
+        <v>830265</v>
       </c>
       <c r="P13" s="11">
-        <v>830265</v>
+        <v>1827468</v>
       </c>
       <c r="Q13" s="11">
-        <v>1827468</v>
+        <v>2188884</v>
       </c>
       <c r="R13" s="11">
-        <v>2188884</v>
+        <v>2316548</v>
       </c>
       <c r="S13" s="11">
-        <v>2316548</v>
+        <v>2529554</v>
       </c>
       <c r="T13" s="11">
-        <v>2529554</v>
+        <v>2554143</v>
       </c>
       <c r="U13" s="11">
-        <v>2554143</v>
+        <v>2614667</v>
       </c>
       <c r="V13" s="11">
-        <v>2614667</v>
+        <v>2552799</v>
       </c>
       <c r="W13" s="11">
-        <v>2552799</v>
+        <v>1980293</v>
       </c>
       <c r="X13" s="11">
-        <v>1980293</v>
+        <v>2777237</v>
       </c>
       <c r="Y13" s="11">
-        <v>2777237</v>
+        <v>2762873</v>
       </c>
       <c r="Z13" s="11">
-        <v>2762873</v>
+        <v>2157117</v>
       </c>
       <c r="AA13" s="11">
-        <v>2157117</v>
+        <v>2203077</v>
       </c>
       <c r="AB13" s="11">
-        <v>2203077</v>
+        <v>2747977</v>
       </c>
       <c r="AC13" s="11">
-        <v>2747977</v>
+        <v>2603431</v>
       </c>
       <c r="AD13" s="11">
-        <v>2603431</v>
+        <v>2693222</v>
       </c>
       <c r="AE13" s="11">
-        <v>2693222</v>
+        <v>2674037</v>
       </c>
       <c r="AF13" s="11">
-        <v>2674037</v>
+        <v>2705137</v>
       </c>
       <c r="AG13" s="11">
-        <v>2705137</v>
+        <v>2808741</v>
       </c>
       <c r="AH13" s="11">
-        <v>2808741</v>
+        <v>2819587</v>
       </c>
       <c r="AI13" s="11">
-        <v>2819587</v>
+        <v>1640722</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1640722</v>
+        <v>2926884</v>
       </c>
       <c r="AK13" s="11">
-        <v>2926884</v>
+        <v>2861475</v>
       </c>
       <c r="AL13" s="11">
-        <v>2861475</v>
+        <v>2914527</v>
       </c>
       <c r="AM13" s="11">
-        <v>2914527</v>
+        <v>2070652</v>
       </c>
       <c r="AN13" s="11">
-        <v>2070652</v>
+        <v>2535626</v>
       </c>
       <c r="AO13" s="11">
-        <v>2535626</v>
+        <v>2697190</v>
       </c>
       <c r="AP13" s="11">
-        <v>2697190</v>
+        <v>2677214</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2677214</v>
+        <v>2619521</v>
       </c>
       <c r="AR13" s="11">
-        <v>2619521</v>
+        <v>2630484</v>
       </c>
       <c r="AS13" s="11">
-        <v>2630484</v>
+        <v>2603164</v>
       </c>
       <c r="AT13" s="11">
-        <v>2603164</v>
+        <v>2193307</v>
       </c>
       <c r="AU13" s="11">
-        <v>2193307</v>
+        <v>1418543</v>
       </c>
       <c r="AV13" s="11">
-        <v>1418543</v>
+        <v>2608877</v>
       </c>
       <c r="AW13" s="11">
-        <v>2608877</v>
+        <v>2692676</v>
       </c>
       <c r="AX13" s="11">
-        <v>2692676</v>
+        <v>2711857</v>
       </c>
       <c r="AY13" s="11">
-        <v>2711857</v>
+        <v>1787937</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1787937</v>
+        <v>2438795</v>
       </c>
       <c r="BA13" s="11">
-        <v>2438795</v>
+        <v>2443112</v>
       </c>
       <c r="BB13" s="11">
-        <v>2443112</v>
+        <v>2370132</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1883,157 +1848,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>2696250</v>
+        <v>4168449</v>
       </c>
       <c r="F14" s="13">
-        <v>4168449</v>
+        <v>4447852</v>
       </c>
       <c r="G14" s="13">
-        <v>4447852</v>
+        <v>4306410</v>
       </c>
       <c r="H14" s="13">
-        <v>4306410</v>
+        <v>4485436</v>
       </c>
       <c r="I14" s="13">
-        <v>4485436</v>
+        <v>2957832</v>
       </c>
       <c r="J14" s="13">
-        <v>2957832</v>
+        <v>3592053</v>
       </c>
       <c r="K14" s="13">
-        <v>3592053</v>
+        <v>3749712</v>
       </c>
       <c r="L14" s="13">
-        <v>3749712</v>
+        <v>4301023</v>
       </c>
       <c r="M14" s="13">
-        <v>4301023</v>
+        <v>3301236</v>
       </c>
       <c r="N14" s="13">
-        <v>3301236</v>
+        <v>3711484</v>
       </c>
       <c r="O14" s="13">
-        <v>3711484</v>
+        <v>3196667</v>
       </c>
       <c r="P14" s="13">
-        <v>3196667</v>
+        <v>3286920</v>
       </c>
       <c r="Q14" s="13">
-        <v>3286920</v>
+        <v>3960635</v>
       </c>
       <c r="R14" s="13">
-        <v>3960635</v>
+        <v>4376883</v>
       </c>
       <c r="S14" s="13">
-        <v>4376883</v>
+        <v>4742304</v>
       </c>
       <c r="T14" s="13">
-        <v>4742304</v>
+        <v>4751275</v>
       </c>
       <c r="U14" s="13">
-        <v>4751275</v>
+        <v>4880041</v>
       </c>
       <c r="V14" s="13">
-        <v>4880041</v>
+        <v>4434109</v>
       </c>
       <c r="W14" s="13">
-        <v>4434109</v>
+        <v>3452093</v>
       </c>
       <c r="X14" s="13">
-        <v>3452093</v>
+        <v>4958378</v>
       </c>
       <c r="Y14" s="13">
-        <v>4958378</v>
+        <v>5126224</v>
       </c>
       <c r="Z14" s="13">
-        <v>5126224</v>
+        <v>3859112</v>
       </c>
       <c r="AA14" s="13">
-        <v>3859112</v>
+        <v>4620506</v>
       </c>
       <c r="AB14" s="13">
-        <v>4620506</v>
+        <v>4740937</v>
       </c>
       <c r="AC14" s="13">
-        <v>4740937</v>
+        <v>4610138</v>
       </c>
       <c r="AD14" s="13">
-        <v>4610138</v>
+        <v>4602770</v>
       </c>
       <c r="AE14" s="13">
-        <v>4602770</v>
+        <v>4636081</v>
       </c>
       <c r="AF14" s="13">
-        <v>4636081</v>
+        <v>4677931</v>
       </c>
       <c r="AG14" s="13">
-        <v>4677931</v>
+        <v>4882636</v>
       </c>
       <c r="AH14" s="13">
-        <v>4882636</v>
+        <v>4841085</v>
       </c>
       <c r="AI14" s="13">
-        <v>4841085</v>
+        <v>2737030</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2737030</v>
+        <v>5009156</v>
       </c>
       <c r="AK14" s="13">
-        <v>5009156</v>
+        <v>4698709</v>
       </c>
       <c r="AL14" s="13">
-        <v>4698709</v>
+        <v>5223075</v>
       </c>
       <c r="AM14" s="13">
-        <v>5223075</v>
+        <v>3217180</v>
       </c>
       <c r="AN14" s="13">
-        <v>3217180</v>
+        <v>4725551</v>
       </c>
       <c r="AO14" s="13">
-        <v>4725551</v>
+        <v>4874454</v>
       </c>
       <c r="AP14" s="13">
-        <v>4874454</v>
+        <v>5084516</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5084516</v>
+        <v>5073476</v>
       </c>
       <c r="AR14" s="13">
-        <v>5073476</v>
+        <v>5051990</v>
       </c>
       <c r="AS14" s="13">
-        <v>5051990</v>
+        <v>4787135</v>
       </c>
       <c r="AT14" s="13">
-        <v>4787135</v>
+        <v>4209099</v>
       </c>
       <c r="AU14" s="13">
-        <v>4209099</v>
+        <v>3453025</v>
       </c>
       <c r="AV14" s="13">
-        <v>3453025</v>
+        <v>5322608</v>
       </c>
       <c r="AW14" s="13">
-        <v>5322608</v>
+        <v>5478651</v>
       </c>
       <c r="AX14" s="13">
-        <v>5478651</v>
+        <v>5288140</v>
       </c>
       <c r="AY14" s="13">
-        <v>5288140</v>
+        <v>3913055</v>
       </c>
       <c r="AZ14" s="13">
-        <v>3913055</v>
+        <v>5691649</v>
       </c>
       <c r="BA14" s="13">
-        <v>5691649</v>
+        <v>3828881</v>
       </c>
       <c r="BB14" s="13">
-        <v>3828881</v>
+        <v>4957770</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>60</v>
       </c>
@@ -2090,7 +2055,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>61</v>
       </c>
@@ -2159,8 +2124,8 @@
       <c r="Y16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z16" s="17" t="s">
-        <v>62</v>
+      <c r="Z16" s="17">
+        <v>0</v>
       </c>
       <c r="AA16" s="17">
         <v>0</v>
@@ -2247,164 +2212,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>5236616</v>
+        <v>7063830</v>
       </c>
       <c r="F17" s="19">
-        <v>7063830</v>
+        <v>7052703</v>
       </c>
       <c r="G17" s="19">
-        <v>7052703</v>
+        <v>7004284</v>
       </c>
       <c r="H17" s="19">
-        <v>7004284</v>
+        <v>7172070</v>
       </c>
       <c r="I17" s="19">
-        <v>7172070</v>
+        <v>5753191</v>
       </c>
       <c r="J17" s="19">
-        <v>5753191</v>
+        <v>6123595</v>
       </c>
       <c r="K17" s="19">
-        <v>6123595</v>
+        <v>6258694</v>
       </c>
       <c r="L17" s="19">
-        <v>6258694</v>
+        <v>6636935</v>
       </c>
       <c r="M17" s="19">
-        <v>6636935</v>
+        <v>5515091</v>
       </c>
       <c r="N17" s="19">
-        <v>5515091</v>
+        <v>5488892</v>
       </c>
       <c r="O17" s="19">
-        <v>5488892</v>
+        <v>4362611</v>
       </c>
       <c r="P17" s="19">
-        <v>4362611</v>
+        <v>5420236</v>
       </c>
       <c r="Q17" s="19">
-        <v>5420236</v>
+        <v>6484402</v>
       </c>
       <c r="R17" s="19">
-        <v>6484402</v>
+        <v>7046336</v>
       </c>
       <c r="S17" s="19">
-        <v>7046336</v>
+        <v>7624272</v>
       </c>
       <c r="T17" s="19">
-        <v>7624272</v>
+        <v>7679242</v>
       </c>
       <c r="U17" s="19">
-        <v>7679242</v>
+        <v>7867245</v>
       </c>
       <c r="V17" s="19">
-        <v>7867245</v>
+        <v>7359257</v>
       </c>
       <c r="W17" s="19">
-        <v>7359257</v>
+        <v>5756125</v>
       </c>
       <c r="X17" s="19">
-        <v>5756125</v>
+        <v>8202624</v>
       </c>
       <c r="Y17" s="19">
-        <v>8202624</v>
+        <v>8398318</v>
       </c>
       <c r="Z17" s="19">
-        <v>8398318</v>
+        <v>6394911</v>
       </c>
       <c r="AA17" s="19">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="AB17" s="19">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="AC17" s="19">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="AD17" s="19">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="AE17" s="19">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AF17" s="19">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AG17" s="19">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AH17" s="19">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AI17" s="19">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AJ17" s="19">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AK17" s="19">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AL17" s="19">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AM17" s="19">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AN17" s="19">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AO17" s="19">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AP17" s="19">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AQ17" s="19">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AR17" s="19">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AS17" s="19">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AT17" s="19">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AU17" s="19">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AV17" s="19">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AW17" s="19">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AX17" s="19">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AY17" s="19">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AZ17" s="19">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="BA17" s="19">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="BB17" s="19">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2459,7 +2424,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2514,7 +2479,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2569,7 +2534,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2726,7 +2691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2781,7 +2746,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2803,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2847,157 +2812,157 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>84679</v>
+        <v>122847</v>
       </c>
       <c r="F24" s="11">
-        <v>122847</v>
+        <v>64620</v>
       </c>
       <c r="G24" s="11">
-        <v>64620</v>
+        <v>65952</v>
       </c>
       <c r="H24" s="11">
-        <v>65952</v>
+        <v>179528</v>
       </c>
       <c r="I24" s="11">
-        <v>179528</v>
+        <v>126124</v>
       </c>
       <c r="J24" s="11">
-        <v>126124</v>
+        <v>74546</v>
       </c>
       <c r="K24" s="11">
-        <v>74546</v>
+        <v>19456</v>
       </c>
       <c r="L24" s="11">
-        <v>19456</v>
+        <v>57734</v>
       </c>
       <c r="M24" s="11">
-        <v>57734</v>
+        <v>181413</v>
       </c>
       <c r="N24" s="11">
-        <v>181413</v>
+        <v>134327</v>
       </c>
       <c r="O24" s="11">
-        <v>134327</v>
+        <v>185170</v>
       </c>
       <c r="P24" s="11">
-        <v>185170</v>
+        <v>143727</v>
       </c>
       <c r="Q24" s="11">
-        <v>143727</v>
+        <v>125451</v>
       </c>
       <c r="R24" s="11">
-        <v>125451</v>
+        <v>108350</v>
       </c>
       <c r="S24" s="11">
-        <v>108350</v>
+        <v>122597</v>
       </c>
       <c r="T24" s="11">
-        <v>122597</v>
+        <v>130819</v>
       </c>
       <c r="U24" s="11">
-        <v>130819</v>
+        <v>107680</v>
       </c>
       <c r="V24" s="11">
-        <v>107680</v>
+        <v>129402</v>
       </c>
       <c r="W24" s="11">
-        <v>129402</v>
+        <v>76134</v>
       </c>
       <c r="X24" s="11">
-        <v>76134</v>
+        <v>185797</v>
       </c>
       <c r="Y24" s="11">
-        <v>185797</v>
+        <v>154339</v>
       </c>
       <c r="Z24" s="11">
-        <v>154339</v>
+        <v>159727</v>
       </c>
       <c r="AA24" s="11">
-        <v>159727</v>
+        <v>126414</v>
       </c>
       <c r="AB24" s="11">
-        <v>126414</v>
+        <v>152880</v>
       </c>
       <c r="AC24" s="11">
-        <v>152880</v>
+        <v>139081</v>
       </c>
       <c r="AD24" s="11">
-        <v>139081</v>
+        <v>110289</v>
       </c>
       <c r="AE24" s="11">
-        <v>110289</v>
+        <v>109578</v>
       </c>
       <c r="AF24" s="11">
-        <v>109578</v>
+        <v>143875</v>
       </c>
       <c r="AG24" s="11">
-        <v>143875</v>
+        <v>155910</v>
       </c>
       <c r="AH24" s="11">
-        <v>155910</v>
+        <v>89342</v>
       </c>
       <c r="AI24" s="11">
-        <v>89342</v>
+        <v>45179</v>
       </c>
       <c r="AJ24" s="11">
-        <v>45179</v>
+        <v>177411</v>
       </c>
       <c r="AK24" s="11">
-        <v>177411</v>
+        <v>125612</v>
       </c>
       <c r="AL24" s="11">
-        <v>125612</v>
+        <v>114782</v>
       </c>
       <c r="AM24" s="11">
-        <v>114782</v>
+        <v>106385</v>
       </c>
       <c r="AN24" s="11">
-        <v>106385</v>
+        <v>202331</v>
       </c>
       <c r="AO24" s="11">
-        <v>202331</v>
+        <v>173454</v>
       </c>
       <c r="AP24" s="11">
-        <v>173454</v>
+        <v>141951</v>
       </c>
       <c r="AQ24" s="11">
-        <v>141951</v>
+        <v>137075</v>
       </c>
       <c r="AR24" s="11">
-        <v>137075</v>
+        <v>191385</v>
       </c>
       <c r="AS24" s="11">
-        <v>191385</v>
+        <v>26528</v>
       </c>
       <c r="AT24" s="11">
-        <v>26528</v>
+        <v>124386</v>
       </c>
       <c r="AU24" s="11">
-        <v>124386</v>
+        <v>85573</v>
       </c>
       <c r="AV24" s="11">
-        <v>85573</v>
+        <v>104351</v>
       </c>
       <c r="AW24" s="11">
-        <v>104351</v>
+        <v>94203</v>
       </c>
       <c r="AX24" s="11">
-        <v>94203</v>
+        <v>122720</v>
       </c>
       <c r="AY24" s="11">
-        <v>122720</v>
+        <v>100303</v>
       </c>
       <c r="AZ24" s="11">
-        <v>100303</v>
+        <v>118598</v>
       </c>
       <c r="BA24" s="11">
-        <v>118598</v>
+        <v>125405</v>
       </c>
       <c r="BB24" s="11">
-        <v>125405</v>
+        <v>117258</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
@@ -3006,157 +2971,157 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>116056</v>
+        <v>261908</v>
       </c>
       <c r="F25" s="13">
-        <v>261908</v>
+        <v>110676</v>
       </c>
       <c r="G25" s="13">
-        <v>110676</v>
+        <v>140893</v>
       </c>
       <c r="H25" s="13">
-        <v>140893</v>
+        <v>291092</v>
       </c>
       <c r="I25" s="13">
-        <v>291092</v>
+        <v>222220</v>
       </c>
       <c r="J25" s="13">
-        <v>222220</v>
+        <v>183080</v>
       </c>
       <c r="K25" s="13">
-        <v>183080</v>
+        <v>60689</v>
       </c>
       <c r="L25" s="13">
-        <v>60689</v>
+        <v>109238</v>
       </c>
       <c r="M25" s="13">
-        <v>109238</v>
+        <v>161982</v>
       </c>
       <c r="N25" s="13">
-        <v>161982</v>
+        <v>79929</v>
       </c>
       <c r="O25" s="13">
-        <v>79929</v>
+        <v>157945</v>
       </c>
       <c r="P25" s="13">
-        <v>157945</v>
+        <v>179813</v>
       </c>
       <c r="Q25" s="13">
-        <v>179813</v>
+        <v>167745</v>
       </c>
       <c r="R25" s="13">
-        <v>167745</v>
+        <v>185479</v>
       </c>
       <c r="S25" s="13">
-        <v>185479</v>
+        <v>192142</v>
       </c>
       <c r="T25" s="13">
-        <v>192142</v>
+        <v>255746</v>
       </c>
       <c r="U25" s="13">
-        <v>255746</v>
+        <v>233587</v>
       </c>
       <c r="V25" s="13">
-        <v>233587</v>
+        <v>188390</v>
       </c>
       <c r="W25" s="13">
-        <v>188390</v>
+        <v>115175</v>
       </c>
       <c r="X25" s="13">
-        <v>115175</v>
+        <v>260099</v>
       </c>
       <c r="Y25" s="13">
-        <v>260099</v>
+        <v>264447</v>
       </c>
       <c r="Z25" s="13">
-        <v>264447</v>
+        <v>246235</v>
       </c>
       <c r="AA25" s="13">
-        <v>246235</v>
+        <v>261542</v>
       </c>
       <c r="AB25" s="13">
-        <v>261542</v>
+        <v>377687</v>
       </c>
       <c r="AC25" s="13">
-        <v>377687</v>
+        <v>318951</v>
       </c>
       <c r="AD25" s="13">
-        <v>318951</v>
+        <v>255039</v>
       </c>
       <c r="AE25" s="13">
-        <v>255039</v>
+        <v>220668</v>
       </c>
       <c r="AF25" s="13">
-        <v>220668</v>
+        <v>281497</v>
       </c>
       <c r="AG25" s="13">
-        <v>281497</v>
+        <v>211170</v>
       </c>
       <c r="AH25" s="13">
-        <v>211170</v>
+        <v>239869</v>
       </c>
       <c r="AI25" s="13">
-        <v>239869</v>
+        <v>128288</v>
       </c>
       <c r="AJ25" s="13">
-        <v>128288</v>
+        <v>433623</v>
       </c>
       <c r="AK25" s="13">
-        <v>433623</v>
+        <v>289631</v>
       </c>
       <c r="AL25" s="13">
-        <v>289631</v>
+        <v>277229</v>
       </c>
       <c r="AM25" s="13">
-        <v>277229</v>
+        <v>165599</v>
       </c>
       <c r="AN25" s="13">
-        <v>165599</v>
+        <v>331429</v>
       </c>
       <c r="AO25" s="13">
-        <v>331429</v>
+        <v>256297</v>
       </c>
       <c r="AP25" s="13">
-        <v>256297</v>
+        <v>194357</v>
       </c>
       <c r="AQ25" s="13">
-        <v>194357</v>
+        <v>192000</v>
       </c>
       <c r="AR25" s="13">
-        <v>192000</v>
+        <v>246349</v>
       </c>
       <c r="AS25" s="13">
-        <v>246349</v>
+        <v>130408</v>
       </c>
       <c r="AT25" s="13">
-        <v>130408</v>
+        <v>276103</v>
       </c>
       <c r="AU25" s="13">
-        <v>276103</v>
+        <v>143941</v>
       </c>
       <c r="AV25" s="13">
-        <v>143941</v>
+        <v>193100</v>
       </c>
       <c r="AW25" s="13">
-        <v>193100</v>
+        <v>292684</v>
       </c>
       <c r="AX25" s="13">
-        <v>292684</v>
+        <v>274282</v>
       </c>
       <c r="AY25" s="13">
-        <v>274282</v>
+        <v>184921</v>
       </c>
       <c r="AZ25" s="13">
-        <v>184921</v>
+        <v>278398</v>
       </c>
       <c r="BA25" s="13">
-        <v>278398</v>
+        <v>270816</v>
       </c>
       <c r="BB25" s="13">
-        <v>270816</v>
+        <v>278758</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
@@ -3165,157 +3130,157 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>1578798</v>
+        <v>2551963</v>
       </c>
       <c r="F26" s="11">
-        <v>2551963</v>
+        <v>1666537</v>
       </c>
       <c r="G26" s="11">
-        <v>1666537</v>
+        <v>2243928</v>
       </c>
       <c r="H26" s="11">
-        <v>2243928</v>
+        <v>2993714</v>
       </c>
       <c r="I26" s="11">
-        <v>2993714</v>
+        <v>2969246</v>
       </c>
       <c r="J26" s="11">
-        <v>2969246</v>
+        <v>2509938</v>
       </c>
       <c r="K26" s="11">
-        <v>2509938</v>
+        <v>1029938</v>
       </c>
       <c r="L26" s="11">
-        <v>1029938</v>
+        <v>2341975</v>
       </c>
       <c r="M26" s="11">
-        <v>2341975</v>
+        <v>2509859</v>
       </c>
       <c r="N26" s="11">
-        <v>2509859</v>
+        <v>2337374</v>
       </c>
       <c r="O26" s="11">
-        <v>2337374</v>
+        <v>1234798</v>
       </c>
       <c r="P26" s="11">
-        <v>1234798</v>
+        <v>1601741</v>
       </c>
       <c r="Q26" s="11">
-        <v>1601741</v>
+        <v>2163760</v>
       </c>
       <c r="R26" s="11">
-        <v>2163760</v>
+        <v>1972067</v>
       </c>
       <c r="S26" s="11">
-        <v>1972067</v>
+        <v>2438596</v>
       </c>
       <c r="T26" s="11">
-        <v>2438596</v>
+        <v>2520999</v>
       </c>
       <c r="U26" s="11">
-        <v>2520999</v>
+        <v>2507662</v>
       </c>
       <c r="V26" s="11">
-        <v>2507662</v>
+        <v>2269406</v>
       </c>
       <c r="W26" s="11">
-        <v>2269406</v>
+        <v>988670</v>
       </c>
       <c r="X26" s="11">
-        <v>988670</v>
+        <v>2684946</v>
       </c>
       <c r="Y26" s="11">
-        <v>2684946</v>
+        <v>3162169</v>
       </c>
       <c r="Z26" s="11">
-        <v>3162169</v>
+        <v>2581762</v>
       </c>
       <c r="AA26" s="11">
-        <v>2581762</v>
+        <v>1580913</v>
       </c>
       <c r="AB26" s="11">
-        <v>1580913</v>
+        <v>2664249</v>
       </c>
       <c r="AC26" s="11">
-        <v>2664249</v>
+        <v>2543703</v>
       </c>
       <c r="AD26" s="11">
-        <v>2543703</v>
+        <v>2461361</v>
       </c>
       <c r="AE26" s="11">
-        <v>2461361</v>
+        <v>1776079</v>
       </c>
       <c r="AF26" s="11">
-        <v>1776079</v>
+        <v>2117786</v>
       </c>
       <c r="AG26" s="11">
-        <v>2117786</v>
+        <v>2440395</v>
       </c>
       <c r="AH26" s="11">
-        <v>2440395</v>
+        <v>2156300</v>
       </c>
       <c r="AI26" s="11">
-        <v>2156300</v>
+        <v>1371262</v>
       </c>
       <c r="AJ26" s="11">
-        <v>1371262</v>
+        <v>2883052</v>
       </c>
       <c r="AK26" s="11">
-        <v>2883052</v>
+        <v>3595563</v>
       </c>
       <c r="AL26" s="11">
-        <v>3595563</v>
+        <v>2296443</v>
       </c>
       <c r="AM26" s="11">
-        <v>2296443</v>
+        <v>2828429</v>
       </c>
       <c r="AN26" s="11">
-        <v>2828429</v>
+        <v>3562063</v>
       </c>
       <c r="AO26" s="11">
-        <v>3562063</v>
+        <v>2489079</v>
       </c>
       <c r="AP26" s="11">
-        <v>2489079</v>
+        <v>2548569</v>
       </c>
       <c r="AQ26" s="11">
-        <v>2548569</v>
+        <v>1665944</v>
       </c>
       <c r="AR26" s="11">
-        <v>1665944</v>
+        <v>2017416</v>
       </c>
       <c r="AS26" s="11">
-        <v>2017416</v>
+        <v>1662413</v>
       </c>
       <c r="AT26" s="11">
-        <v>1662413</v>
+        <v>2601693</v>
       </c>
       <c r="AU26" s="11">
-        <v>2601693</v>
+        <v>1111511</v>
       </c>
       <c r="AV26" s="11">
-        <v>1111511</v>
+        <v>4183959</v>
       </c>
       <c r="AW26" s="11">
-        <v>4183959</v>
+        <v>2604751</v>
       </c>
       <c r="AX26" s="11">
-        <v>2604751</v>
+        <v>3077439</v>
       </c>
       <c r="AY26" s="11">
-        <v>3077439</v>
+        <v>2320167</v>
       </c>
       <c r="AZ26" s="11">
-        <v>2320167</v>
+        <v>2650998</v>
       </c>
       <c r="BA26" s="11">
-        <v>2650998</v>
+        <v>2228545</v>
       </c>
       <c r="BB26" s="11">
-        <v>2228545</v>
+        <v>2875781</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>59</v>
       </c>
@@ -3324,157 +3289,157 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>2047486</v>
+        <v>4051839</v>
       </c>
       <c r="F27" s="13">
-        <v>4051839</v>
+        <v>4157610</v>
       </c>
       <c r="G27" s="13">
-        <v>4157610</v>
+        <v>3739974</v>
       </c>
       <c r="H27" s="13">
-        <v>3739974</v>
+        <v>5436457</v>
       </c>
       <c r="I27" s="13">
-        <v>5436457</v>
+        <v>3408649</v>
       </c>
       <c r="J27" s="13">
-        <v>3408649</v>
+        <v>4085789</v>
       </c>
       <c r="K27" s="13">
-        <v>4085789</v>
+        <v>2025004</v>
       </c>
       <c r="L27" s="13">
-        <v>2025004</v>
+        <v>4126780</v>
       </c>
       <c r="M27" s="13">
-        <v>4126780</v>
+        <v>3928308</v>
       </c>
       <c r="N27" s="13">
-        <v>3928308</v>
+        <v>4034226</v>
       </c>
       <c r="O27" s="13">
-        <v>4034226</v>
+        <v>3187709</v>
       </c>
       <c r="P27" s="13">
-        <v>3187709</v>
+        <v>3780946</v>
       </c>
       <c r="Q27" s="13">
-        <v>3780946</v>
+        <v>4083070</v>
       </c>
       <c r="R27" s="13">
-        <v>4083070</v>
+        <v>4228969</v>
       </c>
       <c r="S27" s="13">
-        <v>4228969</v>
+        <v>4667026</v>
       </c>
       <c r="T27" s="13">
-        <v>4667026</v>
+        <v>4566513</v>
       </c>
       <c r="U27" s="13">
-        <v>4566513</v>
+        <v>4581305</v>
       </c>
       <c r="V27" s="13">
-        <v>4581305</v>
+        <v>4210196</v>
       </c>
       <c r="W27" s="13">
-        <v>4210196</v>
+        <v>2091398</v>
       </c>
       <c r="X27" s="13">
-        <v>2091398</v>
+        <v>5284121</v>
       </c>
       <c r="Y27" s="13">
-        <v>5284121</v>
+        <v>5306313</v>
       </c>
       <c r="Z27" s="13">
-        <v>5306313</v>
+        <v>4736869</v>
       </c>
       <c r="AA27" s="13">
-        <v>4736869</v>
+        <v>3536365</v>
       </c>
       <c r="AB27" s="13">
-        <v>3536365</v>
+        <v>5281256</v>
       </c>
       <c r="AC27" s="13">
-        <v>5281256</v>
+        <v>4843745</v>
       </c>
       <c r="AD27" s="13">
-        <v>4843745</v>
+        <v>4515487</v>
       </c>
       <c r="AE27" s="13">
-        <v>4515487</v>
+        <v>3802653</v>
       </c>
       <c r="AF27" s="13">
-        <v>3802653</v>
+        <v>4813840</v>
       </c>
       <c r="AG27" s="13">
-        <v>4813840</v>
+        <v>4477138</v>
       </c>
       <c r="AH27" s="13">
-        <v>4477138</v>
+        <v>4450246</v>
       </c>
       <c r="AI27" s="13">
-        <v>4450246</v>
+        <v>2767829</v>
       </c>
       <c r="AJ27" s="13">
-        <v>2767829</v>
+        <v>4804993</v>
       </c>
       <c r="AK27" s="13">
-        <v>4804993</v>
+        <v>4978792</v>
       </c>
       <c r="AL27" s="13">
-        <v>4978792</v>
+        <v>5632641</v>
       </c>
       <c r="AM27" s="13">
-        <v>5632641</v>
+        <v>3590625</v>
       </c>
       <c r="AN27" s="13">
-        <v>3590625</v>
+        <v>5022958</v>
       </c>
       <c r="AO27" s="13">
-        <v>5022958</v>
+        <v>4364005</v>
       </c>
       <c r="AP27" s="13">
-        <v>4364005</v>
+        <v>4755076</v>
       </c>
       <c r="AQ27" s="13">
-        <v>4755076</v>
+        <v>5774215</v>
       </c>
       <c r="AR27" s="13">
-        <v>5774215</v>
+        <v>4311551</v>
       </c>
       <c r="AS27" s="13">
-        <v>4311551</v>
+        <v>5209264</v>
       </c>
       <c r="AT27" s="13">
-        <v>5209264</v>
+        <v>4201316</v>
       </c>
       <c r="AU27" s="13">
-        <v>4201316</v>
+        <v>2729923</v>
       </c>
       <c r="AV27" s="13">
-        <v>2729923</v>
+        <v>4860901</v>
       </c>
       <c r="AW27" s="13">
-        <v>4860901</v>
+        <v>5522645</v>
       </c>
       <c r="AX27" s="13">
-        <v>5522645</v>
+        <v>5418613</v>
       </c>
       <c r="AY27" s="13">
-        <v>5418613</v>
+        <v>4679786</v>
       </c>
       <c r="AZ27" s="13">
-        <v>4667038</v>
+        <v>5369924</v>
       </c>
       <c r="BA27" s="13">
-        <v>5369924</v>
+        <v>3837130</v>
       </c>
       <c r="BB27" s="13">
-        <v>3837130</v>
+        <v>4988744</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>60</v>
       </c>
@@ -3531,7 +3496,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>61</v>
       </c>
@@ -3600,8 +3565,8 @@
       <c r="Y29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z29" s="17" t="s">
-        <v>62</v>
+      <c r="Z29" s="17">
+        <v>0</v>
       </c>
       <c r="AA29" s="17">
         <v>0</v>
@@ -3688,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>65</v>
       </c>
@@ -3745,7 +3710,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -3814,8 +3779,8 @@
       <c r="Y31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="17" t="s">
-        <v>62</v>
+      <c r="Z31" s="17">
+        <v>0</v>
       </c>
       <c r="AA31" s="17">
         <v>0</v>
@@ -3902,164 +3867,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
-        <v>3827019</v>
+        <v>6988557</v>
       </c>
       <c r="F32" s="19">
-        <v>6988557</v>
+        <v>5999443</v>
       </c>
       <c r="G32" s="19">
-        <v>5999443</v>
+        <v>6190747</v>
       </c>
       <c r="H32" s="19">
-        <v>6190747</v>
+        <v>8900791</v>
       </c>
       <c r="I32" s="19">
-        <v>8900791</v>
+        <v>6726239</v>
       </c>
       <c r="J32" s="19">
-        <v>6726239</v>
+        <v>6853353</v>
       </c>
       <c r="K32" s="19">
-        <v>6853353</v>
+        <v>3135087</v>
       </c>
       <c r="L32" s="19">
-        <v>3135087</v>
+        <v>6635727</v>
       </c>
       <c r="M32" s="19">
-        <v>6635727</v>
+        <v>6781562</v>
       </c>
       <c r="N32" s="19">
-        <v>6781562</v>
+        <v>6585856</v>
       </c>
       <c r="O32" s="19">
-        <v>6585856</v>
+        <v>4765622</v>
       </c>
       <c r="P32" s="19">
-        <v>4765622</v>
+        <v>5706227</v>
       </c>
       <c r="Q32" s="19">
-        <v>5706227</v>
+        <v>6540026</v>
       </c>
       <c r="R32" s="19">
-        <v>6540026</v>
+        <v>6494865</v>
       </c>
       <c r="S32" s="19">
-        <v>6494865</v>
+        <v>7420361</v>
       </c>
       <c r="T32" s="19">
-        <v>7420361</v>
+        <v>7474077</v>
       </c>
       <c r="U32" s="19">
-        <v>7474077</v>
+        <v>7430234</v>
       </c>
       <c r="V32" s="19">
-        <v>7430234</v>
+        <v>6797394</v>
       </c>
       <c r="W32" s="19">
-        <v>6797394</v>
+        <v>3271377</v>
       </c>
       <c r="X32" s="19">
-        <v>3271377</v>
+        <v>8414963</v>
       </c>
       <c r="Y32" s="19">
-        <v>8414963</v>
+        <v>8887268</v>
       </c>
       <c r="Z32" s="19">
-        <v>8887268</v>
+        <v>7724593</v>
       </c>
       <c r="AA32" s="19">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="AB32" s="19">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="AC32" s="19">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="AD32" s="19">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="AE32" s="19">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AF32" s="19">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AG32" s="19">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AH32" s="19">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AI32" s="19">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AJ32" s="19">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AK32" s="19">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AL32" s="19">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AM32" s="19">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AN32" s="19">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AO32" s="19">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AP32" s="19">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AQ32" s="19">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AR32" s="19">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AS32" s="19">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AT32" s="19">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AU32" s="19">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AV32" s="19">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AW32" s="19">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AX32" s="19">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AY32" s="19">
-        <v>8893054</v>
+        <v>7285177</v>
       </c>
       <c r="AZ32" s="19">
-        <v>7272429</v>
+        <v>8417918</v>
       </c>
       <c r="BA32" s="19">
-        <v>8417918</v>
+        <v>6461896</v>
       </c>
       <c r="BB32" s="19">
-        <v>6461896</v>
+        <v>8260541</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4114,7 +4079,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4169,7 +4134,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4224,7 +4189,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>67</v>
       </c>
@@ -4381,7 +4346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4436,7 +4401,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>67</v>
       </c>
@@ -4493,7 +4458,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4502,157 +4467,157 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>6620</v>
+        <v>11341</v>
       </c>
       <c r="F39" s="11">
-        <v>11341</v>
+        <v>5923</v>
       </c>
       <c r="G39" s="11">
-        <v>5923</v>
+        <v>8495</v>
       </c>
       <c r="H39" s="11">
-        <v>8495</v>
+        <v>24747</v>
       </c>
       <c r="I39" s="11">
-        <v>24747</v>
+        <v>16962</v>
       </c>
       <c r="J39" s="11">
-        <v>16962</v>
+        <v>10235</v>
       </c>
       <c r="K39" s="11">
-        <v>10235</v>
+        <v>3394</v>
       </c>
       <c r="L39" s="11">
-        <v>3394</v>
+        <v>8044</v>
       </c>
       <c r="M39" s="11">
-        <v>8044</v>
+        <v>24095</v>
       </c>
       <c r="N39" s="11">
-        <v>24095</v>
+        <v>23951</v>
       </c>
       <c r="O39" s="11">
-        <v>23951</v>
+        <v>32422</v>
       </c>
       <c r="P39" s="11">
-        <v>32422</v>
+        <v>23724</v>
       </c>
       <c r="Q39" s="11">
-        <v>23724</v>
+        <v>21429</v>
       </c>
       <c r="R39" s="11">
-        <v>21429</v>
+        <v>21725</v>
       </c>
       <c r="S39" s="11">
-        <v>21725</v>
+        <v>25289</v>
       </c>
       <c r="T39" s="11">
-        <v>25289</v>
+        <v>27420</v>
       </c>
       <c r="U39" s="11">
-        <v>27420</v>
+        <v>22890</v>
       </c>
       <c r="V39" s="11">
-        <v>22890</v>
+        <v>27393</v>
       </c>
       <c r="W39" s="11">
-        <v>27393</v>
+        <v>15617</v>
       </c>
       <c r="X39" s="11">
-        <v>15617</v>
+        <v>37838</v>
       </c>
       <c r="Y39" s="11">
-        <v>37838</v>
+        <v>32300</v>
       </c>
       <c r="Z39" s="11">
-        <v>32300</v>
+        <v>48989</v>
       </c>
       <c r="AA39" s="11">
-        <v>48989</v>
+        <v>39792</v>
       </c>
       <c r="AB39" s="11">
-        <v>39792</v>
+        <v>48283</v>
       </c>
       <c r="AC39" s="11">
-        <v>48283</v>
+        <v>42098</v>
       </c>
       <c r="AD39" s="11">
-        <v>42098</v>
+        <v>32645</v>
       </c>
       <c r="AE39" s="11">
-        <v>32645</v>
+        <v>32796</v>
       </c>
       <c r="AF39" s="11">
-        <v>32796</v>
+        <v>41797</v>
       </c>
       <c r="AG39" s="11">
-        <v>41797</v>
+        <v>45881</v>
       </c>
       <c r="AH39" s="11">
-        <v>45881</v>
+        <v>26872</v>
       </c>
       <c r="AI39" s="11">
-        <v>26872</v>
+        <v>13580</v>
       </c>
       <c r="AJ39" s="11">
-        <v>13580</v>
+        <v>52189</v>
       </c>
       <c r="AK39" s="11">
-        <v>52189</v>
+        <v>36484</v>
       </c>
       <c r="AL39" s="11">
-        <v>36484</v>
+        <v>33489</v>
       </c>
       <c r="AM39" s="11">
-        <v>33489</v>
+        <v>31362</v>
       </c>
       <c r="AN39" s="11">
-        <v>31362</v>
+        <v>58120</v>
       </c>
       <c r="AO39" s="11">
-        <v>58120</v>
+        <v>50176</v>
       </c>
       <c r="AP39" s="11">
-        <v>50176</v>
+        <v>41973</v>
       </c>
       <c r="AQ39" s="11">
-        <v>41973</v>
+        <v>40011</v>
       </c>
       <c r="AR39" s="11">
-        <v>40011</v>
+        <v>55342</v>
       </c>
       <c r="AS39" s="11">
-        <v>55342</v>
+        <v>10241</v>
       </c>
       <c r="AT39" s="11">
-        <v>10241</v>
+        <v>43552</v>
       </c>
       <c r="AU39" s="11">
-        <v>43552</v>
+        <v>30027</v>
       </c>
       <c r="AV39" s="11">
-        <v>30027</v>
+        <v>50115</v>
       </c>
       <c r="AW39" s="11">
-        <v>50115</v>
+        <v>37664</v>
       </c>
       <c r="AX39" s="11">
-        <v>37664</v>
+        <v>56301</v>
       </c>
       <c r="AY39" s="11">
-        <v>56301</v>
+        <v>47272</v>
       </c>
       <c r="AZ39" s="11">
-        <v>47272</v>
+        <v>56827</v>
       </c>
       <c r="BA39" s="11">
-        <v>56827</v>
+        <v>68225</v>
       </c>
       <c r="BB39" s="11">
-        <v>68225</v>
+        <v>72064</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>57</v>
       </c>
@@ -4661,157 +4626,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>19273</v>
+        <v>44589</v>
       </c>
       <c r="F40" s="13">
-        <v>44589</v>
+        <v>18439</v>
       </c>
       <c r="G40" s="13">
-        <v>18439</v>
+        <v>29422</v>
       </c>
       <c r="H40" s="13">
-        <v>29422</v>
+        <v>71720</v>
       </c>
       <c r="I40" s="13">
-        <v>71720</v>
+        <v>55488</v>
       </c>
       <c r="J40" s="13">
-        <v>55488</v>
+        <v>43289</v>
       </c>
       <c r="K40" s="13">
-        <v>43289</v>
+        <v>15281</v>
       </c>
       <c r="L40" s="13">
-        <v>15281</v>
+        <v>27759</v>
       </c>
       <c r="M40" s="13">
-        <v>27759</v>
+        <v>39217</v>
       </c>
       <c r="N40" s="13">
-        <v>39217</v>
+        <v>20606</v>
       </c>
       <c r="O40" s="13">
-        <v>20606</v>
+        <v>47540</v>
       </c>
       <c r="P40" s="13">
-        <v>47540</v>
+        <v>54185</v>
       </c>
       <c r="Q40" s="13">
-        <v>54185</v>
+        <v>50705</v>
       </c>
       <c r="R40" s="13">
-        <v>50705</v>
+        <v>56607</v>
       </c>
       <c r="S40" s="13">
-        <v>56607</v>
+        <v>58909</v>
       </c>
       <c r="T40" s="13">
-        <v>58909</v>
+        <v>77815</v>
       </c>
       <c r="U40" s="13">
-        <v>77815</v>
+        <v>70999</v>
       </c>
       <c r="V40" s="13">
-        <v>70999</v>
+        <v>58169</v>
       </c>
       <c r="W40" s="13">
-        <v>58169</v>
+        <v>34810</v>
       </c>
       <c r="X40" s="13">
-        <v>34810</v>
+        <v>79868</v>
       </c>
       <c r="Y40" s="13">
-        <v>79868</v>
+        <v>81496</v>
       </c>
       <c r="Z40" s="13">
-        <v>81496</v>
+        <v>123933</v>
       </c>
       <c r="AA40" s="13">
-        <v>123933</v>
+        <v>143947</v>
       </c>
       <c r="AB40" s="13">
-        <v>143947</v>
+        <v>218355</v>
       </c>
       <c r="AC40" s="13">
-        <v>218355</v>
+        <v>183944</v>
       </c>
       <c r="AD40" s="13">
-        <v>183944</v>
+        <v>146812</v>
       </c>
       <c r="AE40" s="13">
-        <v>146812</v>
+        <v>128691</v>
       </c>
       <c r="AF40" s="13">
-        <v>128691</v>
+        <v>160343</v>
       </c>
       <c r="AG40" s="13">
-        <v>160343</v>
+        <v>122939</v>
       </c>
       <c r="AH40" s="13">
-        <v>122939</v>
+        <v>138367</v>
       </c>
       <c r="AI40" s="13">
-        <v>138367</v>
+        <v>73709</v>
       </c>
       <c r="AJ40" s="13">
-        <v>73709</v>
+        <v>251030</v>
       </c>
       <c r="AK40" s="13">
-        <v>251030</v>
+        <v>168392</v>
       </c>
       <c r="AL40" s="13">
-        <v>168392</v>
+        <v>157165</v>
       </c>
       <c r="AM40" s="13">
-        <v>157165</v>
+        <v>95238</v>
       </c>
       <c r="AN40" s="13">
-        <v>95238</v>
+        <v>187439</v>
       </c>
       <c r="AO40" s="13">
-        <v>187439</v>
+        <v>148135</v>
       </c>
       <c r="AP40" s="13">
-        <v>148135</v>
+        <v>113068</v>
       </c>
       <c r="AQ40" s="13">
-        <v>113068</v>
+        <v>108936</v>
       </c>
       <c r="AR40" s="13">
-        <v>108936</v>
+        <v>143156</v>
       </c>
       <c r="AS40" s="13">
-        <v>143156</v>
+        <v>96506</v>
       </c>
       <c r="AT40" s="13">
-        <v>96506</v>
+        <v>204093</v>
       </c>
       <c r="AU40" s="13">
-        <v>204093</v>
+        <v>106605</v>
       </c>
       <c r="AV40" s="13">
-        <v>106605</v>
+        <v>145313</v>
       </c>
       <c r="AW40" s="13">
-        <v>145313</v>
+        <v>209357</v>
       </c>
       <c r="AX40" s="13">
-        <v>209357</v>
+        <v>201846</v>
       </c>
       <c r="AY40" s="13">
-        <v>201846</v>
+        <v>158735</v>
       </c>
       <c r="AZ40" s="13">
-        <v>158735</v>
+        <v>247136</v>
       </c>
       <c r="BA40" s="13">
-        <v>247136</v>
+        <v>291847</v>
       </c>
       <c r="BB40" s="13">
-        <v>291847</v>
+        <v>309923</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>58</v>
       </c>
@@ -4820,157 +4785,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>213187</v>
+        <v>338651</v>
       </c>
       <c r="F41" s="11">
-        <v>338651</v>
+        <v>219967</v>
       </c>
       <c r="G41" s="11">
-        <v>219967</v>
+        <v>349354</v>
       </c>
       <c r="H41" s="11">
-        <v>349354</v>
+        <v>535445</v>
       </c>
       <c r="I41" s="11">
-        <v>535445</v>
+        <v>533608</v>
       </c>
       <c r="J41" s="11">
-        <v>533608</v>
+        <v>448969</v>
       </c>
       <c r="K41" s="11">
-        <v>448969</v>
+        <v>187457</v>
       </c>
       <c r="L41" s="11">
-        <v>187457</v>
+        <v>425131</v>
       </c>
       <c r="M41" s="11">
-        <v>425131</v>
+        <v>462139</v>
       </c>
       <c r="N41" s="11">
-        <v>462139</v>
+        <v>485420</v>
       </c>
       <c r="O41" s="11">
-        <v>485420</v>
+        <v>310686</v>
       </c>
       <c r="P41" s="11">
-        <v>310686</v>
+        <v>341393</v>
       </c>
       <c r="Q41" s="11">
-        <v>341393</v>
+        <v>477290</v>
       </c>
       <c r="R41" s="11">
-        <v>477290</v>
+        <v>437358</v>
       </c>
       <c r="S41" s="11">
-        <v>437358</v>
+        <v>546458</v>
       </c>
       <c r="T41" s="11">
-        <v>546458</v>
+        <v>575536</v>
       </c>
       <c r="U41" s="11">
-        <v>575536</v>
+        <v>589127</v>
       </c>
       <c r="V41" s="11">
-        <v>589127</v>
+        <v>547730</v>
       </c>
       <c r="W41" s="11">
-        <v>547730</v>
+        <v>243492</v>
       </c>
       <c r="X41" s="11">
-        <v>243492</v>
+        <v>652739</v>
       </c>
       <c r="Y41" s="11">
-        <v>652739</v>
+        <v>740952</v>
       </c>
       <c r="Z41" s="11">
-        <v>740952</v>
+        <v>849123</v>
       </c>
       <c r="AA41" s="11">
-        <v>849123</v>
+        <v>595911</v>
       </c>
       <c r="AB41" s="11">
-        <v>595911</v>
+        <v>1108313</v>
       </c>
       <c r="AC41" s="11">
-        <v>1108313</v>
+        <v>1031586</v>
       </c>
       <c r="AD41" s="11">
-        <v>1031586</v>
+        <v>1005646</v>
       </c>
       <c r="AE41" s="11">
-        <v>1005646</v>
+        <v>746742</v>
       </c>
       <c r="AF41" s="11">
-        <v>746742</v>
+        <v>1069436</v>
       </c>
       <c r="AG41" s="11">
-        <v>1069436</v>
+        <v>1281241</v>
       </c>
       <c r="AH41" s="11">
-        <v>1281241</v>
+        <v>1387108</v>
       </c>
       <c r="AI41" s="11">
-        <v>1387108</v>
+        <v>743677</v>
       </c>
       <c r="AJ41" s="11">
-        <v>743677</v>
+        <v>1588025</v>
       </c>
       <c r="AK41" s="11">
-        <v>1588025</v>
+        <v>1975465</v>
       </c>
       <c r="AL41" s="11">
-        <v>1975465</v>
+        <v>1264333</v>
       </c>
       <c r="AM41" s="11">
-        <v>1264333</v>
+        <v>1549929</v>
       </c>
       <c r="AN41" s="11">
-        <v>1549929</v>
+        <v>1953240</v>
       </c>
       <c r="AO41" s="11">
-        <v>1953240</v>
+        <v>1343690</v>
       </c>
       <c r="AP41" s="11">
-        <v>1343690</v>
+        <v>1385257</v>
       </c>
       <c r="AQ41" s="11">
-        <v>1385257</v>
+        <v>1040898</v>
       </c>
       <c r="AR41" s="11">
-        <v>1040898</v>
+        <v>1243622</v>
       </c>
       <c r="AS41" s="11">
-        <v>1243622</v>
+        <v>993773</v>
       </c>
       <c r="AT41" s="11">
-        <v>993773</v>
+        <v>1686317</v>
       </c>
       <c r="AU41" s="11">
-        <v>1686317</v>
+        <v>664396</v>
       </c>
       <c r="AV41" s="11">
-        <v>664396</v>
+        <v>2596866</v>
       </c>
       <c r="AW41" s="11">
-        <v>2596866</v>
+        <v>1782819</v>
       </c>
       <c r="AX41" s="11">
-        <v>1782819</v>
+        <v>2220167</v>
       </c>
       <c r="AY41" s="11">
-        <v>2220167</v>
+        <v>1690006</v>
       </c>
       <c r="AZ41" s="11">
-        <v>1690006</v>
+        <v>2000867</v>
       </c>
       <c r="BA41" s="11">
-        <v>2000867</v>
+        <v>1764576</v>
       </c>
       <c r="BB41" s="11">
-        <v>1764576</v>
+        <v>2348278</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -4979,157 +4944,157 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>292685</v>
+        <v>611305</v>
       </c>
       <c r="F42" s="13">
-        <v>611305</v>
+        <v>643998</v>
       </c>
       <c r="G42" s="13">
-        <v>643998</v>
+        <v>636920</v>
       </c>
       <c r="H42" s="13">
-        <v>636920</v>
+        <v>995821</v>
       </c>
       <c r="I42" s="13">
-        <v>995821</v>
+        <v>635261</v>
       </c>
       <c r="J42" s="13">
-        <v>635261</v>
+        <v>789265</v>
       </c>
       <c r="K42" s="13">
-        <v>789265</v>
+        <v>376792</v>
       </c>
       <c r="L42" s="13">
-        <v>376792</v>
+        <v>764712</v>
       </c>
       <c r="M42" s="13">
-        <v>764712</v>
+        <v>723791</v>
       </c>
       <c r="N42" s="13">
-        <v>723791</v>
+        <v>954083</v>
       </c>
       <c r="O42" s="13">
-        <v>954083</v>
+        <v>792838</v>
       </c>
       <c r="P42" s="13">
-        <v>792838</v>
+        <v>898914</v>
       </c>
       <c r="Q42" s="13">
-        <v>898914</v>
+        <v>965541</v>
       </c>
       <c r="R42" s="13">
-        <v>965541</v>
+        <v>988974</v>
       </c>
       <c r="S42" s="13">
-        <v>988974</v>
+        <v>1089891</v>
       </c>
       <c r="T42" s="13">
-        <v>1089891</v>
+        <v>1078612</v>
       </c>
       <c r="U42" s="13">
-        <v>1078612</v>
+        <v>1089565</v>
       </c>
       <c r="V42" s="13">
-        <v>1089565</v>
+        <v>993642</v>
       </c>
       <c r="W42" s="13">
-        <v>993642</v>
+        <v>495488</v>
       </c>
       <c r="X42" s="13">
-        <v>495488</v>
+        <v>1255737</v>
       </c>
       <c r="Y42" s="13">
-        <v>1255737</v>
+        <v>1248478</v>
       </c>
       <c r="Z42" s="13">
-        <v>1248478</v>
+        <v>1378861</v>
       </c>
       <c r="AA42" s="13">
-        <v>1378861</v>
+        <v>1226566</v>
       </c>
       <c r="AB42" s="13">
-        <v>1226566</v>
+        <v>2174719</v>
       </c>
       <c r="AC42" s="13">
-        <v>2174719</v>
+        <v>1858515</v>
       </c>
       <c r="AD42" s="13">
-        <v>1858515</v>
+        <v>1800961</v>
       </c>
       <c r="AE42" s="13">
-        <v>1800961</v>
+        <v>1859323</v>
       </c>
       <c r="AF42" s="13">
-        <v>1859323</v>
+        <v>2559714</v>
       </c>
       <c r="AG42" s="13">
-        <v>2559714</v>
+        <v>2583842</v>
       </c>
       <c r="AH42" s="13">
-        <v>2583842</v>
+        <v>2482218</v>
       </c>
       <c r="AI42" s="13">
-        <v>2482218</v>
+        <v>1489683</v>
       </c>
       <c r="AJ42" s="13">
-        <v>1489683</v>
+        <v>2537265</v>
       </c>
       <c r="AK42" s="13">
-        <v>2537265</v>
+        <v>2608152</v>
       </c>
       <c r="AL42" s="13">
-        <v>2608152</v>
+        <v>3056985</v>
       </c>
       <c r="AM42" s="13">
-        <v>3056985</v>
+        <v>1925926</v>
       </c>
       <c r="AN42" s="13">
-        <v>1925926</v>
+        <v>2743058</v>
       </c>
       <c r="AO42" s="13">
-        <v>2743058</v>
+        <v>2346792</v>
       </c>
       <c r="AP42" s="13">
-        <v>2346792</v>
+        <v>2598725</v>
       </c>
       <c r="AQ42" s="13">
-        <v>2598725</v>
+        <v>3331106</v>
       </c>
       <c r="AR42" s="13">
-        <v>3331106</v>
+        <v>2562188</v>
       </c>
       <c r="AS42" s="13">
-        <v>2562188</v>
+        <v>3031193</v>
       </c>
       <c r="AT42" s="13">
-        <v>3031193</v>
+        <v>2552731</v>
       </c>
       <c r="AU42" s="13">
-        <v>2552731</v>
+        <v>1680153</v>
       </c>
       <c r="AV42" s="13">
-        <v>1680153</v>
+        <v>3038928</v>
       </c>
       <c r="AW42" s="13">
-        <v>3038928</v>
+        <v>3861560</v>
       </c>
       <c r="AX42" s="13">
-        <v>3861560</v>
+        <v>4242534</v>
       </c>
       <c r="AY42" s="13">
-        <v>3948718</v>
+        <v>3790739</v>
       </c>
       <c r="AZ42" s="13">
-        <v>3781110</v>
+        <v>3909644</v>
       </c>
       <c r="BA42" s="13">
-        <v>3909644</v>
+        <v>3038963</v>
       </c>
       <c r="BB42" s="13">
-        <v>3038963</v>
+        <v>4044982</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>69</v>
       </c>
@@ -5186,7 +5151,7 @@
       <c r="BA43" s="15"/>
       <c r="BB43" s="15"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>61</v>
       </c>
@@ -5257,8 +5222,8 @@
       <c r="Y44" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z44" s="17" t="s">
-        <v>62</v>
+      <c r="Z44" s="17">
+        <v>0</v>
       </c>
       <c r="AA44" s="17">
         <v>0</v>
@@ -5345,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>70</v>
       </c>
@@ -5402,7 +5367,7 @@
       <c r="BA45" s="15"/>
       <c r="BB45" s="15"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>66</v>
       </c>
@@ -5473,8 +5438,8 @@
       <c r="Y46" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z46" s="17" t="s">
-        <v>62</v>
+      <c r="Z46" s="17">
+        <v>0</v>
       </c>
       <c r="AA46" s="17">
         <v>0</v>
@@ -5561,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>71</v>
       </c>
@@ -5618,7 +5583,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5654,8 @@
       <c r="Y48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Z48" s="11" t="s">
-        <v>62</v>
+      <c r="Z48" s="11">
+        <v>0</v>
       </c>
       <c r="AA48" s="11">
         <v>0</v>
@@ -5777,164 +5742,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19">
-        <v>531765</v>
+        <v>1005886</v>
       </c>
       <c r="F49" s="19">
-        <v>1005886</v>
+        <v>888327</v>
       </c>
       <c r="G49" s="19">
-        <v>888327</v>
+        <v>1024191</v>
       </c>
       <c r="H49" s="19">
-        <v>1024191</v>
+        <v>1627733</v>
       </c>
       <c r="I49" s="19">
-        <v>1627733</v>
+        <v>1241319</v>
       </c>
       <c r="J49" s="19">
-        <v>1241319</v>
+        <v>1291758</v>
       </c>
       <c r="K49" s="19">
-        <v>1291758</v>
+        <v>582924</v>
       </c>
       <c r="L49" s="19">
-        <v>582924</v>
+        <v>1225646</v>
       </c>
       <c r="M49" s="19">
-        <v>1225646</v>
+        <v>1249242</v>
       </c>
       <c r="N49" s="19">
-        <v>1249242</v>
+        <v>1484060</v>
       </c>
       <c r="O49" s="19">
-        <v>1484060</v>
+        <v>1183486</v>
       </c>
       <c r="P49" s="19">
-        <v>1183486</v>
+        <v>1318216</v>
       </c>
       <c r="Q49" s="19">
-        <v>1318216</v>
+        <v>1514965</v>
       </c>
       <c r="R49" s="19">
-        <v>1514965</v>
+        <v>1504664</v>
       </c>
       <c r="S49" s="19">
-        <v>1504664</v>
+        <v>1720547</v>
       </c>
       <c r="T49" s="19">
-        <v>1720547</v>
+        <v>1759383</v>
       </c>
       <c r="U49" s="19">
-        <v>1759383</v>
+        <v>1772581</v>
       </c>
       <c r="V49" s="19">
-        <v>1772581</v>
+        <v>1626934</v>
       </c>
       <c r="W49" s="19">
-        <v>1626934</v>
+        <v>789407</v>
       </c>
       <c r="X49" s="19">
-        <v>789407</v>
+        <v>2026182</v>
       </c>
       <c r="Y49" s="19">
-        <v>2026182</v>
+        <v>2103226</v>
       </c>
       <c r="Z49" s="19">
-        <v>2103226</v>
+        <v>2400906</v>
       </c>
       <c r="AA49" s="19">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="AB49" s="19">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="AC49" s="19">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="AD49" s="19">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="AE49" s="19">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AF49" s="19">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AG49" s="19">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AH49" s="19">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AI49" s="19">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AJ49" s="19">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AK49" s="19">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AL49" s="19">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AM49" s="19">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AN49" s="19">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AO49" s="19">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AP49" s="19">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AQ49" s="19">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AR49" s="19">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AS49" s="19">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AT49" s="19">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AU49" s="19">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AV49" s="19">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AW49" s="19">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AX49" s="19">
-        <v>5891400</v>
+        <v>6720848</v>
       </c>
       <c r="AY49" s="19">
-        <v>6427032</v>
+        <v>5686752</v>
       </c>
       <c r="AZ49" s="19">
-        <v>5677123</v>
+        <v>6214474</v>
       </c>
       <c r="BA49" s="19">
-        <v>6214474</v>
+        <v>5163611</v>
       </c>
       <c r="BB49" s="19">
-        <v>5163611</v>
+        <v>6775247</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5989,7 +5954,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6044,7 +6009,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6099,7 +6064,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>73</v>
       </c>
@@ -6256,7 +6221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6311,7 +6276,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>74</v>
       </c>
@@ -6368,7 +6333,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
@@ -6377,157 +6342,157 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>78178</v>
+        <v>92318</v>
       </c>
       <c r="F56" s="11">
-        <v>92318</v>
+        <v>91659</v>
       </c>
       <c r="G56" s="11">
-        <v>91659</v>
+        <v>128806</v>
       </c>
       <c r="H56" s="11">
-        <v>128806</v>
+        <v>137845</v>
       </c>
       <c r="I56" s="11">
-        <v>137845</v>
+        <v>134487</v>
       </c>
       <c r="J56" s="11">
-        <v>134487</v>
+        <v>137298</v>
       </c>
       <c r="K56" s="11">
-        <v>137298</v>
+        <v>174445</v>
       </c>
       <c r="L56" s="11">
-        <v>174445</v>
+        <v>139329</v>
       </c>
       <c r="M56" s="11">
-        <v>139329</v>
+        <v>132818</v>
       </c>
       <c r="N56" s="11">
-        <v>132818</v>
+        <v>178304</v>
       </c>
       <c r="O56" s="11">
-        <v>178304</v>
+        <v>175093</v>
       </c>
       <c r="P56" s="11">
-        <v>175093</v>
+        <v>165063</v>
       </c>
       <c r="Q56" s="11">
-        <v>165063</v>
+        <v>170816</v>
       </c>
       <c r="R56" s="11">
-        <v>170816</v>
+        <v>200508</v>
       </c>
       <c r="S56" s="11">
-        <v>200508</v>
+        <v>206277</v>
       </c>
       <c r="T56" s="11">
-        <v>206277</v>
+        <v>209603</v>
       </c>
       <c r="U56" s="11">
-        <v>209603</v>
+        <v>212574</v>
       </c>
       <c r="V56" s="11">
-        <v>212574</v>
+        <v>211689</v>
       </c>
       <c r="W56" s="11">
-        <v>211689</v>
+        <v>205125</v>
       </c>
       <c r="X56" s="11">
-        <v>205125</v>
+        <v>203652</v>
       </c>
       <c r="Y56" s="11">
-        <v>203652</v>
+        <v>209280</v>
       </c>
       <c r="Z56" s="11">
-        <v>209280</v>
+        <v>306705</v>
       </c>
       <c r="AA56" s="11">
-        <v>306705</v>
+        <v>314775</v>
       </c>
       <c r="AB56" s="11">
-        <v>314775</v>
+        <v>315823</v>
       </c>
       <c r="AC56" s="11">
-        <v>315823</v>
+        <v>302687</v>
       </c>
       <c r="AD56" s="11">
-        <v>302687</v>
+        <v>295995</v>
       </c>
       <c r="AE56" s="11">
-        <v>295995</v>
+        <v>299294</v>
       </c>
       <c r="AF56" s="11">
-        <v>299294</v>
+        <v>290509</v>
       </c>
       <c r="AG56" s="11">
-        <v>290509</v>
+        <v>294279</v>
       </c>
       <c r="AH56" s="11">
-        <v>294279</v>
+        <v>300777</v>
       </c>
       <c r="AI56" s="11">
-        <v>300777</v>
+        <v>300582</v>
       </c>
       <c r="AJ56" s="11">
-        <v>300582</v>
+        <v>294170</v>
       </c>
       <c r="AK56" s="11">
-        <v>294170</v>
+        <v>290450</v>
       </c>
       <c r="AL56" s="11">
-        <v>290450</v>
+        <v>291762</v>
       </c>
       <c r="AM56" s="11">
-        <v>291762</v>
+        <v>294797</v>
       </c>
       <c r="AN56" s="11">
-        <v>294797</v>
+        <v>287252</v>
       </c>
       <c r="AO56" s="11">
-        <v>287252</v>
+        <v>289276</v>
       </c>
       <c r="AP56" s="11">
-        <v>289276</v>
+        <v>295687</v>
       </c>
       <c r="AQ56" s="11">
-        <v>295687</v>
+        <v>291891</v>
       </c>
       <c r="AR56" s="11">
-        <v>291891</v>
+        <v>289166</v>
       </c>
       <c r="AS56" s="11">
-        <v>289166</v>
+        <v>386045</v>
       </c>
       <c r="AT56" s="11">
-        <v>386045</v>
+        <v>350136</v>
       </c>
       <c r="AU56" s="11">
-        <v>350136</v>
+        <v>350893</v>
       </c>
       <c r="AV56" s="11">
-        <v>350893</v>
+        <v>480254</v>
       </c>
       <c r="AW56" s="11">
-        <v>480254</v>
+        <v>399817</v>
       </c>
       <c r="AX56" s="11">
-        <v>399817</v>
+        <v>458776</v>
       </c>
       <c r="AY56" s="11">
-        <v>458776</v>
+        <v>471292</v>
       </c>
       <c r="AZ56" s="11">
-        <v>471292</v>
+        <v>479156</v>
       </c>
       <c r="BA56" s="11">
-        <v>479156</v>
+        <v>544037</v>
       </c>
       <c r="BB56" s="11">
-        <v>544037</v>
+        <v>614576</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
@@ -6536,157 +6501,157 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>166066</v>
+        <v>170247</v>
       </c>
       <c r="F57" s="13">
-        <v>170247</v>
+        <v>166603</v>
       </c>
       <c r="G57" s="13">
-        <v>166603</v>
+        <v>208825</v>
       </c>
       <c r="H57" s="13">
-        <v>208825</v>
+        <v>246383</v>
       </c>
       <c r="I57" s="13">
-        <v>246383</v>
+        <v>249698</v>
       </c>
       <c r="J57" s="13">
-        <v>249698</v>
+        <v>236449</v>
       </c>
       <c r="K57" s="13">
-        <v>236449</v>
+        <v>251792</v>
       </c>
       <c r="L57" s="13">
-        <v>251792</v>
+        <v>254115</v>
       </c>
       <c r="M57" s="13">
-        <v>254115</v>
+        <v>242107</v>
       </c>
       <c r="N57" s="13">
-        <v>242107</v>
+        <v>257804</v>
       </c>
       <c r="O57" s="13">
-        <v>257804</v>
+        <v>300991</v>
       </c>
       <c r="P57" s="13">
-        <v>300991</v>
+        <v>301341</v>
       </c>
       <c r="Q57" s="13">
-        <v>301341</v>
+        <v>302274</v>
       </c>
       <c r="R57" s="13">
-        <v>302274</v>
+        <v>305194</v>
       </c>
       <c r="S57" s="13">
-        <v>305194</v>
+        <v>306591</v>
       </c>
       <c r="T57" s="13">
-        <v>306591</v>
+        <v>304267</v>
       </c>
       <c r="U57" s="13">
-        <v>304267</v>
+        <v>303951</v>
       </c>
       <c r="V57" s="13">
-        <v>303951</v>
+        <v>308769</v>
       </c>
       <c r="W57" s="13">
-        <v>308769</v>
+        <v>302236</v>
       </c>
       <c r="X57" s="13">
-        <v>302236</v>
+        <v>307068</v>
       </c>
       <c r="Y57" s="13">
-        <v>307068</v>
+        <v>308175</v>
       </c>
       <c r="Z57" s="13">
-        <v>308175</v>
+        <v>503312</v>
       </c>
       <c r="AA57" s="13">
-        <v>503312</v>
+        <v>550378</v>
       </c>
       <c r="AB57" s="13">
-        <v>550378</v>
+        <v>578137</v>
       </c>
       <c r="AC57" s="13">
-        <v>578137</v>
+        <v>576716</v>
       </c>
       <c r="AD57" s="13">
-        <v>576716</v>
+        <v>575645</v>
       </c>
       <c r="AE57" s="13">
-        <v>575645</v>
+        <v>583188</v>
       </c>
       <c r="AF57" s="13">
-        <v>583188</v>
+        <v>569608</v>
       </c>
       <c r="AG57" s="13">
-        <v>569608</v>
+        <v>582180</v>
       </c>
       <c r="AH57" s="13">
-        <v>582180</v>
+        <v>576844</v>
       </c>
       <c r="AI57" s="13">
-        <v>576844</v>
+        <v>574559</v>
       </c>
       <c r="AJ57" s="13">
-        <v>574559</v>
+        <v>578913</v>
       </c>
       <c r="AK57" s="13">
-        <v>578913</v>
+        <v>581402</v>
       </c>
       <c r="AL57" s="13">
-        <v>581402</v>
+        <v>566914</v>
       </c>
       <c r="AM57" s="13">
-        <v>566914</v>
+        <v>575112</v>
       </c>
       <c r="AN57" s="13">
-        <v>575112</v>
+        <v>565548</v>
       </c>
       <c r="AO57" s="13">
-        <v>565548</v>
+        <v>577982</v>
       </c>
       <c r="AP57" s="13">
-        <v>577982</v>
+        <v>581754</v>
       </c>
       <c r="AQ57" s="13">
-        <v>581754</v>
+        <v>567375</v>
       </c>
       <c r="AR57" s="13">
-        <v>567375</v>
+        <v>581111</v>
       </c>
       <c r="AS57" s="13">
-        <v>581111</v>
+        <v>740031</v>
       </c>
       <c r="AT57" s="13">
-        <v>740031</v>
+        <v>739192</v>
       </c>
       <c r="AU57" s="13">
-        <v>739192</v>
+        <v>740616</v>
       </c>
       <c r="AV57" s="13">
-        <v>740616</v>
+        <v>752527</v>
       </c>
       <c r="AW57" s="13">
-        <v>752527</v>
+        <v>715300</v>
       </c>
       <c r="AX57" s="13">
-        <v>715300</v>
+        <v>735907</v>
       </c>
       <c r="AY57" s="13">
-        <v>735907</v>
+        <v>858394</v>
       </c>
       <c r="AZ57" s="13">
-        <v>858394</v>
+        <v>887708</v>
       </c>
       <c r="BA57" s="13">
-        <v>887708</v>
+        <v>1077658</v>
       </c>
       <c r="BB57" s="13">
-        <v>1077658</v>
+        <v>1111799</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>58</v>
       </c>
@@ -6695,157 +6660,157 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>135031</v>
+        <v>132702</v>
       </c>
       <c r="F58" s="11">
-        <v>132702</v>
+        <v>131990</v>
       </c>
       <c r="G58" s="11">
-        <v>131990</v>
+        <v>155689</v>
       </c>
       <c r="H58" s="11">
-        <v>155689</v>
+        <v>178856</v>
       </c>
       <c r="I58" s="11">
-        <v>178856</v>
+        <v>179712</v>
       </c>
       <c r="J58" s="11">
-        <v>179712</v>
+        <v>178877</v>
       </c>
       <c r="K58" s="11">
-        <v>178877</v>
+        <v>182008</v>
       </c>
       <c r="L58" s="11">
-        <v>182008</v>
+        <v>181527</v>
       </c>
       <c r="M58" s="11">
-        <v>181527</v>
+        <v>184129</v>
       </c>
       <c r="N58" s="11">
-        <v>184129</v>
+        <v>207678</v>
       </c>
       <c r="O58" s="11">
-        <v>207678</v>
+        <v>251609</v>
       </c>
       <c r="P58" s="11">
-        <v>251609</v>
+        <v>213139</v>
       </c>
       <c r="Q58" s="11">
-        <v>213139</v>
+        <v>220584</v>
       </c>
       <c r="R58" s="11">
-        <v>220584</v>
+        <v>221776</v>
       </c>
       <c r="S58" s="11">
-        <v>221776</v>
+        <v>224087</v>
       </c>
       <c r="T58" s="11">
-        <v>224087</v>
+        <v>228297</v>
       </c>
       <c r="U58" s="11">
-        <v>228297</v>
+        <v>234931</v>
       </c>
       <c r="V58" s="11">
-        <v>234931</v>
+        <v>241354</v>
       </c>
       <c r="W58" s="11">
-        <v>241354</v>
+        <v>246282</v>
       </c>
       <c r="X58" s="11">
-        <v>246282</v>
+        <v>243111</v>
       </c>
       <c r="Y58" s="11">
-        <v>243111</v>
+        <v>234318</v>
       </c>
       <c r="Z58" s="11">
-        <v>234318</v>
+        <v>328893</v>
       </c>
       <c r="AA58" s="11">
-        <v>328893</v>
+        <v>376941</v>
       </c>
       <c r="AB58" s="11">
-        <v>376941</v>
+        <v>415995</v>
       </c>
       <c r="AC58" s="11">
-        <v>415995</v>
+        <v>405545</v>
       </c>
       <c r="AD58" s="11">
-        <v>405545</v>
+        <v>408573</v>
       </c>
       <c r="AE58" s="11">
-        <v>408573</v>
+        <v>420444</v>
       </c>
       <c r="AF58" s="11">
-        <v>420444</v>
+        <v>504978</v>
       </c>
       <c r="AG58" s="11">
-        <v>504978</v>
+        <v>525014</v>
       </c>
       <c r="AH58" s="11">
-        <v>525014</v>
+        <v>643282</v>
       </c>
       <c r="AI58" s="11">
-        <v>643282</v>
+        <v>542330</v>
       </c>
       <c r="AJ58" s="11">
-        <v>542330</v>
+        <v>550814</v>
       </c>
       <c r="AK58" s="11">
-        <v>550814</v>
+        <v>549417</v>
       </c>
       <c r="AL58" s="11">
-        <v>549417</v>
+        <v>550561</v>
       </c>
       <c r="AM58" s="11">
-        <v>550561</v>
+        <v>547982</v>
       </c>
       <c r="AN58" s="11">
-        <v>547982</v>
+        <v>548345</v>
       </c>
       <c r="AO58" s="11">
-        <v>548345</v>
+        <v>539834</v>
       </c>
       <c r="AP58" s="11">
-        <v>539834</v>
+        <v>543543</v>
       </c>
       <c r="AQ58" s="11">
-        <v>543543</v>
+        <v>624810</v>
       </c>
       <c r="AR58" s="11">
-        <v>624810</v>
+        <v>616443</v>
       </c>
       <c r="AS58" s="11">
-        <v>616443</v>
+        <v>597789</v>
       </c>
       <c r="AT58" s="11">
-        <v>597789</v>
+        <v>648161</v>
       </c>
       <c r="AU58" s="11">
-        <v>648161</v>
+        <v>597741</v>
       </c>
       <c r="AV58" s="11">
-        <v>597741</v>
+        <v>620672</v>
       </c>
       <c r="AW58" s="11">
-        <v>620672</v>
+        <v>684449</v>
       </c>
       <c r="AX58" s="11">
-        <v>684449</v>
+        <v>721433</v>
       </c>
       <c r="AY58" s="11">
-        <v>721433</v>
+        <v>728398</v>
       </c>
       <c r="AZ58" s="11">
-        <v>728398</v>
+        <v>754760</v>
       </c>
       <c r="BA58" s="11">
-        <v>754760</v>
+        <v>791806</v>
       </c>
       <c r="BB58" s="11">
-        <v>791806</v>
+        <v>816571</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>59</v>
       </c>
@@ -6854,154 +6819,154 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>142948</v>
+        <v>150871</v>
       </c>
       <c r="F59" s="13">
-        <v>150871</v>
+        <v>154896</v>
       </c>
       <c r="G59" s="13">
-        <v>154896</v>
+        <v>170301</v>
       </c>
       <c r="H59" s="13">
-        <v>170301</v>
+        <v>183175</v>
       </c>
       <c r="I59" s="13">
-        <v>183175</v>
+        <v>186367</v>
       </c>
       <c r="J59" s="13">
-        <v>186367</v>
+        <v>193173</v>
       </c>
       <c r="K59" s="13">
-        <v>193173</v>
+        <v>186070</v>
       </c>
       <c r="L59" s="13">
-        <v>186070</v>
+        <v>185305</v>
       </c>
       <c r="M59" s="13">
-        <v>185305</v>
+        <v>184250</v>
       </c>
       <c r="N59" s="13">
-        <v>184250</v>
+        <v>236497</v>
       </c>
       <c r="O59" s="13">
-        <v>236497</v>
+        <v>248717</v>
       </c>
       <c r="P59" s="13">
-        <v>248717</v>
+        <v>237748</v>
       </c>
       <c r="Q59" s="13">
-        <v>237748</v>
+        <v>236474</v>
       </c>
       <c r="R59" s="13">
-        <v>236474</v>
+        <v>233857</v>
       </c>
       <c r="S59" s="13">
-        <v>233857</v>
+        <v>233530</v>
       </c>
       <c r="T59" s="13">
-        <v>233530</v>
+        <v>236200</v>
       </c>
       <c r="U59" s="13">
-        <v>236200</v>
+        <v>237829</v>
       </c>
       <c r="V59" s="13">
-        <v>237829</v>
+        <v>236008</v>
       </c>
       <c r="W59" s="13">
-        <v>236008</v>
+        <v>236917</v>
       </c>
       <c r="X59" s="13">
-        <v>236917</v>
+        <v>237644</v>
       </c>
       <c r="Y59" s="13">
-        <v>237644</v>
+        <v>235282</v>
       </c>
       <c r="Z59" s="13">
-        <v>235282</v>
+        <v>291091</v>
       </c>
       <c r="AA59" s="13">
-        <v>291091</v>
+        <v>346844</v>
       </c>
       <c r="AB59" s="13">
-        <v>346844</v>
+        <v>411781</v>
       </c>
       <c r="AC59" s="13">
-        <v>411781</v>
+        <v>383694</v>
       </c>
       <c r="AD59" s="13">
-        <v>383694</v>
+        <v>398841</v>
       </c>
       <c r="AE59" s="13">
-        <v>398841</v>
+        <v>488954</v>
       </c>
       <c r="AF59" s="13">
-        <v>488954</v>
+        <v>531741</v>
       </c>
       <c r="AG59" s="13">
-        <v>531741</v>
+        <v>577119</v>
       </c>
       <c r="AH59" s="13">
-        <v>577119</v>
+        <v>557771</v>
       </c>
       <c r="AI59" s="13">
-        <v>557771</v>
+        <v>538214</v>
       </c>
       <c r="AJ59" s="13">
-        <v>538214</v>
+        <v>528048</v>
       </c>
       <c r="AK59" s="13">
-        <v>528048</v>
+        <v>523852</v>
       </c>
       <c r="AL59" s="13">
-        <v>523852</v>
+        <v>542727</v>
       </c>
       <c r="AM59" s="13">
-        <v>542727</v>
+        <v>536376</v>
       </c>
       <c r="AN59" s="13">
-        <v>536376</v>
+        <v>546104</v>
       </c>
       <c r="AO59" s="13">
-        <v>546104</v>
+        <v>537761</v>
       </c>
       <c r="AP59" s="13">
-        <v>537761</v>
+        <v>546516</v>
       </c>
       <c r="AQ59" s="13">
-        <v>546516</v>
+        <v>576893</v>
       </c>
       <c r="AR59" s="13">
-        <v>576893</v>
+        <v>594261</v>
       </c>
       <c r="AS59" s="13">
-        <v>594261</v>
+        <v>581885</v>
       </c>
       <c r="AT59" s="13">
-        <v>581885</v>
+        <v>607603</v>
       </c>
       <c r="AU59" s="13">
-        <v>607603</v>
+        <v>615458</v>
       </c>
       <c r="AV59" s="13">
-        <v>615458</v>
+        <v>625178</v>
       </c>
       <c r="AW59" s="13">
-        <v>625178</v>
+        <v>699223</v>
       </c>
       <c r="AX59" s="13">
-        <v>699223</v>
+        <v>744587</v>
       </c>
       <c r="AY59" s="13">
-        <v>728732</v>
+        <v>810195</v>
       </c>
       <c r="AZ59" s="13">
-        <v>810173</v>
+        <v>728063</v>
       </c>
       <c r="BA59" s="13">
-        <v>728063</v>
+        <v>791989</v>
       </c>
       <c r="BB59" s="13">
-        <v>791989</v>
+        <v>810822</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/monthly.xlsx
+++ b/database/industries/lastic/pekerman/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB89BDC-78F7-4518-AA26-5AD3C1C9AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -184,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>نوار</t>
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,7 +446,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -457,7 +458,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -504,6 +505,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,17 +725,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -755,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -812,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -869,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -924,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -981,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1093,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1305,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1371,157 +1406,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>125442</v>
+        <v>156925</v>
       </c>
       <c r="F11" s="11">
-        <v>156925</v>
+        <v>109835</v>
       </c>
       <c r="G11" s="11">
-        <v>109835</v>
+        <v>119917</v>
       </c>
       <c r="H11" s="11">
-        <v>119917</v>
+        <v>145327</v>
       </c>
       <c r="I11" s="11">
-        <v>145327</v>
+        <v>116904</v>
       </c>
       <c r="J11" s="11">
-        <v>116904</v>
+        <v>95451</v>
       </c>
       <c r="K11" s="11">
-        <v>95451</v>
+        <v>151783</v>
       </c>
       <c r="L11" s="11">
-        <v>151783</v>
+        <v>120955</v>
       </c>
       <c r="M11" s="11">
-        <v>120955</v>
+        <v>114780</v>
       </c>
       <c r="N11" s="11">
-        <v>114780</v>
+        <v>132928</v>
       </c>
       <c r="O11" s="11">
-        <v>132928</v>
+        <v>152516</v>
       </c>
       <c r="P11" s="11">
-        <v>152516</v>
+        <v>128823</v>
       </c>
       <c r="Q11" s="11">
-        <v>128823</v>
+        <v>117676</v>
       </c>
       <c r="R11" s="11">
-        <v>117676</v>
+        <v>143963</v>
       </c>
       <c r="S11" s="11">
-        <v>143963</v>
+        <v>148065</v>
       </c>
       <c r="T11" s="11">
-        <v>148065</v>
+        <v>130464</v>
       </c>
       <c r="U11" s="11">
-        <v>130464</v>
+        <v>137491</v>
       </c>
       <c r="V11" s="11">
-        <v>137491</v>
+        <v>123926</v>
       </c>
       <c r="W11" s="11">
-        <v>123926</v>
+        <v>151869</v>
       </c>
       <c r="X11" s="11">
-        <v>151869</v>
+        <v>190579</v>
       </c>
       <c r="Y11" s="11">
-        <v>190579</v>
+        <v>133862</v>
       </c>
       <c r="Z11" s="11">
-        <v>133862</v>
+        <v>192349</v>
       </c>
       <c r="AA11" s="11">
-        <v>192349</v>
+        <v>160459</v>
       </c>
       <c r="AB11" s="11">
-        <v>160459</v>
+        <v>147792</v>
       </c>
       <c r="AC11" s="11">
-        <v>147792</v>
+        <v>124953</v>
       </c>
       <c r="AD11" s="11">
-        <v>124953</v>
+        <v>123835</v>
       </c>
       <c r="AE11" s="11">
-        <v>123835</v>
+        <v>129275</v>
       </c>
       <c r="AF11" s="11">
-        <v>129275</v>
+        <v>163599</v>
       </c>
       <c r="AG11" s="11">
-        <v>163599</v>
+        <v>196055</v>
       </c>
       <c r="AH11" s="11">
-        <v>196055</v>
+        <v>111434</v>
       </c>
       <c r="AI11" s="11">
-        <v>111434</v>
+        <v>152945</v>
       </c>
       <c r="AJ11" s="11">
-        <v>152945</v>
+        <v>155975</v>
       </c>
       <c r="AK11" s="11">
-        <v>155975</v>
+        <v>142096</v>
       </c>
       <c r="AL11" s="11">
-        <v>142096</v>
+        <v>120974</v>
       </c>
       <c r="AM11" s="11">
-        <v>120974</v>
+        <v>131422</v>
       </c>
       <c r="AN11" s="11">
-        <v>131422</v>
+        <v>135395</v>
       </c>
       <c r="AO11" s="11">
-        <v>135395</v>
+        <v>132289</v>
       </c>
       <c r="AP11" s="11">
-        <v>132289</v>
+        <v>137703</v>
       </c>
       <c r="AQ11" s="11">
-        <v>137703</v>
+        <v>150376</v>
       </c>
       <c r="AR11" s="11">
-        <v>150376</v>
+        <v>98751</v>
       </c>
       <c r="AS11" s="11">
-        <v>98751</v>
+        <v>83857</v>
       </c>
       <c r="AT11" s="11">
-        <v>83857</v>
+        <v>55707</v>
       </c>
       <c r="AU11" s="11">
-        <v>55707</v>
+        <v>63774</v>
       </c>
       <c r="AV11" s="11">
-        <v>63774</v>
+        <v>96015</v>
       </c>
       <c r="AW11" s="11">
-        <v>96015</v>
+        <v>104375</v>
       </c>
       <c r="AX11" s="11">
-        <v>104375</v>
+        <v>97588</v>
       </c>
       <c r="AY11" s="11">
-        <v>97588</v>
+        <v>106321</v>
       </c>
       <c r="AZ11" s="11">
-        <v>106321</v>
+        <v>107491</v>
       </c>
       <c r="BA11" s="11">
-        <v>107491</v>
+        <v>135177</v>
       </c>
       <c r="BB11" s="11">
-        <v>135177</v>
+        <v>136180</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1530,157 +1565,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>259142</v>
+        <v>152685</v>
       </c>
       <c r="F12" s="13">
-        <v>152685</v>
+        <v>199268</v>
       </c>
       <c r="G12" s="13">
-        <v>199268</v>
+        <v>203814</v>
       </c>
       <c r="H12" s="13">
-        <v>203814</v>
+        <v>210714</v>
       </c>
       <c r="I12" s="13">
-        <v>210714</v>
+        <v>172748</v>
       </c>
       <c r="J12" s="13">
-        <v>172748</v>
+        <v>195662</v>
       </c>
       <c r="K12" s="13">
-        <v>195662</v>
+        <v>117680</v>
       </c>
       <c r="L12" s="13">
-        <v>117680</v>
+        <v>0</v>
       </c>
       <c r="M12" s="13">
-        <v>0</v>
+        <v>68867</v>
       </c>
       <c r="N12" s="13">
-        <v>68867</v>
+        <v>202751</v>
       </c>
       <c r="O12" s="13">
-        <v>202751</v>
+        <v>153332</v>
       </c>
       <c r="P12" s="13">
-        <v>153332</v>
+        <v>206060</v>
       </c>
       <c r="Q12" s="13">
-        <v>206060</v>
+        <v>235229</v>
       </c>
       <c r="R12" s="13">
-        <v>235229</v>
+        <v>208451</v>
       </c>
       <c r="S12" s="13">
-        <v>208451</v>
+        <v>225759</v>
       </c>
       <c r="T12" s="13">
-        <v>225759</v>
+        <v>242073</v>
       </c>
       <c r="U12" s="13">
-        <v>242073</v>
+        <v>234858</v>
       </c>
       <c r="V12" s="13">
-        <v>234858</v>
+        <v>199813</v>
       </c>
       <c r="W12" s="13">
-        <v>199813</v>
+        <v>315140</v>
       </c>
       <c r="X12" s="13">
-        <v>315140</v>
+        <v>318642</v>
       </c>
       <c r="Y12" s="13">
-        <v>318642</v>
+        <v>244820</v>
       </c>
       <c r="Z12" s="13">
-        <v>244820</v>
+        <v>286880</v>
       </c>
       <c r="AA12" s="13">
-        <v>286880</v>
+        <v>316978</v>
       </c>
       <c r="AB12" s="13">
-        <v>316978</v>
+        <v>275490</v>
       </c>
       <c r="AC12" s="13">
-        <v>275490</v>
+        <v>298710</v>
       </c>
       <c r="AD12" s="13">
-        <v>298710</v>
+        <v>301000</v>
       </c>
       <c r="AE12" s="13">
-        <v>301000</v>
+        <v>302677</v>
       </c>
       <c r="AF12" s="13">
-        <v>302677</v>
+        <v>321774</v>
       </c>
       <c r="AG12" s="13">
-        <v>321774</v>
+        <v>300944</v>
       </c>
       <c r="AH12" s="13">
-        <v>300944</v>
+        <v>170432</v>
       </c>
       <c r="AI12" s="13">
-        <v>170432</v>
+        <v>300451</v>
       </c>
       <c r="AJ12" s="13">
-        <v>300451</v>
+        <v>303856</v>
       </c>
       <c r="AK12" s="13">
-        <v>303856</v>
+        <v>293876</v>
       </c>
       <c r="AL12" s="13">
-        <v>293876</v>
+        <v>200669</v>
       </c>
       <c r="AM12" s="13">
-        <v>200669</v>
+        <v>255651</v>
       </c>
       <c r="AN12" s="13">
-        <v>255651</v>
+        <v>262963</v>
       </c>
       <c r="AO12" s="13">
-        <v>262963</v>
+        <v>262524</v>
       </c>
       <c r="AP12" s="13">
-        <v>262524</v>
+        <v>266704</v>
       </c>
       <c r="AQ12" s="13">
-        <v>266704</v>
+        <v>270866</v>
       </c>
       <c r="AR12" s="13">
-        <v>270866</v>
+        <v>241075</v>
       </c>
       <c r="AS12" s="13">
-        <v>241075</v>
+        <v>255272</v>
       </c>
       <c r="AT12" s="13">
-        <v>255272</v>
+        <v>92280</v>
       </c>
       <c r="AU12" s="13">
-        <v>92280</v>
+        <v>171554</v>
       </c>
       <c r="AV12" s="13">
-        <v>171554</v>
+        <v>210493</v>
       </c>
       <c r="AW12" s="13">
-        <v>210493</v>
+        <v>219954</v>
       </c>
       <c r="AX12" s="13">
-        <v>219954</v>
+        <v>153426</v>
       </c>
       <c r="AY12" s="13">
-        <v>153426</v>
+        <v>265597</v>
       </c>
       <c r="AZ12" s="13">
-        <v>265597</v>
+        <v>280858</v>
       </c>
       <c r="BA12" s="13">
-        <v>280858</v>
+        <v>190885</v>
       </c>
       <c r="BB12" s="13">
-        <v>190885</v>
+        <v>215965</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1689,157 +1724,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2510797</v>
+        <v>2295241</v>
       </c>
       <c r="F13" s="11">
-        <v>2295241</v>
+        <v>2388771</v>
       </c>
       <c r="G13" s="11">
-        <v>2388771</v>
+        <v>2362903</v>
       </c>
       <c r="H13" s="11">
-        <v>2362903</v>
+        <v>2439318</v>
       </c>
       <c r="I13" s="11">
-        <v>2439318</v>
+        <v>2241890</v>
       </c>
       <c r="J13" s="11">
-        <v>2241890</v>
+        <v>2217869</v>
       </c>
       <c r="K13" s="11">
-        <v>2217869</v>
+        <v>2066449</v>
       </c>
       <c r="L13" s="11">
-        <v>2066449</v>
+        <v>2092900</v>
       </c>
       <c r="M13" s="11">
-        <v>2092900</v>
+        <v>1593761</v>
       </c>
       <c r="N13" s="11">
-        <v>1593761</v>
+        <v>830265</v>
       </c>
       <c r="O13" s="11">
-        <v>830265</v>
+        <v>1827468</v>
       </c>
       <c r="P13" s="11">
-        <v>1827468</v>
+        <v>2188884</v>
       </c>
       <c r="Q13" s="11">
-        <v>2188884</v>
+        <v>2316548</v>
       </c>
       <c r="R13" s="11">
-        <v>2316548</v>
+        <v>2529554</v>
       </c>
       <c r="S13" s="11">
-        <v>2529554</v>
+        <v>2554143</v>
       </c>
       <c r="T13" s="11">
-        <v>2554143</v>
+        <v>2614667</v>
       </c>
       <c r="U13" s="11">
-        <v>2614667</v>
+        <v>2552799</v>
       </c>
       <c r="V13" s="11">
-        <v>2552799</v>
+        <v>1980293</v>
       </c>
       <c r="W13" s="11">
-        <v>1980293</v>
+        <v>2777237</v>
       </c>
       <c r="X13" s="11">
-        <v>2777237</v>
+        <v>2762873</v>
       </c>
       <c r="Y13" s="11">
-        <v>2762873</v>
+        <v>2157117</v>
       </c>
       <c r="Z13" s="11">
-        <v>2157117</v>
+        <v>2203077</v>
       </c>
       <c r="AA13" s="11">
-        <v>2203077</v>
+        <v>2747977</v>
       </c>
       <c r="AB13" s="11">
-        <v>2747977</v>
+        <v>2603431</v>
       </c>
       <c r="AC13" s="11">
-        <v>2603431</v>
+        <v>2693222</v>
       </c>
       <c r="AD13" s="11">
-        <v>2693222</v>
+        <v>2674037</v>
       </c>
       <c r="AE13" s="11">
-        <v>2674037</v>
+        <v>2705137</v>
       </c>
       <c r="AF13" s="11">
-        <v>2705137</v>
+        <v>2808741</v>
       </c>
       <c r="AG13" s="11">
-        <v>2808741</v>
+        <v>2819587</v>
       </c>
       <c r="AH13" s="11">
-        <v>2819587</v>
+        <v>1640722</v>
       </c>
       <c r="AI13" s="11">
-        <v>1640722</v>
+        <v>2926884</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2926884</v>
+        <v>2861475</v>
       </c>
       <c r="AK13" s="11">
-        <v>2861475</v>
+        <v>2914527</v>
       </c>
       <c r="AL13" s="11">
-        <v>2914527</v>
+        <v>2070652</v>
       </c>
       <c r="AM13" s="11">
-        <v>2070652</v>
+        <v>2535626</v>
       </c>
       <c r="AN13" s="11">
-        <v>2535626</v>
+        <v>2697190</v>
       </c>
       <c r="AO13" s="11">
-        <v>2697190</v>
+        <v>2677214</v>
       </c>
       <c r="AP13" s="11">
-        <v>2677214</v>
+        <v>2619521</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2619521</v>
+        <v>2630484</v>
       </c>
       <c r="AR13" s="11">
-        <v>2630484</v>
+        <v>2603164</v>
       </c>
       <c r="AS13" s="11">
-        <v>2603164</v>
+        <v>2193307</v>
       </c>
       <c r="AT13" s="11">
-        <v>2193307</v>
+        <v>1418543</v>
       </c>
       <c r="AU13" s="11">
-        <v>1418543</v>
+        <v>2608877</v>
       </c>
       <c r="AV13" s="11">
-        <v>2608877</v>
+        <v>2692676</v>
       </c>
       <c r="AW13" s="11">
-        <v>2692676</v>
+        <v>2711857</v>
       </c>
       <c r="AX13" s="11">
-        <v>2711857</v>
+        <v>1787937</v>
       </c>
       <c r="AY13" s="11">
-        <v>1787937</v>
+        <v>2438795</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2438795</v>
+        <v>2443112</v>
       </c>
       <c r="BA13" s="11">
-        <v>2443112</v>
+        <v>2370132</v>
       </c>
       <c r="BB13" s="11">
-        <v>2370132</v>
+        <v>2339290</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1848,157 +1883,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>4168449</v>
+        <v>4447852</v>
       </c>
       <c r="F14" s="13">
-        <v>4447852</v>
+        <v>4306410</v>
       </c>
       <c r="G14" s="13">
-        <v>4306410</v>
+        <v>4485436</v>
       </c>
       <c r="H14" s="13">
-        <v>4485436</v>
+        <v>2957832</v>
       </c>
       <c r="I14" s="13">
-        <v>2957832</v>
+        <v>3592053</v>
       </c>
       <c r="J14" s="13">
-        <v>3592053</v>
+        <v>3749712</v>
       </c>
       <c r="K14" s="13">
-        <v>3749712</v>
+        <v>4301023</v>
       </c>
       <c r="L14" s="13">
-        <v>4301023</v>
+        <v>3301236</v>
       </c>
       <c r="M14" s="13">
-        <v>3301236</v>
+        <v>3711484</v>
       </c>
       <c r="N14" s="13">
-        <v>3711484</v>
+        <v>3196667</v>
       </c>
       <c r="O14" s="13">
-        <v>3196667</v>
+        <v>3286920</v>
       </c>
       <c r="P14" s="13">
-        <v>3286920</v>
+        <v>3960635</v>
       </c>
       <c r="Q14" s="13">
-        <v>3960635</v>
+        <v>4376883</v>
       </c>
       <c r="R14" s="13">
-        <v>4376883</v>
+        <v>4742304</v>
       </c>
       <c r="S14" s="13">
-        <v>4742304</v>
+        <v>4751275</v>
       </c>
       <c r="T14" s="13">
-        <v>4751275</v>
+        <v>4880041</v>
       </c>
       <c r="U14" s="13">
-        <v>4880041</v>
+        <v>4434109</v>
       </c>
       <c r="V14" s="13">
-        <v>4434109</v>
+        <v>3452093</v>
       </c>
       <c r="W14" s="13">
-        <v>3452093</v>
+        <v>4958378</v>
       </c>
       <c r="X14" s="13">
-        <v>4958378</v>
+        <v>5126224</v>
       </c>
       <c r="Y14" s="13">
-        <v>5126224</v>
+        <v>3859112</v>
       </c>
       <c r="Z14" s="13">
-        <v>3859112</v>
+        <v>4620506</v>
       </c>
       <c r="AA14" s="13">
-        <v>4620506</v>
+        <v>4740937</v>
       </c>
       <c r="AB14" s="13">
-        <v>4740937</v>
+        <v>4610138</v>
       </c>
       <c r="AC14" s="13">
-        <v>4610138</v>
+        <v>4602770</v>
       </c>
       <c r="AD14" s="13">
-        <v>4602770</v>
+        <v>4636081</v>
       </c>
       <c r="AE14" s="13">
-        <v>4636081</v>
+        <v>4677931</v>
       </c>
       <c r="AF14" s="13">
-        <v>4677931</v>
+        <v>4882636</v>
       </c>
       <c r="AG14" s="13">
-        <v>4882636</v>
+        <v>4841085</v>
       </c>
       <c r="AH14" s="13">
-        <v>4841085</v>
+        <v>2737030</v>
       </c>
       <c r="AI14" s="13">
-        <v>2737030</v>
+        <v>5009156</v>
       </c>
       <c r="AJ14" s="13">
-        <v>5009156</v>
+        <v>4698709</v>
       </c>
       <c r="AK14" s="13">
-        <v>4698709</v>
+        <v>5223075</v>
       </c>
       <c r="AL14" s="13">
-        <v>5223075</v>
+        <v>3217180</v>
       </c>
       <c r="AM14" s="13">
-        <v>3217180</v>
+        <v>4725551</v>
       </c>
       <c r="AN14" s="13">
-        <v>4725551</v>
+        <v>4874454</v>
       </c>
       <c r="AO14" s="13">
-        <v>4874454</v>
+        <v>5084516</v>
       </c>
       <c r="AP14" s="13">
-        <v>5084516</v>
+        <v>5073476</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5073476</v>
+        <v>5051990</v>
       </c>
       <c r="AR14" s="13">
-        <v>5051990</v>
+        <v>4787135</v>
       </c>
       <c r="AS14" s="13">
-        <v>4787135</v>
+        <v>4209099</v>
       </c>
       <c r="AT14" s="13">
-        <v>4209099</v>
+        <v>3453025</v>
       </c>
       <c r="AU14" s="13">
-        <v>3453025</v>
+        <v>5322608</v>
       </c>
       <c r="AV14" s="13">
-        <v>5322608</v>
+        <v>5478651</v>
       </c>
       <c r="AW14" s="13">
-        <v>5478651</v>
+        <v>5288140</v>
       </c>
       <c r="AX14" s="13">
-        <v>5288140</v>
+        <v>3913055</v>
       </c>
       <c r="AY14" s="13">
-        <v>3913055</v>
+        <v>5691649</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5691649</v>
+        <v>3828881</v>
       </c>
       <c r="BA14" s="13">
-        <v>3828881</v>
+        <v>4957770</v>
       </c>
       <c r="BB14" s="13">
-        <v>4957770</v>
+        <v>5196679</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>60</v>
       </c>
@@ -2055,7 +2090,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>61</v>
       </c>
@@ -2121,8 +2156,8 @@
       <c r="X16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" s="17" t="s">
-        <v>62</v>
+      <c r="Y16" s="17">
+        <v>0</v>
       </c>
       <c r="Z16" s="17">
         <v>0</v>
@@ -2212,164 +2247,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>7063830</v>
+        <v>7052703</v>
       </c>
       <c r="F17" s="19">
-        <v>7052703</v>
+        <v>7004284</v>
       </c>
       <c r="G17" s="19">
-        <v>7004284</v>
+        <v>7172070</v>
       </c>
       <c r="H17" s="19">
-        <v>7172070</v>
+        <v>5753191</v>
       </c>
       <c r="I17" s="19">
-        <v>5753191</v>
+        <v>6123595</v>
       </c>
       <c r="J17" s="19">
-        <v>6123595</v>
+        <v>6258694</v>
       </c>
       <c r="K17" s="19">
-        <v>6258694</v>
+        <v>6636935</v>
       </c>
       <c r="L17" s="19">
-        <v>6636935</v>
+        <v>5515091</v>
       </c>
       <c r="M17" s="19">
-        <v>5515091</v>
+        <v>5488892</v>
       </c>
       <c r="N17" s="19">
-        <v>5488892</v>
+        <v>4362611</v>
       </c>
       <c r="O17" s="19">
-        <v>4362611</v>
+        <v>5420236</v>
       </c>
       <c r="P17" s="19">
-        <v>5420236</v>
+        <v>6484402</v>
       </c>
       <c r="Q17" s="19">
-        <v>6484402</v>
+        <v>7046336</v>
       </c>
       <c r="R17" s="19">
-        <v>7046336</v>
+        <v>7624272</v>
       </c>
       <c r="S17" s="19">
-        <v>7624272</v>
+        <v>7679242</v>
       </c>
       <c r="T17" s="19">
-        <v>7679242</v>
+        <v>7867245</v>
       </c>
       <c r="U17" s="19">
-        <v>7867245</v>
+        <v>7359257</v>
       </c>
       <c r="V17" s="19">
-        <v>7359257</v>
+        <v>5756125</v>
       </c>
       <c r="W17" s="19">
-        <v>5756125</v>
+        <v>8202624</v>
       </c>
       <c r="X17" s="19">
-        <v>8202624</v>
+        <v>8398318</v>
       </c>
       <c r="Y17" s="19">
-        <v>8398318</v>
+        <v>6394911</v>
       </c>
       <c r="Z17" s="19">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="AA17" s="19">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="AB17" s="19">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="AC17" s="19">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="AD17" s="19">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AE17" s="19">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AF17" s="19">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AG17" s="19">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AH17" s="19">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AI17" s="19">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AJ17" s="19">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AK17" s="19">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AL17" s="19">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AM17" s="19">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AN17" s="19">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AO17" s="19">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AP17" s="19">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AQ17" s="19">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AR17" s="19">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AS17" s="19">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AT17" s="19">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AU17" s="19">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AV17" s="19">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AW17" s="19">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AX17" s="19">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AY17" s="19">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="AZ17" s="19">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="BA17" s="19">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
       <c r="BB17" s="19">
-        <v>7653964</v>
+        <v>7888114</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2424,7 +2459,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2479,7 +2514,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2534,7 +2569,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2691,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2746,7 +2781,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2803,7 +2838,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2812,157 +2847,157 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>122847</v>
+        <v>64620</v>
       </c>
       <c r="F24" s="11">
-        <v>64620</v>
+        <v>65952</v>
       </c>
       <c r="G24" s="11">
-        <v>65952</v>
+        <v>179528</v>
       </c>
       <c r="H24" s="11">
-        <v>179528</v>
+        <v>126124</v>
       </c>
       <c r="I24" s="11">
-        <v>126124</v>
+        <v>74546</v>
       </c>
       <c r="J24" s="11">
-        <v>74546</v>
+        <v>19456</v>
       </c>
       <c r="K24" s="11">
-        <v>19456</v>
+        <v>57734</v>
       </c>
       <c r="L24" s="11">
-        <v>57734</v>
+        <v>181413</v>
       </c>
       <c r="M24" s="11">
-        <v>181413</v>
+        <v>134327</v>
       </c>
       <c r="N24" s="11">
-        <v>134327</v>
+        <v>185170</v>
       </c>
       <c r="O24" s="11">
-        <v>185170</v>
+        <v>143727</v>
       </c>
       <c r="P24" s="11">
-        <v>143727</v>
+        <v>125451</v>
       </c>
       <c r="Q24" s="11">
-        <v>125451</v>
+        <v>108350</v>
       </c>
       <c r="R24" s="11">
-        <v>108350</v>
+        <v>122597</v>
       </c>
       <c r="S24" s="11">
-        <v>122597</v>
+        <v>130819</v>
       </c>
       <c r="T24" s="11">
-        <v>130819</v>
+        <v>107680</v>
       </c>
       <c r="U24" s="11">
-        <v>107680</v>
+        <v>129402</v>
       </c>
       <c r="V24" s="11">
-        <v>129402</v>
+        <v>76134</v>
       </c>
       <c r="W24" s="11">
-        <v>76134</v>
+        <v>185797</v>
       </c>
       <c r="X24" s="11">
-        <v>185797</v>
+        <v>154339</v>
       </c>
       <c r="Y24" s="11">
-        <v>154339</v>
+        <v>159727</v>
       </c>
       <c r="Z24" s="11">
-        <v>159727</v>
+        <v>126414</v>
       </c>
       <c r="AA24" s="11">
-        <v>126414</v>
+        <v>152880</v>
       </c>
       <c r="AB24" s="11">
-        <v>152880</v>
+        <v>139081</v>
       </c>
       <c r="AC24" s="11">
-        <v>139081</v>
+        <v>110289</v>
       </c>
       <c r="AD24" s="11">
-        <v>110289</v>
+        <v>109578</v>
       </c>
       <c r="AE24" s="11">
-        <v>109578</v>
+        <v>143875</v>
       </c>
       <c r="AF24" s="11">
-        <v>143875</v>
+        <v>155910</v>
       </c>
       <c r="AG24" s="11">
-        <v>155910</v>
+        <v>89342</v>
       </c>
       <c r="AH24" s="11">
-        <v>89342</v>
+        <v>45179</v>
       </c>
       <c r="AI24" s="11">
-        <v>45179</v>
+        <v>177411</v>
       </c>
       <c r="AJ24" s="11">
-        <v>177411</v>
+        <v>125612</v>
       </c>
       <c r="AK24" s="11">
-        <v>125612</v>
+        <v>114782</v>
       </c>
       <c r="AL24" s="11">
-        <v>114782</v>
+        <v>106385</v>
       </c>
       <c r="AM24" s="11">
-        <v>106385</v>
+        <v>202331</v>
       </c>
       <c r="AN24" s="11">
-        <v>202331</v>
+        <v>173454</v>
       </c>
       <c r="AO24" s="11">
-        <v>173454</v>
+        <v>141951</v>
       </c>
       <c r="AP24" s="11">
-        <v>141951</v>
+        <v>137075</v>
       </c>
       <c r="AQ24" s="11">
-        <v>137075</v>
+        <v>191385</v>
       </c>
       <c r="AR24" s="11">
-        <v>191385</v>
+        <v>26528</v>
       </c>
       <c r="AS24" s="11">
-        <v>26528</v>
+        <v>124386</v>
       </c>
       <c r="AT24" s="11">
-        <v>124386</v>
+        <v>85573</v>
       </c>
       <c r="AU24" s="11">
-        <v>85573</v>
+        <v>104351</v>
       </c>
       <c r="AV24" s="11">
-        <v>104351</v>
+        <v>94203</v>
       </c>
       <c r="AW24" s="11">
-        <v>94203</v>
+        <v>122720</v>
       </c>
       <c r="AX24" s="11">
-        <v>122720</v>
+        <v>100303</v>
       </c>
       <c r="AY24" s="11">
-        <v>100303</v>
+        <v>118598</v>
       </c>
       <c r="AZ24" s="11">
-        <v>118598</v>
+        <v>125405</v>
       </c>
       <c r="BA24" s="11">
-        <v>125405</v>
+        <v>117258</v>
       </c>
       <c r="BB24" s="11">
-        <v>117258</v>
+        <v>123608</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
@@ -2971,157 +3006,157 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>261908</v>
+        <v>110676</v>
       </c>
       <c r="F25" s="13">
-        <v>110676</v>
+        <v>140893</v>
       </c>
       <c r="G25" s="13">
-        <v>140893</v>
+        <v>291092</v>
       </c>
       <c r="H25" s="13">
-        <v>291092</v>
+        <v>222220</v>
       </c>
       <c r="I25" s="13">
-        <v>222220</v>
+        <v>183080</v>
       </c>
       <c r="J25" s="13">
-        <v>183080</v>
+        <v>60689</v>
       </c>
       <c r="K25" s="13">
-        <v>60689</v>
+        <v>109238</v>
       </c>
       <c r="L25" s="13">
-        <v>109238</v>
+        <v>161982</v>
       </c>
       <c r="M25" s="13">
-        <v>161982</v>
+        <v>79929</v>
       </c>
       <c r="N25" s="13">
-        <v>79929</v>
+        <v>157945</v>
       </c>
       <c r="O25" s="13">
-        <v>157945</v>
+        <v>179813</v>
       </c>
       <c r="P25" s="13">
-        <v>179813</v>
+        <v>167745</v>
       </c>
       <c r="Q25" s="13">
-        <v>167745</v>
+        <v>185479</v>
       </c>
       <c r="R25" s="13">
-        <v>185479</v>
+        <v>192142</v>
       </c>
       <c r="S25" s="13">
-        <v>192142</v>
+        <v>255746</v>
       </c>
       <c r="T25" s="13">
-        <v>255746</v>
+        <v>233587</v>
       </c>
       <c r="U25" s="13">
-        <v>233587</v>
+        <v>188390</v>
       </c>
       <c r="V25" s="13">
-        <v>188390</v>
+        <v>115175</v>
       </c>
       <c r="W25" s="13">
-        <v>115175</v>
+        <v>260099</v>
       </c>
       <c r="X25" s="13">
-        <v>260099</v>
+        <v>264447</v>
       </c>
       <c r="Y25" s="13">
-        <v>264447</v>
+        <v>246235</v>
       </c>
       <c r="Z25" s="13">
-        <v>246235</v>
+        <v>261542</v>
       </c>
       <c r="AA25" s="13">
-        <v>261542</v>
+        <v>377687</v>
       </c>
       <c r="AB25" s="13">
-        <v>377687</v>
+        <v>318951</v>
       </c>
       <c r="AC25" s="13">
-        <v>318951</v>
+        <v>255039</v>
       </c>
       <c r="AD25" s="13">
-        <v>255039</v>
+        <v>220668</v>
       </c>
       <c r="AE25" s="13">
-        <v>220668</v>
+        <v>281497</v>
       </c>
       <c r="AF25" s="13">
-        <v>281497</v>
+        <v>211170</v>
       </c>
       <c r="AG25" s="13">
-        <v>211170</v>
+        <v>239869</v>
       </c>
       <c r="AH25" s="13">
-        <v>239869</v>
+        <v>128288</v>
       </c>
       <c r="AI25" s="13">
-        <v>128288</v>
+        <v>433623</v>
       </c>
       <c r="AJ25" s="13">
-        <v>433623</v>
+        <v>289631</v>
       </c>
       <c r="AK25" s="13">
-        <v>289631</v>
+        <v>277229</v>
       </c>
       <c r="AL25" s="13">
-        <v>277229</v>
+        <v>165599</v>
       </c>
       <c r="AM25" s="13">
-        <v>165599</v>
+        <v>331429</v>
       </c>
       <c r="AN25" s="13">
-        <v>331429</v>
+        <v>256297</v>
       </c>
       <c r="AO25" s="13">
-        <v>256297</v>
+        <v>194357</v>
       </c>
       <c r="AP25" s="13">
-        <v>194357</v>
+        <v>192000</v>
       </c>
       <c r="AQ25" s="13">
-        <v>192000</v>
+        <v>246349</v>
       </c>
       <c r="AR25" s="13">
-        <v>246349</v>
+        <v>130408</v>
       </c>
       <c r="AS25" s="13">
-        <v>130408</v>
+        <v>276103</v>
       </c>
       <c r="AT25" s="13">
-        <v>276103</v>
+        <v>143941</v>
       </c>
       <c r="AU25" s="13">
-        <v>143941</v>
+        <v>193100</v>
       </c>
       <c r="AV25" s="13">
-        <v>193100</v>
+        <v>292684</v>
       </c>
       <c r="AW25" s="13">
-        <v>292684</v>
+        <v>274282</v>
       </c>
       <c r="AX25" s="13">
-        <v>274282</v>
+        <v>184921</v>
       </c>
       <c r="AY25" s="13">
-        <v>184921</v>
+        <v>278398</v>
       </c>
       <c r="AZ25" s="13">
-        <v>278398</v>
+        <v>270816</v>
       </c>
       <c r="BA25" s="13">
-        <v>270816</v>
+        <v>278758</v>
       </c>
       <c r="BB25" s="13">
-        <v>278758</v>
+        <v>133927</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
@@ -3130,157 +3165,157 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>2551963</v>
+        <v>1666537</v>
       </c>
       <c r="F26" s="11">
-        <v>1666537</v>
+        <v>2243928</v>
       </c>
       <c r="G26" s="11">
-        <v>2243928</v>
+        <v>2993714</v>
       </c>
       <c r="H26" s="11">
-        <v>2993714</v>
+        <v>2969246</v>
       </c>
       <c r="I26" s="11">
-        <v>2969246</v>
+        <v>2509938</v>
       </c>
       <c r="J26" s="11">
-        <v>2509938</v>
+        <v>1029938</v>
       </c>
       <c r="K26" s="11">
-        <v>1029938</v>
+        <v>2341975</v>
       </c>
       <c r="L26" s="11">
-        <v>2341975</v>
+        <v>2509859</v>
       </c>
       <c r="M26" s="11">
-        <v>2509859</v>
+        <v>2337374</v>
       </c>
       <c r="N26" s="11">
-        <v>2337374</v>
+        <v>1234798</v>
       </c>
       <c r="O26" s="11">
-        <v>1234798</v>
+        <v>1601741</v>
       </c>
       <c r="P26" s="11">
-        <v>1601741</v>
+        <v>2163760</v>
       </c>
       <c r="Q26" s="11">
-        <v>2163760</v>
+        <v>1972067</v>
       </c>
       <c r="R26" s="11">
-        <v>1972067</v>
+        <v>2438596</v>
       </c>
       <c r="S26" s="11">
-        <v>2438596</v>
+        <v>2520999</v>
       </c>
       <c r="T26" s="11">
-        <v>2520999</v>
+        <v>2507662</v>
       </c>
       <c r="U26" s="11">
-        <v>2507662</v>
+        <v>2269406</v>
       </c>
       <c r="V26" s="11">
-        <v>2269406</v>
+        <v>988670</v>
       </c>
       <c r="W26" s="11">
-        <v>988670</v>
+        <v>2684946</v>
       </c>
       <c r="X26" s="11">
-        <v>2684946</v>
+        <v>3162169</v>
       </c>
       <c r="Y26" s="11">
-        <v>3162169</v>
+        <v>2581762</v>
       </c>
       <c r="Z26" s="11">
-        <v>2581762</v>
+        <v>1580913</v>
       </c>
       <c r="AA26" s="11">
-        <v>1580913</v>
+        <v>2664249</v>
       </c>
       <c r="AB26" s="11">
-        <v>2664249</v>
+        <v>2543703</v>
       </c>
       <c r="AC26" s="11">
-        <v>2543703</v>
+        <v>2461361</v>
       </c>
       <c r="AD26" s="11">
-        <v>2461361</v>
+        <v>1776079</v>
       </c>
       <c r="AE26" s="11">
-        <v>1776079</v>
+        <v>2117786</v>
       </c>
       <c r="AF26" s="11">
-        <v>2117786</v>
+        <v>2440395</v>
       </c>
       <c r="AG26" s="11">
-        <v>2440395</v>
+        <v>2156300</v>
       </c>
       <c r="AH26" s="11">
-        <v>2156300</v>
+        <v>1371262</v>
       </c>
       <c r="AI26" s="11">
-        <v>1371262</v>
+        <v>2883052</v>
       </c>
       <c r="AJ26" s="11">
-        <v>2883052</v>
+        <v>3595563</v>
       </c>
       <c r="AK26" s="11">
-        <v>3595563</v>
+        <v>2296443</v>
       </c>
       <c r="AL26" s="11">
-        <v>2296443</v>
+        <v>2828429</v>
       </c>
       <c r="AM26" s="11">
-        <v>2828429</v>
+        <v>3562063</v>
       </c>
       <c r="AN26" s="11">
-        <v>3562063</v>
+        <v>2489079</v>
       </c>
       <c r="AO26" s="11">
-        <v>2489079</v>
+        <v>2548569</v>
       </c>
       <c r="AP26" s="11">
-        <v>2548569</v>
+        <v>1665944</v>
       </c>
       <c r="AQ26" s="11">
-        <v>1665944</v>
+        <v>2017416</v>
       </c>
       <c r="AR26" s="11">
-        <v>2017416</v>
+        <v>1662413</v>
       </c>
       <c r="AS26" s="11">
-        <v>1662413</v>
+        <v>2601693</v>
       </c>
       <c r="AT26" s="11">
-        <v>2601693</v>
+        <v>1111511</v>
       </c>
       <c r="AU26" s="11">
-        <v>1111511</v>
+        <v>4183959</v>
       </c>
       <c r="AV26" s="11">
-        <v>4183959</v>
+        <v>2604751</v>
       </c>
       <c r="AW26" s="11">
-        <v>2604751</v>
+        <v>3077439</v>
       </c>
       <c r="AX26" s="11">
-        <v>3077439</v>
+        <v>2320167</v>
       </c>
       <c r="AY26" s="11">
-        <v>2320167</v>
+        <v>2650998</v>
       </c>
       <c r="AZ26" s="11">
-        <v>2650998</v>
+        <v>2228545</v>
       </c>
       <c r="BA26" s="11">
-        <v>2228545</v>
+        <v>2875781</v>
       </c>
       <c r="BB26" s="11">
-        <v>2875781</v>
+        <v>1915686</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>59</v>
       </c>
@@ -3289,157 +3324,157 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>4051839</v>
+        <v>4157610</v>
       </c>
       <c r="F27" s="13">
-        <v>4157610</v>
+        <v>3739974</v>
       </c>
       <c r="G27" s="13">
-        <v>3739974</v>
+        <v>5436457</v>
       </c>
       <c r="H27" s="13">
-        <v>5436457</v>
+        <v>3408649</v>
       </c>
       <c r="I27" s="13">
-        <v>3408649</v>
+        <v>4085789</v>
       </c>
       <c r="J27" s="13">
-        <v>4085789</v>
+        <v>2025004</v>
       </c>
       <c r="K27" s="13">
-        <v>2025004</v>
+        <v>4126780</v>
       </c>
       <c r="L27" s="13">
-        <v>4126780</v>
+        <v>3928308</v>
       </c>
       <c r="M27" s="13">
-        <v>3928308</v>
+        <v>4034226</v>
       </c>
       <c r="N27" s="13">
-        <v>4034226</v>
+        <v>3187709</v>
       </c>
       <c r="O27" s="13">
-        <v>3187709</v>
+        <v>3780946</v>
       </c>
       <c r="P27" s="13">
-        <v>3780946</v>
+        <v>4083070</v>
       </c>
       <c r="Q27" s="13">
-        <v>4083070</v>
+        <v>4228969</v>
       </c>
       <c r="R27" s="13">
-        <v>4228969</v>
+        <v>4667026</v>
       </c>
       <c r="S27" s="13">
-        <v>4667026</v>
+        <v>4566513</v>
       </c>
       <c r="T27" s="13">
-        <v>4566513</v>
+        <v>4581305</v>
       </c>
       <c r="U27" s="13">
-        <v>4581305</v>
+        <v>4210196</v>
       </c>
       <c r="V27" s="13">
-        <v>4210196</v>
+        <v>2091398</v>
       </c>
       <c r="W27" s="13">
-        <v>2091398</v>
+        <v>5284121</v>
       </c>
       <c r="X27" s="13">
-        <v>5284121</v>
+        <v>5306313</v>
       </c>
       <c r="Y27" s="13">
-        <v>5306313</v>
+        <v>4736869</v>
       </c>
       <c r="Z27" s="13">
-        <v>4736869</v>
+        <v>3536365</v>
       </c>
       <c r="AA27" s="13">
-        <v>3536365</v>
+        <v>5281256</v>
       </c>
       <c r="AB27" s="13">
-        <v>5281256</v>
+        <v>4843745</v>
       </c>
       <c r="AC27" s="13">
-        <v>4843745</v>
+        <v>4515487</v>
       </c>
       <c r="AD27" s="13">
-        <v>4515487</v>
+        <v>3802653</v>
       </c>
       <c r="AE27" s="13">
-        <v>3802653</v>
+        <v>4813840</v>
       </c>
       <c r="AF27" s="13">
-        <v>4813840</v>
+        <v>4477138</v>
       </c>
       <c r="AG27" s="13">
-        <v>4477138</v>
+        <v>4450246</v>
       </c>
       <c r="AH27" s="13">
-        <v>4450246</v>
+        <v>2767829</v>
       </c>
       <c r="AI27" s="13">
-        <v>2767829</v>
+        <v>4804993</v>
       </c>
       <c r="AJ27" s="13">
-        <v>4804993</v>
+        <v>4978792</v>
       </c>
       <c r="AK27" s="13">
-        <v>4978792</v>
+        <v>5632641</v>
       </c>
       <c r="AL27" s="13">
-        <v>5632641</v>
+        <v>3590625</v>
       </c>
       <c r="AM27" s="13">
-        <v>3590625</v>
+        <v>5022958</v>
       </c>
       <c r="AN27" s="13">
-        <v>5022958</v>
+        <v>4364005</v>
       </c>
       <c r="AO27" s="13">
-        <v>4364005</v>
+        <v>4755076</v>
       </c>
       <c r="AP27" s="13">
-        <v>4755076</v>
+        <v>5774215</v>
       </c>
       <c r="AQ27" s="13">
-        <v>5774215</v>
+        <v>4311551</v>
       </c>
       <c r="AR27" s="13">
-        <v>4311551</v>
+        <v>5209264</v>
       </c>
       <c r="AS27" s="13">
-        <v>5209264</v>
+        <v>4201316</v>
       </c>
       <c r="AT27" s="13">
-        <v>4201316</v>
+        <v>2729923</v>
       </c>
       <c r="AU27" s="13">
-        <v>2729923</v>
+        <v>4860901</v>
       </c>
       <c r="AV27" s="13">
-        <v>4860901</v>
+        <v>5522645</v>
       </c>
       <c r="AW27" s="13">
-        <v>5522645</v>
+        <v>5418613</v>
       </c>
       <c r="AX27" s="13">
-        <v>5418613</v>
+        <v>4679786</v>
       </c>
       <c r="AY27" s="13">
-        <v>4679786</v>
+        <v>5369924</v>
       </c>
       <c r="AZ27" s="13">
-        <v>5369924</v>
+        <v>3837130</v>
       </c>
       <c r="BA27" s="13">
-        <v>3837130</v>
+        <v>4988744</v>
       </c>
       <c r="BB27" s="13">
-        <v>4988744</v>
+        <v>5408437</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>60</v>
       </c>
@@ -3496,7 +3531,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>61</v>
       </c>
@@ -3562,8 +3597,8 @@
       <c r="X29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y29" s="17" t="s">
-        <v>62</v>
+      <c r="Y29" s="17">
+        <v>0</v>
       </c>
       <c r="Z29" s="17">
         <v>0</v>
@@ -3653,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>65</v>
       </c>
@@ -3710,7 +3745,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -3776,8 +3811,8 @@
       <c r="X31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>62</v>
+      <c r="Y31" s="17">
+        <v>0</v>
       </c>
       <c r="Z31" s="17">
         <v>0</v>
@@ -3867,164 +3902,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
-        <v>6988557</v>
+        <v>5999443</v>
       </c>
       <c r="F32" s="19">
-        <v>5999443</v>
+        <v>6190747</v>
       </c>
       <c r="G32" s="19">
-        <v>6190747</v>
+        <v>8900791</v>
       </c>
       <c r="H32" s="19">
-        <v>8900791</v>
+        <v>6726239</v>
       </c>
       <c r="I32" s="19">
-        <v>6726239</v>
+        <v>6853353</v>
       </c>
       <c r="J32" s="19">
-        <v>6853353</v>
+        <v>3135087</v>
       </c>
       <c r="K32" s="19">
-        <v>3135087</v>
+        <v>6635727</v>
       </c>
       <c r="L32" s="19">
-        <v>6635727</v>
+        <v>6781562</v>
       </c>
       <c r="M32" s="19">
-        <v>6781562</v>
+        <v>6585856</v>
       </c>
       <c r="N32" s="19">
-        <v>6585856</v>
+        <v>4765622</v>
       </c>
       <c r="O32" s="19">
-        <v>4765622</v>
+        <v>5706227</v>
       </c>
       <c r="P32" s="19">
-        <v>5706227</v>
+        <v>6540026</v>
       </c>
       <c r="Q32" s="19">
-        <v>6540026</v>
+        <v>6494865</v>
       </c>
       <c r="R32" s="19">
-        <v>6494865</v>
+        <v>7420361</v>
       </c>
       <c r="S32" s="19">
-        <v>7420361</v>
+        <v>7474077</v>
       </c>
       <c r="T32" s="19">
-        <v>7474077</v>
+        <v>7430234</v>
       </c>
       <c r="U32" s="19">
-        <v>7430234</v>
+        <v>6797394</v>
       </c>
       <c r="V32" s="19">
-        <v>6797394</v>
+        <v>3271377</v>
       </c>
       <c r="W32" s="19">
-        <v>3271377</v>
+        <v>8414963</v>
       </c>
       <c r="X32" s="19">
-        <v>8414963</v>
+        <v>8887268</v>
       </c>
       <c r="Y32" s="19">
-        <v>8887268</v>
+        <v>7724593</v>
       </c>
       <c r="Z32" s="19">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="AA32" s="19">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="AB32" s="19">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="AC32" s="19">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="AD32" s="19">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AE32" s="19">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AF32" s="19">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AG32" s="19">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AH32" s="19">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AI32" s="19">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AJ32" s="19">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AK32" s="19">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AL32" s="19">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AM32" s="19">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AN32" s="19">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AO32" s="19">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AP32" s="19">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AQ32" s="19">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AR32" s="19">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AS32" s="19">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AT32" s="19">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AU32" s="19">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AV32" s="19">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AW32" s="19">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AX32" s="19">
-        <v>8893054</v>
+        <v>7285177</v>
       </c>
       <c r="AY32" s="19">
-        <v>7285177</v>
+        <v>8417918</v>
       </c>
       <c r="AZ32" s="19">
-        <v>8417918</v>
+        <v>6461896</v>
       </c>
       <c r="BA32" s="19">
-        <v>6461896</v>
+        <v>8260541</v>
       </c>
       <c r="BB32" s="19">
-        <v>8260541</v>
+        <v>7581658</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4079,7 +4114,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4134,7 +4169,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4189,7 +4224,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>67</v>
       </c>
@@ -4346,7 +4381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4401,7 +4436,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>67</v>
       </c>
@@ -4458,7 +4493,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4467,157 +4502,157 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>11341</v>
+        <v>5923</v>
       </c>
       <c r="F39" s="11">
-        <v>5923</v>
+        <v>8495</v>
       </c>
       <c r="G39" s="11">
-        <v>8495</v>
+        <v>24747</v>
       </c>
       <c r="H39" s="11">
-        <v>24747</v>
+        <v>16962</v>
       </c>
       <c r="I39" s="11">
-        <v>16962</v>
+        <v>10235</v>
       </c>
       <c r="J39" s="11">
-        <v>10235</v>
+        <v>3394</v>
       </c>
       <c r="K39" s="11">
-        <v>3394</v>
+        <v>8044</v>
       </c>
       <c r="L39" s="11">
-        <v>8044</v>
+        <v>24095</v>
       </c>
       <c r="M39" s="11">
-        <v>24095</v>
+        <v>23951</v>
       </c>
       <c r="N39" s="11">
-        <v>23951</v>
+        <v>32422</v>
       </c>
       <c r="O39" s="11">
-        <v>32422</v>
+        <v>23724</v>
       </c>
       <c r="P39" s="11">
-        <v>23724</v>
+        <v>21429</v>
       </c>
       <c r="Q39" s="11">
-        <v>21429</v>
+        <v>21725</v>
       </c>
       <c r="R39" s="11">
-        <v>21725</v>
+        <v>25289</v>
       </c>
       <c r="S39" s="11">
-        <v>25289</v>
+        <v>27420</v>
       </c>
       <c r="T39" s="11">
-        <v>27420</v>
+        <v>22890</v>
       </c>
       <c r="U39" s="11">
-        <v>22890</v>
+        <v>27393</v>
       </c>
       <c r="V39" s="11">
-        <v>27393</v>
+        <v>15617</v>
       </c>
       <c r="W39" s="11">
-        <v>15617</v>
+        <v>37838</v>
       </c>
       <c r="X39" s="11">
-        <v>37838</v>
+        <v>32300</v>
       </c>
       <c r="Y39" s="11">
-        <v>32300</v>
+        <v>48989</v>
       </c>
       <c r="Z39" s="11">
-        <v>48989</v>
+        <v>39792</v>
       </c>
       <c r="AA39" s="11">
-        <v>39792</v>
+        <v>48283</v>
       </c>
       <c r="AB39" s="11">
-        <v>48283</v>
+        <v>42098</v>
       </c>
       <c r="AC39" s="11">
-        <v>42098</v>
+        <v>32645</v>
       </c>
       <c r="AD39" s="11">
-        <v>32645</v>
+        <v>32796</v>
       </c>
       <c r="AE39" s="11">
-        <v>32796</v>
+        <v>41797</v>
       </c>
       <c r="AF39" s="11">
-        <v>41797</v>
+        <v>45881</v>
       </c>
       <c r="AG39" s="11">
-        <v>45881</v>
+        <v>26872</v>
       </c>
       <c r="AH39" s="11">
-        <v>26872</v>
+        <v>13580</v>
       </c>
       <c r="AI39" s="11">
-        <v>13580</v>
+        <v>52189</v>
       </c>
       <c r="AJ39" s="11">
-        <v>52189</v>
+        <v>36484</v>
       </c>
       <c r="AK39" s="11">
-        <v>36484</v>
+        <v>33489</v>
       </c>
       <c r="AL39" s="11">
-        <v>33489</v>
+        <v>31362</v>
       </c>
       <c r="AM39" s="11">
-        <v>31362</v>
+        <v>58120</v>
       </c>
       <c r="AN39" s="11">
-        <v>58120</v>
+        <v>50176</v>
       </c>
       <c r="AO39" s="11">
-        <v>50176</v>
+        <v>41973</v>
       </c>
       <c r="AP39" s="11">
-        <v>41973</v>
+        <v>40011</v>
       </c>
       <c r="AQ39" s="11">
-        <v>40011</v>
+        <v>55342</v>
       </c>
       <c r="AR39" s="11">
-        <v>55342</v>
+        <v>10241</v>
       </c>
       <c r="AS39" s="11">
-        <v>10241</v>
+        <v>43552</v>
       </c>
       <c r="AT39" s="11">
-        <v>43552</v>
+        <v>30027</v>
       </c>
       <c r="AU39" s="11">
-        <v>30027</v>
+        <v>50115</v>
       </c>
       <c r="AV39" s="11">
-        <v>50115</v>
+        <v>37664</v>
       </c>
       <c r="AW39" s="11">
-        <v>37664</v>
+        <v>56301</v>
       </c>
       <c r="AX39" s="11">
-        <v>56301</v>
+        <v>47272</v>
       </c>
       <c r="AY39" s="11">
-        <v>47272</v>
+        <v>56827</v>
       </c>
       <c r="AZ39" s="11">
-        <v>56827</v>
+        <v>68225</v>
       </c>
       <c r="BA39" s="11">
-        <v>68225</v>
+        <v>72064</v>
       </c>
       <c r="BB39" s="11">
-        <v>72064</v>
+        <v>71750</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>57</v>
       </c>
@@ -4626,157 +4661,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>44589</v>
+        <v>18439</v>
       </c>
       <c r="F40" s="13">
-        <v>18439</v>
+        <v>29422</v>
       </c>
       <c r="G40" s="13">
-        <v>29422</v>
+        <v>71720</v>
       </c>
       <c r="H40" s="13">
-        <v>71720</v>
+        <v>55488</v>
       </c>
       <c r="I40" s="13">
-        <v>55488</v>
+        <v>43289</v>
       </c>
       <c r="J40" s="13">
-        <v>43289</v>
+        <v>15281</v>
       </c>
       <c r="K40" s="13">
-        <v>15281</v>
+        <v>27759</v>
       </c>
       <c r="L40" s="13">
-        <v>27759</v>
+        <v>39217</v>
       </c>
       <c r="M40" s="13">
-        <v>39217</v>
+        <v>20606</v>
       </c>
       <c r="N40" s="13">
-        <v>20606</v>
+        <v>47540</v>
       </c>
       <c r="O40" s="13">
-        <v>47540</v>
+        <v>54185</v>
       </c>
       <c r="P40" s="13">
-        <v>54185</v>
+        <v>50705</v>
       </c>
       <c r="Q40" s="13">
-        <v>50705</v>
+        <v>56607</v>
       </c>
       <c r="R40" s="13">
-        <v>56607</v>
+        <v>58909</v>
       </c>
       <c r="S40" s="13">
-        <v>58909</v>
+        <v>77815</v>
       </c>
       <c r="T40" s="13">
-        <v>77815</v>
+        <v>70999</v>
       </c>
       <c r="U40" s="13">
-        <v>70999</v>
+        <v>58169</v>
       </c>
       <c r="V40" s="13">
-        <v>58169</v>
+        <v>34810</v>
       </c>
       <c r="W40" s="13">
-        <v>34810</v>
+        <v>79868</v>
       </c>
       <c r="X40" s="13">
-        <v>79868</v>
+        <v>81496</v>
       </c>
       <c r="Y40" s="13">
-        <v>81496</v>
+        <v>123933</v>
       </c>
       <c r="Z40" s="13">
-        <v>123933</v>
+        <v>143947</v>
       </c>
       <c r="AA40" s="13">
-        <v>143947</v>
+        <v>218355</v>
       </c>
       <c r="AB40" s="13">
-        <v>218355</v>
+        <v>183944</v>
       </c>
       <c r="AC40" s="13">
-        <v>183944</v>
+        <v>146812</v>
       </c>
       <c r="AD40" s="13">
-        <v>146812</v>
+        <v>128691</v>
       </c>
       <c r="AE40" s="13">
-        <v>128691</v>
+        <v>160343</v>
       </c>
       <c r="AF40" s="13">
-        <v>160343</v>
+        <v>122939</v>
       </c>
       <c r="AG40" s="13">
-        <v>122939</v>
+        <v>138367</v>
       </c>
       <c r="AH40" s="13">
-        <v>138367</v>
+        <v>73709</v>
       </c>
       <c r="AI40" s="13">
-        <v>73709</v>
+        <v>251030</v>
       </c>
       <c r="AJ40" s="13">
-        <v>251030</v>
+        <v>168392</v>
       </c>
       <c r="AK40" s="13">
-        <v>168392</v>
+        <v>157165</v>
       </c>
       <c r="AL40" s="13">
-        <v>157165</v>
+        <v>95238</v>
       </c>
       <c r="AM40" s="13">
-        <v>95238</v>
+        <v>187439</v>
       </c>
       <c r="AN40" s="13">
-        <v>187439</v>
+        <v>148135</v>
       </c>
       <c r="AO40" s="13">
-        <v>148135</v>
+        <v>113068</v>
       </c>
       <c r="AP40" s="13">
-        <v>113068</v>
+        <v>108936</v>
       </c>
       <c r="AQ40" s="13">
-        <v>108936</v>
+        <v>143156</v>
       </c>
       <c r="AR40" s="13">
-        <v>143156</v>
+        <v>96506</v>
       </c>
       <c r="AS40" s="13">
-        <v>96506</v>
+        <v>204093</v>
       </c>
       <c r="AT40" s="13">
-        <v>204093</v>
+        <v>106605</v>
       </c>
       <c r="AU40" s="13">
-        <v>106605</v>
+        <v>145313</v>
       </c>
       <c r="AV40" s="13">
-        <v>145313</v>
+        <v>209357</v>
       </c>
       <c r="AW40" s="13">
-        <v>209357</v>
+        <v>201846</v>
       </c>
       <c r="AX40" s="13">
-        <v>201846</v>
+        <v>158735</v>
       </c>
       <c r="AY40" s="13">
-        <v>158735</v>
+        <v>247136</v>
       </c>
       <c r="AZ40" s="13">
-        <v>247136</v>
+        <v>291847</v>
       </c>
       <c r="BA40" s="13">
-        <v>291847</v>
+        <v>309923</v>
       </c>
       <c r="BB40" s="13">
-        <v>309923</v>
+        <v>146941</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>58</v>
       </c>
@@ -4785,157 +4820,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>338651</v>
+        <v>219967</v>
       </c>
       <c r="F41" s="11">
-        <v>219967</v>
+        <v>349354</v>
       </c>
       <c r="G41" s="11">
-        <v>349354</v>
+        <v>535445</v>
       </c>
       <c r="H41" s="11">
-        <v>535445</v>
+        <v>533608</v>
       </c>
       <c r="I41" s="11">
-        <v>533608</v>
+        <v>448969</v>
       </c>
       <c r="J41" s="11">
-        <v>448969</v>
+        <v>187457</v>
       </c>
       <c r="K41" s="11">
-        <v>187457</v>
+        <v>425131</v>
       </c>
       <c r="L41" s="11">
-        <v>425131</v>
+        <v>462139</v>
       </c>
       <c r="M41" s="11">
-        <v>462139</v>
+        <v>485420</v>
       </c>
       <c r="N41" s="11">
-        <v>485420</v>
+        <v>310686</v>
       </c>
       <c r="O41" s="11">
-        <v>310686</v>
+        <v>341393</v>
       </c>
       <c r="P41" s="11">
-        <v>341393</v>
+        <v>477290</v>
       </c>
       <c r="Q41" s="11">
-        <v>477290</v>
+        <v>437358</v>
       </c>
       <c r="R41" s="11">
-        <v>437358</v>
+        <v>546458</v>
       </c>
       <c r="S41" s="11">
-        <v>546458</v>
+        <v>575536</v>
       </c>
       <c r="T41" s="11">
-        <v>575536</v>
+        <v>589127</v>
       </c>
       <c r="U41" s="11">
-        <v>589127</v>
+        <v>547730</v>
       </c>
       <c r="V41" s="11">
-        <v>547730</v>
+        <v>243492</v>
       </c>
       <c r="W41" s="11">
-        <v>243492</v>
+        <v>652739</v>
       </c>
       <c r="X41" s="11">
-        <v>652739</v>
+        <v>740952</v>
       </c>
       <c r="Y41" s="11">
-        <v>740952</v>
+        <v>849123</v>
       </c>
       <c r="Z41" s="11">
-        <v>849123</v>
+        <v>595911</v>
       </c>
       <c r="AA41" s="11">
-        <v>595911</v>
+        <v>1108313</v>
       </c>
       <c r="AB41" s="11">
-        <v>1108313</v>
+        <v>1031586</v>
       </c>
       <c r="AC41" s="11">
-        <v>1031586</v>
+        <v>1005646</v>
       </c>
       <c r="AD41" s="11">
-        <v>1005646</v>
+        <v>746742</v>
       </c>
       <c r="AE41" s="11">
-        <v>746742</v>
+        <v>1069436</v>
       </c>
       <c r="AF41" s="11">
-        <v>1069436</v>
+        <v>1281241</v>
       </c>
       <c r="AG41" s="11">
-        <v>1281241</v>
+        <v>1387108</v>
       </c>
       <c r="AH41" s="11">
-        <v>1387108</v>
+        <v>743677</v>
       </c>
       <c r="AI41" s="11">
-        <v>743677</v>
+        <v>1588025</v>
       </c>
       <c r="AJ41" s="11">
+        <v>1975465</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>1264333</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>1549929</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>1953240</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>1343690</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>1385257</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>1040898</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>1243622</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>993773</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>1686317</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>664396</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>2596866</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>1782819</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>2220167</v>
+      </c>
+      <c r="AX41" s="11">
+        <v>1690006</v>
+      </c>
+      <c r="AY41" s="11">
+        <v>2000867</v>
+      </c>
+      <c r="AZ41" s="11">
+        <v>1764576</v>
+      </c>
+      <c r="BA41" s="11">
+        <v>2348278</v>
+      </c>
+      <c r="BB41" s="11">
         <v>1588025</v>
       </c>
-      <c r="AK41" s="11">
-        <v>1975465</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>1264333</v>
-      </c>
-      <c r="AM41" s="11">
-        <v>1549929</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>1953240</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>1343690</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>1385257</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>1040898</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>1243622</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>993773</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>1686317</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>664396</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>2596866</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>1782819</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>2220167</v>
-      </c>
-      <c r="AY41" s="11">
-        <v>1690006</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>2000867</v>
-      </c>
-      <c r="BA41" s="11">
-        <v>1764576</v>
-      </c>
-      <c r="BB41" s="11">
-        <v>2348278</v>
-      </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -4944,157 +4979,157 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>611305</v>
+        <v>643998</v>
       </c>
       <c r="F42" s="13">
-        <v>643998</v>
+        <v>636920</v>
       </c>
       <c r="G42" s="13">
-        <v>636920</v>
+        <v>995821</v>
       </c>
       <c r="H42" s="13">
-        <v>995821</v>
+        <v>635261</v>
       </c>
       <c r="I42" s="13">
-        <v>635261</v>
+        <v>789265</v>
       </c>
       <c r="J42" s="13">
-        <v>789265</v>
+        <v>376792</v>
       </c>
       <c r="K42" s="13">
-        <v>376792</v>
+        <v>764712</v>
       </c>
       <c r="L42" s="13">
-        <v>764712</v>
+        <v>723791</v>
       </c>
       <c r="M42" s="13">
-        <v>723791</v>
+        <v>954083</v>
       </c>
       <c r="N42" s="13">
-        <v>954083</v>
+        <v>792838</v>
       </c>
       <c r="O42" s="13">
-        <v>792838</v>
+        <v>898914</v>
       </c>
       <c r="P42" s="13">
-        <v>898914</v>
+        <v>965541</v>
       </c>
       <c r="Q42" s="13">
-        <v>965541</v>
+        <v>988974</v>
       </c>
       <c r="R42" s="13">
-        <v>988974</v>
+        <v>1089891</v>
       </c>
       <c r="S42" s="13">
-        <v>1089891</v>
+        <v>1078612</v>
       </c>
       <c r="T42" s="13">
-        <v>1078612</v>
+        <v>1089565</v>
       </c>
       <c r="U42" s="13">
-        <v>1089565</v>
+        <v>993642</v>
       </c>
       <c r="V42" s="13">
-        <v>993642</v>
+        <v>495488</v>
       </c>
       <c r="W42" s="13">
-        <v>495488</v>
+        <v>1255737</v>
       </c>
       <c r="X42" s="13">
-        <v>1255737</v>
+        <v>1248478</v>
       </c>
       <c r="Y42" s="13">
-        <v>1248478</v>
+        <v>1378861</v>
       </c>
       <c r="Z42" s="13">
-        <v>1378861</v>
+        <v>1226566</v>
       </c>
       <c r="AA42" s="13">
-        <v>1226566</v>
+        <v>2174719</v>
       </c>
       <c r="AB42" s="13">
-        <v>2174719</v>
+        <v>1858515</v>
       </c>
       <c r="AC42" s="13">
-        <v>1858515</v>
+        <v>1800961</v>
       </c>
       <c r="AD42" s="13">
-        <v>1800961</v>
+        <v>1859323</v>
       </c>
       <c r="AE42" s="13">
-        <v>1859323</v>
+        <v>2559714</v>
       </c>
       <c r="AF42" s="13">
-        <v>2559714</v>
+        <v>2583842</v>
       </c>
       <c r="AG42" s="13">
-        <v>2583842</v>
+        <v>2482218</v>
       </c>
       <c r="AH42" s="13">
-        <v>2482218</v>
+        <v>1489683</v>
       </c>
       <c r="AI42" s="13">
-        <v>1489683</v>
+        <v>2537265</v>
       </c>
       <c r="AJ42" s="13">
-        <v>2537265</v>
+        <v>2608152</v>
       </c>
       <c r="AK42" s="13">
-        <v>2608152</v>
+        <v>3056985</v>
       </c>
       <c r="AL42" s="13">
-        <v>3056985</v>
+        <v>1925926</v>
       </c>
       <c r="AM42" s="13">
-        <v>1925926</v>
+        <v>2743058</v>
       </c>
       <c r="AN42" s="13">
-        <v>2743058</v>
+        <v>2346792</v>
       </c>
       <c r="AO42" s="13">
-        <v>2346792</v>
+        <v>2598725</v>
       </c>
       <c r="AP42" s="13">
-        <v>2598725</v>
+        <v>3331106</v>
       </c>
       <c r="AQ42" s="13">
-        <v>3331106</v>
+        <v>2562188</v>
       </c>
       <c r="AR42" s="13">
-        <v>2562188</v>
+        <v>3031193</v>
       </c>
       <c r="AS42" s="13">
-        <v>3031193</v>
+        <v>2552731</v>
       </c>
       <c r="AT42" s="13">
-        <v>2552731</v>
+        <v>1680153</v>
       </c>
       <c r="AU42" s="13">
-        <v>1680153</v>
+        <v>3038928</v>
       </c>
       <c r="AV42" s="13">
-        <v>3038928</v>
+        <v>3861560</v>
       </c>
       <c r="AW42" s="13">
-        <v>3861560</v>
+        <v>4242534</v>
       </c>
       <c r="AX42" s="13">
-        <v>4242534</v>
+        <v>3790739</v>
       </c>
       <c r="AY42" s="13">
-        <v>3790739</v>
+        <v>3909644</v>
       </c>
       <c r="AZ42" s="13">
-        <v>3909644</v>
+        <v>3038963</v>
       </c>
       <c r="BA42" s="13">
-        <v>3038963</v>
+        <v>4044982</v>
       </c>
       <c r="BB42" s="13">
-        <v>4044982</v>
+        <v>4369990</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>69</v>
       </c>
@@ -5151,7 +5186,7 @@
       <c r="BA43" s="15"/>
       <c r="BB43" s="15"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>61</v>
       </c>
@@ -5219,8 +5254,8 @@
       <c r="X44" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y44" s="17" t="s">
-        <v>62</v>
+      <c r="Y44" s="17">
+        <v>0</v>
       </c>
       <c r="Z44" s="17">
         <v>0</v>
@@ -5310,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>70</v>
       </c>
@@ -5367,7 +5402,7 @@
       <c r="BA45" s="15"/>
       <c r="BB45" s="15"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>66</v>
       </c>
@@ -5435,8 +5470,8 @@
       <c r="X46" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y46" s="17" t="s">
-        <v>62</v>
+      <c r="Y46" s="17">
+        <v>0</v>
       </c>
       <c r="Z46" s="17">
         <v>0</v>
@@ -5526,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>71</v>
       </c>
@@ -5583,7 +5618,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>72</v>
       </c>
@@ -5651,8 +5686,8 @@
       <c r="X48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>62</v>
+      <c r="Y48" s="11">
+        <v>0</v>
       </c>
       <c r="Z48" s="11">
         <v>0</v>
@@ -5742,164 +5777,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19">
-        <v>1005886</v>
+        <v>888327</v>
       </c>
       <c r="F49" s="19">
-        <v>888327</v>
+        <v>1024191</v>
       </c>
       <c r="G49" s="19">
-        <v>1024191</v>
+        <v>1627733</v>
       </c>
       <c r="H49" s="19">
-        <v>1627733</v>
+        <v>1241319</v>
       </c>
       <c r="I49" s="19">
-        <v>1241319</v>
+        <v>1291758</v>
       </c>
       <c r="J49" s="19">
-        <v>1291758</v>
+        <v>582924</v>
       </c>
       <c r="K49" s="19">
-        <v>582924</v>
+        <v>1225646</v>
       </c>
       <c r="L49" s="19">
-        <v>1225646</v>
+        <v>1249242</v>
       </c>
       <c r="M49" s="19">
-        <v>1249242</v>
+        <v>1484060</v>
       </c>
       <c r="N49" s="19">
-        <v>1484060</v>
+        <v>1183486</v>
       </c>
       <c r="O49" s="19">
-        <v>1183486</v>
+        <v>1318216</v>
       </c>
       <c r="P49" s="19">
-        <v>1318216</v>
+        <v>1514965</v>
       </c>
       <c r="Q49" s="19">
-        <v>1514965</v>
+        <v>1504664</v>
       </c>
       <c r="R49" s="19">
-        <v>1504664</v>
+        <v>1720547</v>
       </c>
       <c r="S49" s="19">
-        <v>1720547</v>
+        <v>1759383</v>
       </c>
       <c r="T49" s="19">
-        <v>1759383</v>
+        <v>1772581</v>
       </c>
       <c r="U49" s="19">
-        <v>1772581</v>
+        <v>1626934</v>
       </c>
       <c r="V49" s="19">
-        <v>1626934</v>
+        <v>789407</v>
       </c>
       <c r="W49" s="19">
-        <v>789407</v>
+        <v>2026182</v>
       </c>
       <c r="X49" s="19">
-        <v>2026182</v>
+        <v>2103226</v>
       </c>
       <c r="Y49" s="19">
-        <v>2103226</v>
+        <v>2400906</v>
       </c>
       <c r="Z49" s="19">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="AA49" s="19">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="AB49" s="19">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="AC49" s="19">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="AD49" s="19">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AE49" s="19">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AF49" s="19">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AG49" s="19">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AH49" s="19">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AI49" s="19">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AJ49" s="19">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AK49" s="19">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AL49" s="19">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AM49" s="19">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AN49" s="19">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AO49" s="19">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AP49" s="19">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AQ49" s="19">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AR49" s="19">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AS49" s="19">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AT49" s="19">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AU49" s="19">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AV49" s="19">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AW49" s="19">
-        <v>5891400</v>
+        <v>6720848</v>
       </c>
       <c r="AX49" s="19">
-        <v>6720848</v>
+        <v>5686752</v>
       </c>
       <c r="AY49" s="19">
-        <v>5686752</v>
+        <v>6214474</v>
       </c>
       <c r="AZ49" s="19">
-        <v>6214474</v>
+        <v>5163611</v>
       </c>
       <c r="BA49" s="19">
-        <v>5163611</v>
+        <v>6775247</v>
       </c>
       <c r="BB49" s="19">
-        <v>6775247</v>
+        <v>6176706</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5954,7 +5989,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6009,7 +6044,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6064,7 +6099,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>73</v>
       </c>
@@ -6221,7 +6256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6276,7 +6311,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>74</v>
       </c>
@@ -6333,7 +6368,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
@@ -6342,157 +6377,157 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>92318</v>
+        <v>91659</v>
       </c>
       <c r="F56" s="11">
-        <v>91659</v>
+        <v>128806</v>
       </c>
       <c r="G56" s="11">
-        <v>128806</v>
+        <v>137845</v>
       </c>
       <c r="H56" s="11">
-        <v>137845</v>
+        <v>134487</v>
       </c>
       <c r="I56" s="11">
-        <v>134487</v>
+        <v>137298</v>
       </c>
       <c r="J56" s="11">
-        <v>137298</v>
+        <v>174445</v>
       </c>
       <c r="K56" s="11">
-        <v>174445</v>
+        <v>139329</v>
       </c>
       <c r="L56" s="11">
-        <v>139329</v>
+        <v>132818</v>
       </c>
       <c r="M56" s="11">
-        <v>132818</v>
+        <v>178304</v>
       </c>
       <c r="N56" s="11">
-        <v>178304</v>
+        <v>175093</v>
       </c>
       <c r="O56" s="11">
-        <v>175093</v>
+        <v>165063</v>
       </c>
       <c r="P56" s="11">
-        <v>165063</v>
+        <v>170816</v>
       </c>
       <c r="Q56" s="11">
-        <v>170816</v>
+        <v>200508</v>
       </c>
       <c r="R56" s="11">
-        <v>200508</v>
+        <v>206277</v>
       </c>
       <c r="S56" s="11">
-        <v>206277</v>
+        <v>209603</v>
       </c>
       <c r="T56" s="11">
-        <v>209603</v>
+        <v>212574</v>
       </c>
       <c r="U56" s="11">
-        <v>212574</v>
+        <v>211689</v>
       </c>
       <c r="V56" s="11">
-        <v>211689</v>
+        <v>205125</v>
       </c>
       <c r="W56" s="11">
-        <v>205125</v>
+        <v>203652</v>
       </c>
       <c r="X56" s="11">
-        <v>203652</v>
+        <v>209280</v>
       </c>
       <c r="Y56" s="11">
-        <v>209280</v>
+        <v>306705</v>
       </c>
       <c r="Z56" s="11">
-        <v>306705</v>
+        <v>314775</v>
       </c>
       <c r="AA56" s="11">
-        <v>314775</v>
+        <v>315823</v>
       </c>
       <c r="AB56" s="11">
-        <v>315823</v>
+        <v>302687</v>
       </c>
       <c r="AC56" s="11">
-        <v>302687</v>
+        <v>295995</v>
       </c>
       <c r="AD56" s="11">
-        <v>295995</v>
+        <v>299294</v>
       </c>
       <c r="AE56" s="11">
-        <v>299294</v>
+        <v>290509</v>
       </c>
       <c r="AF56" s="11">
-        <v>290509</v>
+        <v>294279</v>
       </c>
       <c r="AG56" s="11">
-        <v>294279</v>
+        <v>300777</v>
       </c>
       <c r="AH56" s="11">
-        <v>300777</v>
+        <v>300582</v>
       </c>
       <c r="AI56" s="11">
-        <v>300582</v>
+        <v>294170</v>
       </c>
       <c r="AJ56" s="11">
-        <v>294170</v>
+        <v>290450</v>
       </c>
       <c r="AK56" s="11">
-        <v>290450</v>
+        <v>291762</v>
       </c>
       <c r="AL56" s="11">
-        <v>291762</v>
+        <v>294797</v>
       </c>
       <c r="AM56" s="11">
-        <v>294797</v>
+        <v>287252</v>
       </c>
       <c r="AN56" s="11">
-        <v>287252</v>
+        <v>289276</v>
       </c>
       <c r="AO56" s="11">
-        <v>289276</v>
+        <v>295687</v>
       </c>
       <c r="AP56" s="11">
-        <v>295687</v>
+        <v>291891</v>
       </c>
       <c r="AQ56" s="11">
-        <v>291891</v>
+        <v>289166</v>
       </c>
       <c r="AR56" s="11">
-        <v>289166</v>
+        <v>386045</v>
       </c>
       <c r="AS56" s="11">
-        <v>386045</v>
+        <v>350136</v>
       </c>
       <c r="AT56" s="11">
-        <v>350136</v>
+        <v>350893</v>
       </c>
       <c r="AU56" s="11">
-        <v>350893</v>
+        <v>480254</v>
       </c>
       <c r="AV56" s="11">
-        <v>480254</v>
+        <v>399817</v>
       </c>
       <c r="AW56" s="11">
-        <v>399817</v>
+        <v>458776</v>
       </c>
       <c r="AX56" s="11">
-        <v>458776</v>
+        <v>471292</v>
       </c>
       <c r="AY56" s="11">
-        <v>471292</v>
+        <v>479156</v>
       </c>
       <c r="AZ56" s="11">
-        <v>479156</v>
+        <v>544037</v>
       </c>
       <c r="BA56" s="11">
-        <v>544037</v>
+        <v>614576</v>
       </c>
       <c r="BB56" s="11">
-        <v>614576</v>
+        <v>580464</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
@@ -6501,157 +6536,157 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>170247</v>
+        <v>166603</v>
       </c>
       <c r="F57" s="13">
-        <v>166603</v>
+        <v>208825</v>
       </c>
       <c r="G57" s="13">
-        <v>208825</v>
+        <v>246383</v>
       </c>
       <c r="H57" s="13">
-        <v>246383</v>
+        <v>249698</v>
       </c>
       <c r="I57" s="13">
-        <v>249698</v>
+        <v>236449</v>
       </c>
       <c r="J57" s="13">
-        <v>236449</v>
+        <v>251792</v>
       </c>
       <c r="K57" s="13">
-        <v>251792</v>
+        <v>254115</v>
       </c>
       <c r="L57" s="13">
-        <v>254115</v>
+        <v>242107</v>
       </c>
       <c r="M57" s="13">
-        <v>242107</v>
+        <v>257804</v>
       </c>
       <c r="N57" s="13">
-        <v>257804</v>
+        <v>300991</v>
       </c>
       <c r="O57" s="13">
-        <v>300991</v>
+        <v>301341</v>
       </c>
       <c r="P57" s="13">
-        <v>301341</v>
+        <v>302274</v>
       </c>
       <c r="Q57" s="13">
-        <v>302274</v>
+        <v>305194</v>
       </c>
       <c r="R57" s="13">
-        <v>305194</v>
+        <v>306591</v>
       </c>
       <c r="S57" s="13">
-        <v>306591</v>
+        <v>304267</v>
       </c>
       <c r="T57" s="13">
-        <v>304267</v>
+        <v>303951</v>
       </c>
       <c r="U57" s="13">
-        <v>303951</v>
+        <v>308769</v>
       </c>
       <c r="V57" s="13">
-        <v>308769</v>
+        <v>302236</v>
       </c>
       <c r="W57" s="13">
-        <v>302236</v>
+        <v>307068</v>
       </c>
       <c r="X57" s="13">
-        <v>307068</v>
+        <v>308175</v>
       </c>
       <c r="Y57" s="13">
-        <v>308175</v>
+        <v>503312</v>
       </c>
       <c r="Z57" s="13">
-        <v>503312</v>
+        <v>550378</v>
       </c>
       <c r="AA57" s="13">
-        <v>550378</v>
+        <v>578137</v>
       </c>
       <c r="AB57" s="13">
-        <v>578137</v>
+        <v>576716</v>
       </c>
       <c r="AC57" s="13">
-        <v>576716</v>
+        <v>575645</v>
       </c>
       <c r="AD57" s="13">
-        <v>575645</v>
+        <v>583188</v>
       </c>
       <c r="AE57" s="13">
-        <v>583188</v>
+        <v>569608</v>
       </c>
       <c r="AF57" s="13">
-        <v>569608</v>
+        <v>582180</v>
       </c>
       <c r="AG57" s="13">
-        <v>582180</v>
+        <v>576844</v>
       </c>
       <c r="AH57" s="13">
-        <v>576844</v>
+        <v>574559</v>
       </c>
       <c r="AI57" s="13">
-        <v>574559</v>
+        <v>578913</v>
       </c>
       <c r="AJ57" s="13">
-        <v>578913</v>
+        <v>581402</v>
       </c>
       <c r="AK57" s="13">
-        <v>581402</v>
+        <v>566914</v>
       </c>
       <c r="AL57" s="13">
-        <v>566914</v>
+        <v>575112</v>
       </c>
       <c r="AM57" s="13">
-        <v>575112</v>
+        <v>565548</v>
       </c>
       <c r="AN57" s="13">
-        <v>565548</v>
+        <v>577982</v>
       </c>
       <c r="AO57" s="13">
-        <v>577982</v>
+        <v>581754</v>
       </c>
       <c r="AP57" s="13">
-        <v>581754</v>
+        <v>567375</v>
       </c>
       <c r="AQ57" s="13">
-        <v>567375</v>
+        <v>581111</v>
       </c>
       <c r="AR57" s="13">
-        <v>581111</v>
+        <v>740031</v>
       </c>
       <c r="AS57" s="13">
-        <v>740031</v>
+        <v>739192</v>
       </c>
       <c r="AT57" s="13">
-        <v>739192</v>
+        <v>740616</v>
       </c>
       <c r="AU57" s="13">
-        <v>740616</v>
+        <v>752527</v>
       </c>
       <c r="AV57" s="13">
-        <v>752527</v>
+        <v>715300</v>
       </c>
       <c r="AW57" s="13">
-        <v>715300</v>
+        <v>735907</v>
       </c>
       <c r="AX57" s="13">
-        <v>735907</v>
+        <v>858394</v>
       </c>
       <c r="AY57" s="13">
-        <v>858394</v>
+        <v>887708</v>
       </c>
       <c r="AZ57" s="13">
-        <v>887708</v>
+        <v>1077658</v>
       </c>
       <c r="BA57" s="13">
-        <v>1077658</v>
+        <v>1111799</v>
       </c>
       <c r="BB57" s="13">
-        <v>1111799</v>
+        <v>1097172</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>58</v>
       </c>
@@ -6660,157 +6695,157 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>132702</v>
+        <v>131990</v>
       </c>
       <c r="F58" s="11">
-        <v>131990</v>
+        <v>155689</v>
       </c>
       <c r="G58" s="11">
-        <v>155689</v>
+        <v>178856</v>
       </c>
       <c r="H58" s="11">
-        <v>178856</v>
+        <v>179712</v>
       </c>
       <c r="I58" s="11">
-        <v>179712</v>
+        <v>178877</v>
       </c>
       <c r="J58" s="11">
-        <v>178877</v>
+        <v>182008</v>
       </c>
       <c r="K58" s="11">
-        <v>182008</v>
+        <v>181527</v>
       </c>
       <c r="L58" s="11">
-        <v>181527</v>
+        <v>184129</v>
       </c>
       <c r="M58" s="11">
-        <v>184129</v>
+        <v>207678</v>
       </c>
       <c r="N58" s="11">
-        <v>207678</v>
+        <v>251609</v>
       </c>
       <c r="O58" s="11">
-        <v>251609</v>
+        <v>213139</v>
       </c>
       <c r="P58" s="11">
-        <v>213139</v>
+        <v>220584</v>
       </c>
       <c r="Q58" s="11">
-        <v>220584</v>
+        <v>221776</v>
       </c>
       <c r="R58" s="11">
-        <v>221776</v>
+        <v>224087</v>
       </c>
       <c r="S58" s="11">
-        <v>224087</v>
+        <v>228297</v>
       </c>
       <c r="T58" s="11">
-        <v>228297</v>
+        <v>234931</v>
       </c>
       <c r="U58" s="11">
-        <v>234931</v>
+        <v>241354</v>
       </c>
       <c r="V58" s="11">
-        <v>241354</v>
+        <v>246282</v>
       </c>
       <c r="W58" s="11">
-        <v>246282</v>
+        <v>243111</v>
       </c>
       <c r="X58" s="11">
-        <v>243111</v>
+        <v>234318</v>
       </c>
       <c r="Y58" s="11">
-        <v>234318</v>
+        <v>328893</v>
       </c>
       <c r="Z58" s="11">
-        <v>328893</v>
+        <v>376941</v>
       </c>
       <c r="AA58" s="11">
-        <v>376941</v>
+        <v>415995</v>
       </c>
       <c r="AB58" s="11">
-        <v>415995</v>
+        <v>405545</v>
       </c>
       <c r="AC58" s="11">
-        <v>405545</v>
+        <v>408573</v>
       </c>
       <c r="AD58" s="11">
-        <v>408573</v>
+        <v>420444</v>
       </c>
       <c r="AE58" s="11">
-        <v>420444</v>
+        <v>504978</v>
       </c>
       <c r="AF58" s="11">
-        <v>504978</v>
+        <v>525014</v>
       </c>
       <c r="AG58" s="11">
-        <v>525014</v>
+        <v>643282</v>
       </c>
       <c r="AH58" s="11">
-        <v>643282</v>
+        <v>542330</v>
       </c>
       <c r="AI58" s="11">
-        <v>542330</v>
+        <v>550814</v>
       </c>
       <c r="AJ58" s="11">
-        <v>550814</v>
+        <v>549417</v>
       </c>
       <c r="AK58" s="11">
-        <v>549417</v>
+        <v>550561</v>
       </c>
       <c r="AL58" s="11">
-        <v>550561</v>
+        <v>547982</v>
       </c>
       <c r="AM58" s="11">
-        <v>547982</v>
+        <v>548345</v>
       </c>
       <c r="AN58" s="11">
-        <v>548345</v>
+        <v>539834</v>
       </c>
       <c r="AO58" s="11">
-        <v>539834</v>
+        <v>543543</v>
       </c>
       <c r="AP58" s="11">
-        <v>543543</v>
+        <v>624810</v>
       </c>
       <c r="AQ58" s="11">
-        <v>624810</v>
+        <v>616443</v>
       </c>
       <c r="AR58" s="11">
-        <v>616443</v>
+        <v>597789</v>
       </c>
       <c r="AS58" s="11">
-        <v>597789</v>
+        <v>648161</v>
       </c>
       <c r="AT58" s="11">
-        <v>648161</v>
+        <v>597741</v>
       </c>
       <c r="AU58" s="11">
-        <v>597741</v>
+        <v>620672</v>
       </c>
       <c r="AV58" s="11">
-        <v>620672</v>
+        <v>684449</v>
       </c>
       <c r="AW58" s="11">
-        <v>684449</v>
+        <v>721433</v>
       </c>
       <c r="AX58" s="11">
-        <v>721433</v>
+        <v>728398</v>
       </c>
       <c r="AY58" s="11">
-        <v>728398</v>
+        <v>754760</v>
       </c>
       <c r="AZ58" s="11">
-        <v>754760</v>
+        <v>791806</v>
       </c>
       <c r="BA58" s="11">
-        <v>791806</v>
+        <v>816571</v>
       </c>
       <c r="BB58" s="11">
-        <v>816571</v>
+        <v>828959</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>59</v>
       </c>
@@ -6819,154 +6854,154 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>150871</v>
+        <v>154896</v>
       </c>
       <c r="F59" s="13">
-        <v>154896</v>
+        <v>170301</v>
       </c>
       <c r="G59" s="13">
-        <v>170301</v>
+        <v>183175</v>
       </c>
       <c r="H59" s="13">
-        <v>183175</v>
+        <v>186367</v>
       </c>
       <c r="I59" s="13">
-        <v>186367</v>
+        <v>193173</v>
       </c>
       <c r="J59" s="13">
-        <v>193173</v>
+        <v>186070</v>
       </c>
       <c r="K59" s="13">
-        <v>186070</v>
+        <v>185305</v>
       </c>
       <c r="L59" s="13">
-        <v>185305</v>
+        <v>184250</v>
       </c>
       <c r="M59" s="13">
-        <v>184250</v>
+        <v>236497</v>
       </c>
       <c r="N59" s="13">
-        <v>236497</v>
+        <v>248717</v>
       </c>
       <c r="O59" s="13">
-        <v>248717</v>
+        <v>237748</v>
       </c>
       <c r="P59" s="13">
-        <v>237748</v>
+        <v>236474</v>
       </c>
       <c r="Q59" s="13">
-        <v>236474</v>
+        <v>233857</v>
       </c>
       <c r="R59" s="13">
-        <v>233857</v>
+        <v>233530</v>
       </c>
       <c r="S59" s="13">
-        <v>233530</v>
+        <v>236200</v>
       </c>
       <c r="T59" s="13">
-        <v>236200</v>
+        <v>237829</v>
       </c>
       <c r="U59" s="13">
-        <v>237829</v>
+        <v>236008</v>
       </c>
       <c r="V59" s="13">
-        <v>236008</v>
+        <v>236917</v>
       </c>
       <c r="W59" s="13">
-        <v>236917</v>
+        <v>237644</v>
       </c>
       <c r="X59" s="13">
-        <v>237644</v>
+        <v>235282</v>
       </c>
       <c r="Y59" s="13">
-        <v>235282</v>
+        <v>291091</v>
       </c>
       <c r="Z59" s="13">
-        <v>291091</v>
+        <v>346844</v>
       </c>
       <c r="AA59" s="13">
-        <v>346844</v>
+        <v>411781</v>
       </c>
       <c r="AB59" s="13">
-        <v>411781</v>
+        <v>383694</v>
       </c>
       <c r="AC59" s="13">
-        <v>383694</v>
+        <v>398841</v>
       </c>
       <c r="AD59" s="13">
-        <v>398841</v>
+        <v>488954</v>
       </c>
       <c r="AE59" s="13">
-        <v>488954</v>
+        <v>531741</v>
       </c>
       <c r="AF59" s="13">
-        <v>531741</v>
+        <v>577119</v>
       </c>
       <c r="AG59" s="13">
-        <v>577119</v>
+        <v>557771</v>
       </c>
       <c r="AH59" s="13">
-        <v>557771</v>
+        <v>538214</v>
       </c>
       <c r="AI59" s="13">
-        <v>538214</v>
+        <v>528048</v>
       </c>
       <c r="AJ59" s="13">
-        <v>528048</v>
+        <v>523852</v>
       </c>
       <c r="AK59" s="13">
-        <v>523852</v>
+        <v>542727</v>
       </c>
       <c r="AL59" s="13">
-        <v>542727</v>
+        <v>536376</v>
       </c>
       <c r="AM59" s="13">
-        <v>536376</v>
+        <v>546104</v>
       </c>
       <c r="AN59" s="13">
-        <v>546104</v>
+        <v>537761</v>
       </c>
       <c r="AO59" s="13">
-        <v>537761</v>
+        <v>546516</v>
       </c>
       <c r="AP59" s="13">
-        <v>546516</v>
+        <v>576893</v>
       </c>
       <c r="AQ59" s="13">
-        <v>576893</v>
+        <v>594261</v>
       </c>
       <c r="AR59" s="13">
-        <v>594261</v>
+        <v>581885</v>
       </c>
       <c r="AS59" s="13">
-        <v>581885</v>
+        <v>607603</v>
       </c>
       <c r="AT59" s="13">
-        <v>607603</v>
+        <v>615458</v>
       </c>
       <c r="AU59" s="13">
-        <v>615458</v>
+        <v>625178</v>
       </c>
       <c r="AV59" s="13">
-        <v>625178</v>
+        <v>699223</v>
       </c>
       <c r="AW59" s="13">
-        <v>699223</v>
+        <v>744587</v>
       </c>
       <c r="AX59" s="13">
-        <v>744587</v>
+        <v>810195</v>
       </c>
       <c r="AY59" s="13">
-        <v>810195</v>
+        <v>728063</v>
       </c>
       <c r="AZ59" s="13">
-        <v>728063</v>
+        <v>791989</v>
       </c>
       <c r="BA59" s="13">
-        <v>791989</v>
+        <v>810822</v>
       </c>
       <c r="BB59" s="13">
-        <v>810822</v>
+        <v>807995</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/monthly.xlsx
+++ b/database/industries/lastic/pekerman/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB89BDC-78F7-4518-AA26-5AD3C1C9AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D706CBC-DAEC-4B01-BD0A-8E99A1175DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>نوار</t>
@@ -730,12 +730,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -959,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1340,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1406,157 +1406,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>156925</v>
+        <v>119917</v>
       </c>
       <c r="F11" s="11">
-        <v>109835</v>
+        <v>145327</v>
       </c>
       <c r="G11" s="11">
-        <v>119917</v>
+        <v>116904</v>
       </c>
       <c r="H11" s="11">
-        <v>145327</v>
+        <v>95451</v>
       </c>
       <c r="I11" s="11">
-        <v>116904</v>
+        <v>151783</v>
       </c>
       <c r="J11" s="11">
-        <v>95451</v>
+        <v>120955</v>
       </c>
       <c r="K11" s="11">
-        <v>151783</v>
+        <v>114780</v>
       </c>
       <c r="L11" s="11">
-        <v>120955</v>
+        <v>132928</v>
       </c>
       <c r="M11" s="11">
-        <v>114780</v>
+        <v>152516</v>
       </c>
       <c r="N11" s="11">
-        <v>132928</v>
+        <v>128823</v>
       </c>
       <c r="O11" s="11">
-        <v>152516</v>
+        <v>117676</v>
       </c>
       <c r="P11" s="11">
-        <v>128823</v>
+        <v>143963</v>
       </c>
       <c r="Q11" s="11">
-        <v>117676</v>
+        <v>148065</v>
       </c>
       <c r="R11" s="11">
-        <v>143963</v>
+        <v>130464</v>
       </c>
       <c r="S11" s="11">
-        <v>148065</v>
+        <v>137491</v>
       </c>
       <c r="T11" s="11">
-        <v>130464</v>
+        <v>123926</v>
       </c>
       <c r="U11" s="11">
-        <v>137491</v>
+        <v>151869</v>
       </c>
       <c r="V11" s="11">
-        <v>123926</v>
+        <v>190579</v>
       </c>
       <c r="W11" s="11">
-        <v>151869</v>
+        <v>133862</v>
       </c>
       <c r="X11" s="11">
-        <v>190579</v>
+        <v>192349</v>
       </c>
       <c r="Y11" s="11">
-        <v>133862</v>
+        <v>160459</v>
       </c>
       <c r="Z11" s="11">
-        <v>192349</v>
+        <v>147792</v>
       </c>
       <c r="AA11" s="11">
-        <v>160459</v>
+        <v>124953</v>
       </c>
       <c r="AB11" s="11">
-        <v>147792</v>
+        <v>123835</v>
       </c>
       <c r="AC11" s="11">
-        <v>124953</v>
+        <v>129275</v>
       </c>
       <c r="AD11" s="11">
-        <v>123835</v>
+        <v>163599</v>
       </c>
       <c r="AE11" s="11">
-        <v>129275</v>
+        <v>196055</v>
       </c>
       <c r="AF11" s="11">
-        <v>163599</v>
+        <v>111434</v>
       </c>
       <c r="AG11" s="11">
-        <v>196055</v>
+        <v>152945</v>
       </c>
       <c r="AH11" s="11">
-        <v>111434</v>
+        <v>155975</v>
       </c>
       <c r="AI11" s="11">
-        <v>152945</v>
+        <v>142096</v>
       </c>
       <c r="AJ11" s="11">
-        <v>155975</v>
+        <v>120974</v>
       </c>
       <c r="AK11" s="11">
-        <v>142096</v>
+        <v>131422</v>
       </c>
       <c r="AL11" s="11">
-        <v>120974</v>
+        <v>135395</v>
       </c>
       <c r="AM11" s="11">
-        <v>131422</v>
+        <v>132289</v>
       </c>
       <c r="AN11" s="11">
-        <v>135395</v>
+        <v>137703</v>
       </c>
       <c r="AO11" s="11">
-        <v>132289</v>
+        <v>150376</v>
       </c>
       <c r="AP11" s="11">
-        <v>137703</v>
+        <v>98751</v>
       </c>
       <c r="AQ11" s="11">
-        <v>150376</v>
+        <v>83857</v>
       </c>
       <c r="AR11" s="11">
-        <v>98751</v>
+        <v>55707</v>
       </c>
       <c r="AS11" s="11">
-        <v>83857</v>
+        <v>63774</v>
       </c>
       <c r="AT11" s="11">
-        <v>55707</v>
+        <v>96015</v>
       </c>
       <c r="AU11" s="11">
-        <v>63774</v>
+        <v>104375</v>
       </c>
       <c r="AV11" s="11">
-        <v>96015</v>
+        <v>97588</v>
       </c>
       <c r="AW11" s="11">
-        <v>104375</v>
+        <v>106321</v>
       </c>
       <c r="AX11" s="11">
-        <v>97588</v>
+        <v>107491</v>
       </c>
       <c r="AY11" s="11">
-        <v>106321</v>
+        <v>135177</v>
       </c>
       <c r="AZ11" s="11">
-        <v>107491</v>
+        <v>136180</v>
       </c>
       <c r="BA11" s="11">
-        <v>135177</v>
+        <v>128226</v>
       </c>
       <c r="BB11" s="11">
-        <v>136180</v>
+        <v>145562</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1565,157 +1565,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>152685</v>
+        <v>203814</v>
       </c>
       <c r="F12" s="13">
-        <v>199268</v>
+        <v>210714</v>
       </c>
       <c r="G12" s="13">
-        <v>203814</v>
+        <v>172748</v>
       </c>
       <c r="H12" s="13">
-        <v>210714</v>
+        <v>195662</v>
       </c>
       <c r="I12" s="13">
-        <v>172748</v>
+        <v>117680</v>
       </c>
       <c r="J12" s="13">
-        <v>195662</v>
+        <v>0</v>
       </c>
       <c r="K12" s="13">
-        <v>117680</v>
+        <v>68867</v>
       </c>
       <c r="L12" s="13">
-        <v>0</v>
+        <v>202751</v>
       </c>
       <c r="M12" s="13">
-        <v>68867</v>
+        <v>153332</v>
       </c>
       <c r="N12" s="13">
-        <v>202751</v>
+        <v>206060</v>
       </c>
       <c r="O12" s="13">
-        <v>153332</v>
+        <v>235229</v>
       </c>
       <c r="P12" s="13">
-        <v>206060</v>
+        <v>208451</v>
       </c>
       <c r="Q12" s="13">
-        <v>235229</v>
+        <v>225759</v>
       </c>
       <c r="R12" s="13">
-        <v>208451</v>
+        <v>242073</v>
       </c>
       <c r="S12" s="13">
-        <v>225759</v>
+        <v>234858</v>
       </c>
       <c r="T12" s="13">
-        <v>242073</v>
+        <v>199813</v>
       </c>
       <c r="U12" s="13">
-        <v>234858</v>
+        <v>315140</v>
       </c>
       <c r="V12" s="13">
-        <v>199813</v>
+        <v>318642</v>
       </c>
       <c r="W12" s="13">
-        <v>315140</v>
+        <v>244820</v>
       </c>
       <c r="X12" s="13">
-        <v>318642</v>
+        <v>286880</v>
       </c>
       <c r="Y12" s="13">
-        <v>244820</v>
+        <v>316978</v>
       </c>
       <c r="Z12" s="13">
-        <v>286880</v>
+        <v>275490</v>
       </c>
       <c r="AA12" s="13">
-        <v>316978</v>
+        <v>298710</v>
       </c>
       <c r="AB12" s="13">
-        <v>275490</v>
+        <v>301000</v>
       </c>
       <c r="AC12" s="13">
-        <v>298710</v>
+        <v>302677</v>
       </c>
       <c r="AD12" s="13">
-        <v>301000</v>
+        <v>321774</v>
       </c>
       <c r="AE12" s="13">
-        <v>302677</v>
+        <v>300944</v>
       </c>
       <c r="AF12" s="13">
-        <v>321774</v>
+        <v>170432</v>
       </c>
       <c r="AG12" s="13">
-        <v>300944</v>
+        <v>300451</v>
       </c>
       <c r="AH12" s="13">
-        <v>170432</v>
+        <v>303856</v>
       </c>
       <c r="AI12" s="13">
-        <v>300451</v>
+        <v>293876</v>
       </c>
       <c r="AJ12" s="13">
-        <v>303856</v>
+        <v>200669</v>
       </c>
       <c r="AK12" s="13">
-        <v>293876</v>
+        <v>255651</v>
       </c>
       <c r="AL12" s="13">
-        <v>200669</v>
+        <v>262963</v>
       </c>
       <c r="AM12" s="13">
-        <v>255651</v>
+        <v>262524</v>
       </c>
       <c r="AN12" s="13">
-        <v>262963</v>
+        <v>266704</v>
       </c>
       <c r="AO12" s="13">
-        <v>262524</v>
+        <v>270866</v>
       </c>
       <c r="AP12" s="13">
-        <v>266704</v>
+        <v>241075</v>
       </c>
       <c r="AQ12" s="13">
-        <v>270866</v>
+        <v>255272</v>
       </c>
       <c r="AR12" s="13">
-        <v>241075</v>
+        <v>92280</v>
       </c>
       <c r="AS12" s="13">
-        <v>255272</v>
+        <v>171554</v>
       </c>
       <c r="AT12" s="13">
-        <v>92280</v>
+        <v>210493</v>
       </c>
       <c r="AU12" s="13">
-        <v>171554</v>
+        <v>219954</v>
       </c>
       <c r="AV12" s="13">
-        <v>210493</v>
+        <v>153426</v>
       </c>
       <c r="AW12" s="13">
-        <v>219954</v>
+        <v>265597</v>
       </c>
       <c r="AX12" s="13">
-        <v>153426</v>
+        <v>280858</v>
       </c>
       <c r="AY12" s="13">
-        <v>265597</v>
+        <v>190885</v>
       </c>
       <c r="AZ12" s="13">
-        <v>280858</v>
+        <v>215965</v>
       </c>
       <c r="BA12" s="13">
-        <v>190885</v>
+        <v>215410</v>
       </c>
       <c r="BB12" s="13">
-        <v>215965</v>
+        <v>160565</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1724,157 +1724,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2295241</v>
+        <v>2362903</v>
       </c>
       <c r="F13" s="11">
-        <v>2388771</v>
+        <v>2439318</v>
       </c>
       <c r="G13" s="11">
-        <v>2362903</v>
+        <v>2241890</v>
       </c>
       <c r="H13" s="11">
-        <v>2439318</v>
+        <v>2217869</v>
       </c>
       <c r="I13" s="11">
-        <v>2241890</v>
+        <v>2066449</v>
       </c>
       <c r="J13" s="11">
-        <v>2217869</v>
+        <v>2092900</v>
       </c>
       <c r="K13" s="11">
-        <v>2066449</v>
+        <v>1593761</v>
       </c>
       <c r="L13" s="11">
-        <v>2092900</v>
+        <v>830265</v>
       </c>
       <c r="M13" s="11">
-        <v>1593761</v>
+        <v>1827468</v>
       </c>
       <c r="N13" s="11">
-        <v>830265</v>
+        <v>2188884</v>
       </c>
       <c r="O13" s="11">
-        <v>1827468</v>
+        <v>2316548</v>
       </c>
       <c r="P13" s="11">
-        <v>2188884</v>
+        <v>2529554</v>
       </c>
       <c r="Q13" s="11">
-        <v>2316548</v>
+        <v>2554143</v>
       </c>
       <c r="R13" s="11">
-        <v>2529554</v>
+        <v>2614667</v>
       </c>
       <c r="S13" s="11">
-        <v>2554143</v>
+        <v>2552799</v>
       </c>
       <c r="T13" s="11">
-        <v>2614667</v>
+        <v>1980293</v>
       </c>
       <c r="U13" s="11">
-        <v>2552799</v>
+        <v>2777237</v>
       </c>
       <c r="V13" s="11">
-        <v>1980293</v>
+        <v>2762873</v>
       </c>
       <c r="W13" s="11">
-        <v>2777237</v>
+        <v>2157117</v>
       </c>
       <c r="X13" s="11">
-        <v>2762873</v>
+        <v>2203077</v>
       </c>
       <c r="Y13" s="11">
-        <v>2157117</v>
+        <v>2747977</v>
       </c>
       <c r="Z13" s="11">
-        <v>2203077</v>
+        <v>2603431</v>
       </c>
       <c r="AA13" s="11">
-        <v>2747977</v>
+        <v>2693222</v>
       </c>
       <c r="AB13" s="11">
-        <v>2603431</v>
+        <v>2674037</v>
       </c>
       <c r="AC13" s="11">
-        <v>2693222</v>
+        <v>2705137</v>
       </c>
       <c r="AD13" s="11">
-        <v>2674037</v>
+        <v>2808741</v>
       </c>
       <c r="AE13" s="11">
-        <v>2705137</v>
+        <v>2819587</v>
       </c>
       <c r="AF13" s="11">
-        <v>2808741</v>
+        <v>1640722</v>
       </c>
       <c r="AG13" s="11">
-        <v>2819587</v>
+        <v>2926884</v>
       </c>
       <c r="AH13" s="11">
-        <v>1640722</v>
+        <v>2861475</v>
       </c>
       <c r="AI13" s="11">
-        <v>2926884</v>
+        <v>2914527</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2861475</v>
+        <v>2070652</v>
       </c>
       <c r="AK13" s="11">
-        <v>2914527</v>
+        <v>2535626</v>
       </c>
       <c r="AL13" s="11">
-        <v>2070652</v>
+        <v>2697190</v>
       </c>
       <c r="AM13" s="11">
-        <v>2535626</v>
+        <v>2677214</v>
       </c>
       <c r="AN13" s="11">
-        <v>2697190</v>
+        <v>2619521</v>
       </c>
       <c r="AO13" s="11">
-        <v>2677214</v>
+        <v>2630484</v>
       </c>
       <c r="AP13" s="11">
-        <v>2619521</v>
+        <v>2603164</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2630484</v>
+        <v>2193307</v>
       </c>
       <c r="AR13" s="11">
-        <v>2603164</v>
+        <v>1418543</v>
       </c>
       <c r="AS13" s="11">
-        <v>2193307</v>
+        <v>2608877</v>
       </c>
       <c r="AT13" s="11">
-        <v>1418543</v>
+        <v>2692676</v>
       </c>
       <c r="AU13" s="11">
-        <v>2608877</v>
+        <v>2711857</v>
       </c>
       <c r="AV13" s="11">
-        <v>2692676</v>
+        <v>1787937</v>
       </c>
       <c r="AW13" s="11">
-        <v>2711857</v>
+        <v>2438795</v>
       </c>
       <c r="AX13" s="11">
-        <v>1787937</v>
+        <v>2443112</v>
       </c>
       <c r="AY13" s="11">
-        <v>2438795</v>
+        <v>2370132</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2443112</v>
+        <v>2339290</v>
       </c>
       <c r="BA13" s="11">
-        <v>2370132</v>
+        <v>2247388</v>
       </c>
       <c r="BB13" s="11">
-        <v>2339290</v>
+        <v>2264972</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1883,157 +1883,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>4447852</v>
+        <v>4485436</v>
       </c>
       <c r="F14" s="13">
-        <v>4306410</v>
+        <v>2957832</v>
       </c>
       <c r="G14" s="13">
-        <v>4485436</v>
+        <v>3592053</v>
       </c>
       <c r="H14" s="13">
-        <v>2957832</v>
+        <v>3749712</v>
       </c>
       <c r="I14" s="13">
-        <v>3592053</v>
+        <v>4301023</v>
       </c>
       <c r="J14" s="13">
-        <v>3749712</v>
+        <v>3301236</v>
       </c>
       <c r="K14" s="13">
-        <v>4301023</v>
+        <v>3711484</v>
       </c>
       <c r="L14" s="13">
-        <v>3301236</v>
+        <v>3196667</v>
       </c>
       <c r="M14" s="13">
-        <v>3711484</v>
+        <v>3286920</v>
       </c>
       <c r="N14" s="13">
-        <v>3196667</v>
+        <v>3960635</v>
       </c>
       <c r="O14" s="13">
-        <v>3286920</v>
+        <v>4376883</v>
       </c>
       <c r="P14" s="13">
-        <v>3960635</v>
+        <v>4742304</v>
       </c>
       <c r="Q14" s="13">
-        <v>4376883</v>
+        <v>4751275</v>
       </c>
       <c r="R14" s="13">
-        <v>4742304</v>
+        <v>4880041</v>
       </c>
       <c r="S14" s="13">
-        <v>4751275</v>
+        <v>4434109</v>
       </c>
       <c r="T14" s="13">
-        <v>4880041</v>
+        <v>3452093</v>
       </c>
       <c r="U14" s="13">
-        <v>4434109</v>
+        <v>4958378</v>
       </c>
       <c r="V14" s="13">
-        <v>3452093</v>
+        <v>5126224</v>
       </c>
       <c r="W14" s="13">
-        <v>4958378</v>
+        <v>3859112</v>
       </c>
       <c r="X14" s="13">
-        <v>5126224</v>
+        <v>4620506</v>
       </c>
       <c r="Y14" s="13">
-        <v>3859112</v>
+        <v>4740937</v>
       </c>
       <c r="Z14" s="13">
-        <v>4620506</v>
+        <v>4610138</v>
       </c>
       <c r="AA14" s="13">
-        <v>4740937</v>
+        <v>4602770</v>
       </c>
       <c r="AB14" s="13">
-        <v>4610138</v>
+        <v>4636081</v>
       </c>
       <c r="AC14" s="13">
-        <v>4602770</v>
+        <v>4677931</v>
       </c>
       <c r="AD14" s="13">
-        <v>4636081</v>
+        <v>4882636</v>
       </c>
       <c r="AE14" s="13">
-        <v>4677931</v>
+        <v>4841085</v>
       </c>
       <c r="AF14" s="13">
-        <v>4882636</v>
+        <v>2737030</v>
       </c>
       <c r="AG14" s="13">
-        <v>4841085</v>
+        <v>5009156</v>
       </c>
       <c r="AH14" s="13">
-        <v>2737030</v>
+        <v>4698709</v>
       </c>
       <c r="AI14" s="13">
-        <v>5009156</v>
+        <v>5223075</v>
       </c>
       <c r="AJ14" s="13">
-        <v>4698709</v>
+        <v>3217180</v>
       </c>
       <c r="AK14" s="13">
-        <v>5223075</v>
+        <v>4725551</v>
       </c>
       <c r="AL14" s="13">
-        <v>3217180</v>
+        <v>4874454</v>
       </c>
       <c r="AM14" s="13">
-        <v>4725551</v>
+        <v>5084516</v>
       </c>
       <c r="AN14" s="13">
-        <v>4874454</v>
+        <v>5073476</v>
       </c>
       <c r="AO14" s="13">
-        <v>5084516</v>
+        <v>5051990</v>
       </c>
       <c r="AP14" s="13">
-        <v>5073476</v>
+        <v>4787135</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5051990</v>
+        <v>4209099</v>
       </c>
       <c r="AR14" s="13">
-        <v>4787135</v>
+        <v>3453025</v>
       </c>
       <c r="AS14" s="13">
-        <v>4209099</v>
+        <v>5322608</v>
       </c>
       <c r="AT14" s="13">
-        <v>3453025</v>
+        <v>5478651</v>
       </c>
       <c r="AU14" s="13">
-        <v>5322608</v>
+        <v>5288140</v>
       </c>
       <c r="AV14" s="13">
-        <v>5478651</v>
+        <v>3913055</v>
       </c>
       <c r="AW14" s="13">
-        <v>5288140</v>
+        <v>5691649</v>
       </c>
       <c r="AX14" s="13">
-        <v>3913055</v>
+        <v>3828881</v>
       </c>
       <c r="AY14" s="13">
-        <v>5691649</v>
+        <v>4957770</v>
       </c>
       <c r="AZ14" s="13">
-        <v>3828881</v>
+        <v>5196679</v>
       </c>
       <c r="BA14" s="13">
-        <v>4957770</v>
+        <v>5380132</v>
       </c>
       <c r="BB14" s="13">
-        <v>5196679</v>
+        <v>5503327</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>60</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>61</v>
       </c>
@@ -2150,11 +2150,11 @@
       <c r="V16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>62</v>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
       </c>
       <c r="Y16" s="17">
         <v>0</v>
@@ -2247,164 +2247,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>7052703</v>
+        <v>7172070</v>
       </c>
       <c r="F17" s="19">
-        <v>7004284</v>
+        <v>5753191</v>
       </c>
       <c r="G17" s="19">
-        <v>7172070</v>
+        <v>6123595</v>
       </c>
       <c r="H17" s="19">
-        <v>5753191</v>
+        <v>6258694</v>
       </c>
       <c r="I17" s="19">
-        <v>6123595</v>
+        <v>6636935</v>
       </c>
       <c r="J17" s="19">
-        <v>6258694</v>
+        <v>5515091</v>
       </c>
       <c r="K17" s="19">
-        <v>6636935</v>
+        <v>5488892</v>
       </c>
       <c r="L17" s="19">
-        <v>5515091</v>
+        <v>4362611</v>
       </c>
       <c r="M17" s="19">
-        <v>5488892</v>
+        <v>5420236</v>
       </c>
       <c r="N17" s="19">
-        <v>4362611</v>
+        <v>6484402</v>
       </c>
       <c r="O17" s="19">
-        <v>5420236</v>
+        <v>7046336</v>
       </c>
       <c r="P17" s="19">
-        <v>6484402</v>
+        <v>7624272</v>
       </c>
       <c r="Q17" s="19">
-        <v>7046336</v>
+        <v>7679242</v>
       </c>
       <c r="R17" s="19">
-        <v>7624272</v>
+        <v>7867245</v>
       </c>
       <c r="S17" s="19">
-        <v>7679242</v>
+        <v>7359257</v>
       </c>
       <c r="T17" s="19">
-        <v>7867245</v>
+        <v>5756125</v>
       </c>
       <c r="U17" s="19">
-        <v>7359257</v>
+        <v>8202624</v>
       </c>
       <c r="V17" s="19">
-        <v>5756125</v>
+        <v>8398318</v>
       </c>
       <c r="W17" s="19">
-        <v>8202624</v>
+        <v>6394911</v>
       </c>
       <c r="X17" s="19">
-        <v>8398318</v>
+        <v>7302812</v>
       </c>
       <c r="Y17" s="19">
-        <v>6394911</v>
+        <v>7966351</v>
       </c>
       <c r="Z17" s="19">
-        <v>7302812</v>
+        <v>7636851</v>
       </c>
       <c r="AA17" s="19">
-        <v>7966351</v>
+        <v>7719655</v>
       </c>
       <c r="AB17" s="19">
-        <v>7636851</v>
+        <v>7734953</v>
       </c>
       <c r="AC17" s="19">
-        <v>7719655</v>
+        <v>7815020</v>
       </c>
       <c r="AD17" s="19">
-        <v>7734953</v>
+        <v>8176750</v>
       </c>
       <c r="AE17" s="19">
-        <v>7815020</v>
+        <v>8157671</v>
       </c>
       <c r="AF17" s="19">
-        <v>8176750</v>
+        <v>4659618</v>
       </c>
       <c r="AG17" s="19">
-        <v>8157671</v>
+        <v>8389436</v>
       </c>
       <c r="AH17" s="19">
-        <v>4659618</v>
+        <v>8020015</v>
       </c>
       <c r="AI17" s="19">
-        <v>8389436</v>
+        <v>8573574</v>
       </c>
       <c r="AJ17" s="19">
-        <v>8020015</v>
+        <v>5609475</v>
       </c>
       <c r="AK17" s="19">
-        <v>8573574</v>
+        <v>7648250</v>
       </c>
       <c r="AL17" s="19">
-        <v>5609475</v>
+        <v>7970002</v>
       </c>
       <c r="AM17" s="19">
-        <v>7648250</v>
+        <v>8156543</v>
       </c>
       <c r="AN17" s="19">
-        <v>7970002</v>
+        <v>8097404</v>
       </c>
       <c r="AO17" s="19">
-        <v>8156543</v>
+        <v>8103716</v>
       </c>
       <c r="AP17" s="19">
-        <v>8097404</v>
+        <v>7730125</v>
       </c>
       <c r="AQ17" s="19">
-        <v>8103716</v>
+        <v>6741535</v>
       </c>
       <c r="AR17" s="19">
-        <v>7730125</v>
+        <v>5019555</v>
       </c>
       <c r="AS17" s="19">
-        <v>6741535</v>
+        <v>8166813</v>
       </c>
       <c r="AT17" s="19">
-        <v>5019555</v>
+        <v>8477835</v>
       </c>
       <c r="AU17" s="19">
-        <v>8166813</v>
+        <v>8324326</v>
       </c>
       <c r="AV17" s="19">
-        <v>8477835</v>
+        <v>5952006</v>
       </c>
       <c r="AW17" s="19">
-        <v>8324326</v>
+        <v>8502362</v>
       </c>
       <c r="AX17" s="19">
-        <v>5952006</v>
+        <v>6660342</v>
       </c>
       <c r="AY17" s="19">
-        <v>8502362</v>
+        <v>7653964</v>
       </c>
       <c r="AZ17" s="19">
-        <v>6660342</v>
+        <v>7888114</v>
       </c>
       <c r="BA17" s="19">
-        <v>7653964</v>
+        <v>7971156</v>
       </c>
       <c r="BB17" s="19">
-        <v>7888114</v>
+        <v>8074426</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2459,7 +2459,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2781,7 +2781,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2847,157 +2847,157 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>64620</v>
+        <v>179528</v>
       </c>
       <c r="F24" s="11">
-        <v>65952</v>
+        <v>126124</v>
       </c>
       <c r="G24" s="11">
-        <v>179528</v>
+        <v>74546</v>
       </c>
       <c r="H24" s="11">
-        <v>126124</v>
+        <v>19456</v>
       </c>
       <c r="I24" s="11">
-        <v>74546</v>
+        <v>57734</v>
       </c>
       <c r="J24" s="11">
-        <v>19456</v>
+        <v>181413</v>
       </c>
       <c r="K24" s="11">
-        <v>57734</v>
+        <v>134327</v>
       </c>
       <c r="L24" s="11">
-        <v>181413</v>
+        <v>185170</v>
       </c>
       <c r="M24" s="11">
-        <v>134327</v>
+        <v>143727</v>
       </c>
       <c r="N24" s="11">
-        <v>185170</v>
+        <v>125451</v>
       </c>
       <c r="O24" s="11">
-        <v>143727</v>
+        <v>108350</v>
       </c>
       <c r="P24" s="11">
-        <v>125451</v>
+        <v>122597</v>
       </c>
       <c r="Q24" s="11">
-        <v>108350</v>
+        <v>130819</v>
       </c>
       <c r="R24" s="11">
-        <v>122597</v>
+        <v>107680</v>
       </c>
       <c r="S24" s="11">
-        <v>130819</v>
+        <v>129402</v>
       </c>
       <c r="T24" s="11">
-        <v>107680</v>
+        <v>76134</v>
       </c>
       <c r="U24" s="11">
-        <v>129402</v>
+        <v>185797</v>
       </c>
       <c r="V24" s="11">
-        <v>76134</v>
+        <v>154339</v>
       </c>
       <c r="W24" s="11">
-        <v>185797</v>
+        <v>159727</v>
       </c>
       <c r="X24" s="11">
-        <v>154339</v>
+        <v>126414</v>
       </c>
       <c r="Y24" s="11">
-        <v>159727</v>
+        <v>152880</v>
       </c>
       <c r="Z24" s="11">
-        <v>126414</v>
+        <v>139081</v>
       </c>
       <c r="AA24" s="11">
-        <v>152880</v>
+        <v>110289</v>
       </c>
       <c r="AB24" s="11">
-        <v>139081</v>
+        <v>109578</v>
       </c>
       <c r="AC24" s="11">
-        <v>110289</v>
+        <v>143875</v>
       </c>
       <c r="AD24" s="11">
-        <v>109578</v>
+        <v>155910</v>
       </c>
       <c r="AE24" s="11">
-        <v>143875</v>
+        <v>89342</v>
       </c>
       <c r="AF24" s="11">
-        <v>155910</v>
+        <v>45179</v>
       </c>
       <c r="AG24" s="11">
-        <v>89342</v>
+        <v>177411</v>
       </c>
       <c r="AH24" s="11">
-        <v>45179</v>
+        <v>125612</v>
       </c>
       <c r="AI24" s="11">
-        <v>177411</v>
+        <v>114782</v>
       </c>
       <c r="AJ24" s="11">
-        <v>125612</v>
+        <v>106385</v>
       </c>
       <c r="AK24" s="11">
-        <v>114782</v>
+        <v>202331</v>
       </c>
       <c r="AL24" s="11">
-        <v>106385</v>
+        <v>173454</v>
       </c>
       <c r="AM24" s="11">
-        <v>202331</v>
+        <v>141951</v>
       </c>
       <c r="AN24" s="11">
-        <v>173454</v>
+        <v>137075</v>
       </c>
       <c r="AO24" s="11">
-        <v>141951</v>
+        <v>191385</v>
       </c>
       <c r="AP24" s="11">
-        <v>137075</v>
+        <v>26528</v>
       </c>
       <c r="AQ24" s="11">
-        <v>191385</v>
+        <v>124386</v>
       </c>
       <c r="AR24" s="11">
-        <v>26528</v>
+        <v>85573</v>
       </c>
       <c r="AS24" s="11">
-        <v>124386</v>
+        <v>104351</v>
       </c>
       <c r="AT24" s="11">
-        <v>85573</v>
+        <v>94203</v>
       </c>
       <c r="AU24" s="11">
-        <v>104351</v>
+        <v>122720</v>
       </c>
       <c r="AV24" s="11">
-        <v>94203</v>
+        <v>100303</v>
       </c>
       <c r="AW24" s="11">
-        <v>122720</v>
+        <v>118598</v>
       </c>
       <c r="AX24" s="11">
-        <v>100303</v>
+        <v>125405</v>
       </c>
       <c r="AY24" s="11">
-        <v>118598</v>
+        <v>117258</v>
       </c>
       <c r="AZ24" s="11">
-        <v>125405</v>
+        <v>123608</v>
       </c>
       <c r="BA24" s="11">
-        <v>117258</v>
+        <v>146927</v>
       </c>
       <c r="BB24" s="11">
-        <v>123608</v>
+        <v>79097</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
@@ -3006,157 +3006,157 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>110676</v>
+        <v>291092</v>
       </c>
       <c r="F25" s="13">
-        <v>140893</v>
+        <v>222220</v>
       </c>
       <c r="G25" s="13">
-        <v>291092</v>
+        <v>183080</v>
       </c>
       <c r="H25" s="13">
-        <v>222220</v>
+        <v>60689</v>
       </c>
       <c r="I25" s="13">
-        <v>183080</v>
+        <v>109238</v>
       </c>
       <c r="J25" s="13">
-        <v>60689</v>
+        <v>161982</v>
       </c>
       <c r="K25" s="13">
-        <v>109238</v>
+        <v>79929</v>
       </c>
       <c r="L25" s="13">
-        <v>161982</v>
+        <v>157945</v>
       </c>
       <c r="M25" s="13">
-        <v>79929</v>
+        <v>179813</v>
       </c>
       <c r="N25" s="13">
-        <v>157945</v>
+        <v>167745</v>
       </c>
       <c r="O25" s="13">
-        <v>179813</v>
+        <v>185479</v>
       </c>
       <c r="P25" s="13">
-        <v>167745</v>
+        <v>192142</v>
       </c>
       <c r="Q25" s="13">
-        <v>185479</v>
+        <v>255746</v>
       </c>
       <c r="R25" s="13">
-        <v>192142</v>
+        <v>233587</v>
       </c>
       <c r="S25" s="13">
-        <v>255746</v>
+        <v>188390</v>
       </c>
       <c r="T25" s="13">
-        <v>233587</v>
+        <v>115175</v>
       </c>
       <c r="U25" s="13">
-        <v>188390</v>
+        <v>260099</v>
       </c>
       <c r="V25" s="13">
-        <v>115175</v>
+        <v>264447</v>
       </c>
       <c r="W25" s="13">
-        <v>260099</v>
+        <v>246235</v>
       </c>
       <c r="X25" s="13">
-        <v>264447</v>
+        <v>261542</v>
       </c>
       <c r="Y25" s="13">
-        <v>246235</v>
+        <v>377687</v>
       </c>
       <c r="Z25" s="13">
-        <v>261542</v>
+        <v>318951</v>
       </c>
       <c r="AA25" s="13">
-        <v>377687</v>
+        <v>255039</v>
       </c>
       <c r="AB25" s="13">
-        <v>318951</v>
+        <v>220668</v>
       </c>
       <c r="AC25" s="13">
-        <v>255039</v>
+        <v>281497</v>
       </c>
       <c r="AD25" s="13">
-        <v>220668</v>
+        <v>211170</v>
       </c>
       <c r="AE25" s="13">
-        <v>281497</v>
+        <v>239869</v>
       </c>
       <c r="AF25" s="13">
-        <v>211170</v>
+        <v>128288</v>
       </c>
       <c r="AG25" s="13">
-        <v>239869</v>
+        <v>433623</v>
       </c>
       <c r="AH25" s="13">
-        <v>128288</v>
+        <v>289631</v>
       </c>
       <c r="AI25" s="13">
-        <v>433623</v>
+        <v>277229</v>
       </c>
       <c r="AJ25" s="13">
-        <v>289631</v>
+        <v>165599</v>
       </c>
       <c r="AK25" s="13">
-        <v>277229</v>
+        <v>331429</v>
       </c>
       <c r="AL25" s="13">
-        <v>165599</v>
+        <v>256297</v>
       </c>
       <c r="AM25" s="13">
-        <v>331429</v>
+        <v>194357</v>
       </c>
       <c r="AN25" s="13">
-        <v>256297</v>
+        <v>192000</v>
       </c>
       <c r="AO25" s="13">
-        <v>194357</v>
+        <v>246349</v>
       </c>
       <c r="AP25" s="13">
-        <v>192000</v>
+        <v>130408</v>
       </c>
       <c r="AQ25" s="13">
-        <v>246349</v>
+        <v>276103</v>
       </c>
       <c r="AR25" s="13">
-        <v>130408</v>
+        <v>143941</v>
       </c>
       <c r="AS25" s="13">
-        <v>276103</v>
+        <v>193100</v>
       </c>
       <c r="AT25" s="13">
-        <v>143941</v>
+        <v>292684</v>
       </c>
       <c r="AU25" s="13">
-        <v>193100</v>
+        <v>274282</v>
       </c>
       <c r="AV25" s="13">
-        <v>292684</v>
+        <v>184921</v>
       </c>
       <c r="AW25" s="13">
-        <v>274282</v>
+        <v>278398</v>
       </c>
       <c r="AX25" s="13">
-        <v>184921</v>
+        <v>270816</v>
       </c>
       <c r="AY25" s="13">
-        <v>278398</v>
+        <v>278758</v>
       </c>
       <c r="AZ25" s="13">
-        <v>270816</v>
+        <v>133927</v>
       </c>
       <c r="BA25" s="13">
-        <v>278758</v>
+        <v>259407</v>
       </c>
       <c r="BB25" s="13">
-        <v>133927</v>
+        <v>161827</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
@@ -3165,157 +3165,157 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>1666537</v>
+        <v>2993714</v>
       </c>
       <c r="F26" s="11">
-        <v>2243928</v>
+        <v>2969246</v>
       </c>
       <c r="G26" s="11">
-        <v>2993714</v>
+        <v>2509938</v>
       </c>
       <c r="H26" s="11">
-        <v>2969246</v>
+        <v>1029938</v>
       </c>
       <c r="I26" s="11">
-        <v>2509938</v>
+        <v>2341975</v>
       </c>
       <c r="J26" s="11">
-        <v>1029938</v>
+        <v>2509859</v>
       </c>
       <c r="K26" s="11">
-        <v>2341975</v>
+        <v>2337374</v>
       </c>
       <c r="L26" s="11">
-        <v>2509859</v>
+        <v>1234798</v>
       </c>
       <c r="M26" s="11">
-        <v>2337374</v>
+        <v>1601741</v>
       </c>
       <c r="N26" s="11">
-        <v>1234798</v>
+        <v>2163760</v>
       </c>
       <c r="O26" s="11">
-        <v>1601741</v>
+        <v>1972067</v>
       </c>
       <c r="P26" s="11">
-        <v>2163760</v>
+        <v>2438596</v>
       </c>
       <c r="Q26" s="11">
-        <v>1972067</v>
+        <v>2520999</v>
       </c>
       <c r="R26" s="11">
-        <v>2438596</v>
+        <v>2507662</v>
       </c>
       <c r="S26" s="11">
-        <v>2520999</v>
+        <v>2269406</v>
       </c>
       <c r="T26" s="11">
-        <v>2507662</v>
+        <v>988670</v>
       </c>
       <c r="U26" s="11">
-        <v>2269406</v>
+        <v>2684946</v>
       </c>
       <c r="V26" s="11">
-        <v>988670</v>
+        <v>3162169</v>
       </c>
       <c r="W26" s="11">
-        <v>2684946</v>
+        <v>2581762</v>
       </c>
       <c r="X26" s="11">
-        <v>3162169</v>
+        <v>1580913</v>
       </c>
       <c r="Y26" s="11">
-        <v>2581762</v>
+        <v>2664249</v>
       </c>
       <c r="Z26" s="11">
-        <v>1580913</v>
+        <v>2543703</v>
       </c>
       <c r="AA26" s="11">
-        <v>2664249</v>
+        <v>2461361</v>
       </c>
       <c r="AB26" s="11">
-        <v>2543703</v>
+        <v>1776079</v>
       </c>
       <c r="AC26" s="11">
-        <v>2461361</v>
+        <v>2117786</v>
       </c>
       <c r="AD26" s="11">
-        <v>1776079</v>
+        <v>2440395</v>
       </c>
       <c r="AE26" s="11">
-        <v>2117786</v>
+        <v>2156300</v>
       </c>
       <c r="AF26" s="11">
-        <v>2440395</v>
+        <v>1371262</v>
       </c>
       <c r="AG26" s="11">
-        <v>2156300</v>
+        <v>2883052</v>
       </c>
       <c r="AH26" s="11">
-        <v>1371262</v>
+        <v>3595563</v>
       </c>
       <c r="AI26" s="11">
-        <v>2883052</v>
+        <v>2296443</v>
       </c>
       <c r="AJ26" s="11">
-        <v>3595563</v>
+        <v>2828429</v>
       </c>
       <c r="AK26" s="11">
-        <v>2296443</v>
+        <v>3562063</v>
       </c>
       <c r="AL26" s="11">
-        <v>2828429</v>
+        <v>2489079</v>
       </c>
       <c r="AM26" s="11">
-        <v>3562063</v>
+        <v>2548569</v>
       </c>
       <c r="AN26" s="11">
-        <v>2489079</v>
+        <v>1665944</v>
       </c>
       <c r="AO26" s="11">
-        <v>2548569</v>
+        <v>2017416</v>
       </c>
       <c r="AP26" s="11">
-        <v>1665944</v>
+        <v>1662413</v>
       </c>
       <c r="AQ26" s="11">
-        <v>2017416</v>
+        <v>2601693</v>
       </c>
       <c r="AR26" s="11">
-        <v>1662413</v>
+        <v>1111511</v>
       </c>
       <c r="AS26" s="11">
-        <v>2601693</v>
+        <v>4183959</v>
       </c>
       <c r="AT26" s="11">
-        <v>1111511</v>
+        <v>2604751</v>
       </c>
       <c r="AU26" s="11">
-        <v>4183959</v>
+        <v>3077439</v>
       </c>
       <c r="AV26" s="11">
-        <v>2604751</v>
+        <v>2320167</v>
       </c>
       <c r="AW26" s="11">
-        <v>3077439</v>
+        <v>2650998</v>
       </c>
       <c r="AX26" s="11">
-        <v>2320167</v>
+        <v>2228545</v>
       </c>
       <c r="AY26" s="11">
-        <v>2650998</v>
+        <v>2875781</v>
       </c>
       <c r="AZ26" s="11">
-        <v>2228545</v>
+        <v>1915686</v>
       </c>
       <c r="BA26" s="11">
-        <v>2875781</v>
+        <v>2222313</v>
       </c>
       <c r="BB26" s="11">
-        <v>1915686</v>
+        <v>2076019</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>59</v>
       </c>
@@ -3324,157 +3324,157 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>4157610</v>
+        <v>5436457</v>
       </c>
       <c r="F27" s="13">
-        <v>3739974</v>
+        <v>3408649</v>
       </c>
       <c r="G27" s="13">
-        <v>5436457</v>
+        <v>4085789</v>
       </c>
       <c r="H27" s="13">
-        <v>3408649</v>
+        <v>2025004</v>
       </c>
       <c r="I27" s="13">
-        <v>4085789</v>
+        <v>4126780</v>
       </c>
       <c r="J27" s="13">
-        <v>2025004</v>
+        <v>3928308</v>
       </c>
       <c r="K27" s="13">
-        <v>4126780</v>
+        <v>4034226</v>
       </c>
       <c r="L27" s="13">
-        <v>3928308</v>
+        <v>3187709</v>
       </c>
       <c r="M27" s="13">
-        <v>4034226</v>
+        <v>3780946</v>
       </c>
       <c r="N27" s="13">
-        <v>3187709</v>
+        <v>4083070</v>
       </c>
       <c r="O27" s="13">
-        <v>3780946</v>
+        <v>4228969</v>
       </c>
       <c r="P27" s="13">
-        <v>4083070</v>
+        <v>4667026</v>
       </c>
       <c r="Q27" s="13">
-        <v>4228969</v>
+        <v>4566513</v>
       </c>
       <c r="R27" s="13">
-        <v>4667026</v>
+        <v>4581305</v>
       </c>
       <c r="S27" s="13">
-        <v>4566513</v>
+        <v>4210196</v>
       </c>
       <c r="T27" s="13">
-        <v>4581305</v>
+        <v>2091398</v>
       </c>
       <c r="U27" s="13">
-        <v>4210196</v>
+        <v>5284121</v>
       </c>
       <c r="V27" s="13">
-        <v>2091398</v>
+        <v>5306313</v>
       </c>
       <c r="W27" s="13">
-        <v>5284121</v>
+        <v>4736869</v>
       </c>
       <c r="X27" s="13">
-        <v>5306313</v>
+        <v>3536365</v>
       </c>
       <c r="Y27" s="13">
-        <v>4736869</v>
+        <v>5281256</v>
       </c>
       <c r="Z27" s="13">
-        <v>3536365</v>
+        <v>4843745</v>
       </c>
       <c r="AA27" s="13">
-        <v>5281256</v>
+        <v>4515487</v>
       </c>
       <c r="AB27" s="13">
-        <v>4843745</v>
+        <v>3802653</v>
       </c>
       <c r="AC27" s="13">
-        <v>4515487</v>
+        <v>4813840</v>
       </c>
       <c r="AD27" s="13">
-        <v>3802653</v>
+        <v>4477138</v>
       </c>
       <c r="AE27" s="13">
-        <v>4813840</v>
+        <v>4450246</v>
       </c>
       <c r="AF27" s="13">
-        <v>4477138</v>
+        <v>2767829</v>
       </c>
       <c r="AG27" s="13">
-        <v>4450246</v>
+        <v>4804993</v>
       </c>
       <c r="AH27" s="13">
-        <v>2767829</v>
+        <v>4978792</v>
       </c>
       <c r="AI27" s="13">
-        <v>4804993</v>
+        <v>5632641</v>
       </c>
       <c r="AJ27" s="13">
-        <v>4978792</v>
+        <v>3590625</v>
       </c>
       <c r="AK27" s="13">
-        <v>5632641</v>
+        <v>5022958</v>
       </c>
       <c r="AL27" s="13">
-        <v>3590625</v>
+        <v>4364005</v>
       </c>
       <c r="AM27" s="13">
-        <v>5022958</v>
+        <v>4755076</v>
       </c>
       <c r="AN27" s="13">
-        <v>4364005</v>
+        <v>5774215</v>
       </c>
       <c r="AO27" s="13">
-        <v>4755076</v>
+        <v>4311551</v>
       </c>
       <c r="AP27" s="13">
-        <v>5774215</v>
+        <v>5209264</v>
       </c>
       <c r="AQ27" s="13">
-        <v>4311551</v>
+        <v>4201316</v>
       </c>
       <c r="AR27" s="13">
-        <v>5209264</v>
+        <v>2729923</v>
       </c>
       <c r="AS27" s="13">
-        <v>4201316</v>
+        <v>4860901</v>
       </c>
       <c r="AT27" s="13">
-        <v>2729923</v>
+        <v>5522645</v>
       </c>
       <c r="AU27" s="13">
-        <v>4860901</v>
+        <v>5418613</v>
       </c>
       <c r="AV27" s="13">
-        <v>5522645</v>
+        <v>4667038</v>
       </c>
       <c r="AW27" s="13">
-        <v>5418613</v>
+        <v>5369924</v>
       </c>
       <c r="AX27" s="13">
-        <v>4679786</v>
+        <v>3837130</v>
       </c>
       <c r="AY27" s="13">
-        <v>5369924</v>
+        <v>4988744</v>
       </c>
       <c r="AZ27" s="13">
-        <v>3837130</v>
+        <v>5408437</v>
       </c>
       <c r="BA27" s="13">
-        <v>4988744</v>
+        <v>4623059</v>
       </c>
       <c r="BB27" s="13">
-        <v>5408437</v>
+        <v>5470371</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>60</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>61</v>
       </c>
@@ -3591,11 +3591,11 @@
       <c r="V29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>62</v>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
       </c>
       <c r="Y29" s="17">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>65</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -3805,11 +3805,11 @@
       <c r="V31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>62</v>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -3902,164 +3902,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
-        <v>5999443</v>
+        <v>8900791</v>
       </c>
       <c r="F32" s="19">
-        <v>6190747</v>
+        <v>6726239</v>
       </c>
       <c r="G32" s="19">
-        <v>8900791</v>
+        <v>6853353</v>
       </c>
       <c r="H32" s="19">
-        <v>6726239</v>
+        <v>3135087</v>
       </c>
       <c r="I32" s="19">
-        <v>6853353</v>
+        <v>6635727</v>
       </c>
       <c r="J32" s="19">
-        <v>3135087</v>
+        <v>6781562</v>
       </c>
       <c r="K32" s="19">
-        <v>6635727</v>
+        <v>6585856</v>
       </c>
       <c r="L32" s="19">
-        <v>6781562</v>
+        <v>4765622</v>
       </c>
       <c r="M32" s="19">
-        <v>6585856</v>
+        <v>5706227</v>
       </c>
       <c r="N32" s="19">
-        <v>4765622</v>
+        <v>6540026</v>
       </c>
       <c r="O32" s="19">
-        <v>5706227</v>
+        <v>6494865</v>
       </c>
       <c r="P32" s="19">
-        <v>6540026</v>
+        <v>7420361</v>
       </c>
       <c r="Q32" s="19">
-        <v>6494865</v>
+        <v>7474077</v>
       </c>
       <c r="R32" s="19">
-        <v>7420361</v>
+        <v>7430234</v>
       </c>
       <c r="S32" s="19">
-        <v>7474077</v>
+        <v>6797394</v>
       </c>
       <c r="T32" s="19">
-        <v>7430234</v>
+        <v>3271377</v>
       </c>
       <c r="U32" s="19">
-        <v>6797394</v>
+        <v>8414963</v>
       </c>
       <c r="V32" s="19">
-        <v>3271377</v>
+        <v>8887268</v>
       </c>
       <c r="W32" s="19">
-        <v>8414963</v>
+        <v>7724593</v>
       </c>
       <c r="X32" s="19">
-        <v>8887268</v>
+        <v>5505234</v>
       </c>
       <c r="Y32" s="19">
-        <v>7724593</v>
+        <v>8476072</v>
       </c>
       <c r="Z32" s="19">
-        <v>5505234</v>
+        <v>7845480</v>
       </c>
       <c r="AA32" s="19">
-        <v>8476072</v>
+        <v>7342176</v>
       </c>
       <c r="AB32" s="19">
-        <v>7845480</v>
+        <v>5908978</v>
       </c>
       <c r="AC32" s="19">
-        <v>7342176</v>
+        <v>7356998</v>
       </c>
       <c r="AD32" s="19">
-        <v>5908978</v>
+        <v>7284613</v>
       </c>
       <c r="AE32" s="19">
-        <v>7356998</v>
+        <v>6935757</v>
       </c>
       <c r="AF32" s="19">
-        <v>7284613</v>
+        <v>4312558</v>
       </c>
       <c r="AG32" s="19">
-        <v>6935757</v>
+        <v>8299079</v>
       </c>
       <c r="AH32" s="19">
-        <v>4312558</v>
+        <v>8989598</v>
       </c>
       <c r="AI32" s="19">
-        <v>8299079</v>
+        <v>8321095</v>
       </c>
       <c r="AJ32" s="19">
-        <v>8989598</v>
+        <v>6691038</v>
       </c>
       <c r="AK32" s="19">
-        <v>8321095</v>
+        <v>9118781</v>
       </c>
       <c r="AL32" s="19">
-        <v>6691038</v>
+        <v>7282835</v>
       </c>
       <c r="AM32" s="19">
-        <v>9118781</v>
+        <v>7639953</v>
       </c>
       <c r="AN32" s="19">
-        <v>7282835</v>
+        <v>7769234</v>
       </c>
       <c r="AO32" s="19">
-        <v>7639953</v>
+        <v>6766701</v>
       </c>
       <c r="AP32" s="19">
-        <v>7769234</v>
+        <v>7028613</v>
       </c>
       <c r="AQ32" s="19">
-        <v>6766701</v>
+        <v>7203498</v>
       </c>
       <c r="AR32" s="19">
-        <v>7028613</v>
+        <v>4070948</v>
       </c>
       <c r="AS32" s="19">
-        <v>7203498</v>
+        <v>9342311</v>
       </c>
       <c r="AT32" s="19">
-        <v>4070948</v>
+        <v>8514283</v>
       </c>
       <c r="AU32" s="19">
-        <v>9342311</v>
+        <v>8893054</v>
       </c>
       <c r="AV32" s="19">
-        <v>8514283</v>
+        <v>7272429</v>
       </c>
       <c r="AW32" s="19">
-        <v>8893054</v>
+        <v>8417918</v>
       </c>
       <c r="AX32" s="19">
-        <v>7285177</v>
+        <v>6461896</v>
       </c>
       <c r="AY32" s="19">
-        <v>8417918</v>
+        <v>8260541</v>
       </c>
       <c r="AZ32" s="19">
-        <v>6461896</v>
+        <v>7581658</v>
       </c>
       <c r="BA32" s="19">
-        <v>8260541</v>
+        <v>7251706</v>
       </c>
       <c r="BB32" s="19">
-        <v>7581658</v>
+        <v>7787314</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4114,7 +4114,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4169,7 +4169,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4224,7 +4224,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>67</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4436,7 +4436,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>67</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
@@ -4502,157 +4502,157 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>5923</v>
+        <v>24747</v>
       </c>
       <c r="F39" s="11">
-        <v>8495</v>
+        <v>16962</v>
       </c>
       <c r="G39" s="11">
-        <v>24747</v>
+        <v>10235</v>
       </c>
       <c r="H39" s="11">
-        <v>16962</v>
+        <v>3394</v>
       </c>
       <c r="I39" s="11">
-        <v>10235</v>
+        <v>8044</v>
       </c>
       <c r="J39" s="11">
-        <v>3394</v>
+        <v>24095</v>
       </c>
       <c r="K39" s="11">
-        <v>8044</v>
+        <v>23951</v>
       </c>
       <c r="L39" s="11">
-        <v>24095</v>
+        <v>32422</v>
       </c>
       <c r="M39" s="11">
-        <v>23951</v>
+        <v>23724</v>
       </c>
       <c r="N39" s="11">
-        <v>32422</v>
+        <v>21429</v>
       </c>
       <c r="O39" s="11">
-        <v>23724</v>
+        <v>21725</v>
       </c>
       <c r="P39" s="11">
-        <v>21429</v>
+        <v>25289</v>
       </c>
       <c r="Q39" s="11">
-        <v>21725</v>
+        <v>27420</v>
       </c>
       <c r="R39" s="11">
-        <v>25289</v>
+        <v>22890</v>
       </c>
       <c r="S39" s="11">
-        <v>27420</v>
+        <v>27393</v>
       </c>
       <c r="T39" s="11">
-        <v>22890</v>
+        <v>15617</v>
       </c>
       <c r="U39" s="11">
-        <v>27393</v>
+        <v>37838</v>
       </c>
       <c r="V39" s="11">
-        <v>15617</v>
+        <v>32300</v>
       </c>
       <c r="W39" s="11">
-        <v>37838</v>
+        <v>48989</v>
       </c>
       <c r="X39" s="11">
-        <v>32300</v>
+        <v>39792</v>
       </c>
       <c r="Y39" s="11">
-        <v>48989</v>
+        <v>48283</v>
       </c>
       <c r="Z39" s="11">
-        <v>39792</v>
+        <v>42098</v>
       </c>
       <c r="AA39" s="11">
-        <v>48283</v>
+        <v>32645</v>
       </c>
       <c r="AB39" s="11">
-        <v>42098</v>
+        <v>32796</v>
       </c>
       <c r="AC39" s="11">
-        <v>32645</v>
+        <v>41797</v>
       </c>
       <c r="AD39" s="11">
-        <v>32796</v>
+        <v>45881</v>
       </c>
       <c r="AE39" s="11">
-        <v>41797</v>
+        <v>26872</v>
       </c>
       <c r="AF39" s="11">
-        <v>45881</v>
+        <v>13580</v>
       </c>
       <c r="AG39" s="11">
-        <v>26872</v>
+        <v>52189</v>
       </c>
       <c r="AH39" s="11">
-        <v>13580</v>
+        <v>36484</v>
       </c>
       <c r="AI39" s="11">
-        <v>52189</v>
+        <v>33489</v>
       </c>
       <c r="AJ39" s="11">
-        <v>36484</v>
+        <v>31362</v>
       </c>
       <c r="AK39" s="11">
-        <v>33489</v>
+        <v>58120</v>
       </c>
       <c r="AL39" s="11">
-        <v>31362</v>
+        <v>50176</v>
       </c>
       <c r="AM39" s="11">
-        <v>58120</v>
+        <v>41973</v>
       </c>
       <c r="AN39" s="11">
-        <v>50176</v>
+        <v>40011</v>
       </c>
       <c r="AO39" s="11">
-        <v>41973</v>
+        <v>55342</v>
       </c>
       <c r="AP39" s="11">
-        <v>40011</v>
+        <v>10241</v>
       </c>
       <c r="AQ39" s="11">
-        <v>55342</v>
+        <v>43552</v>
       </c>
       <c r="AR39" s="11">
-        <v>10241</v>
+        <v>30027</v>
       </c>
       <c r="AS39" s="11">
-        <v>43552</v>
+        <v>50115</v>
       </c>
       <c r="AT39" s="11">
-        <v>30027</v>
+        <v>37664</v>
       </c>
       <c r="AU39" s="11">
-        <v>50115</v>
+        <v>56301</v>
       </c>
       <c r="AV39" s="11">
-        <v>37664</v>
+        <v>47272</v>
       </c>
       <c r="AW39" s="11">
-        <v>56301</v>
+        <v>56827</v>
       </c>
       <c r="AX39" s="11">
-        <v>47272</v>
+        <v>68225</v>
       </c>
       <c r="AY39" s="11">
-        <v>56827</v>
+        <v>72064</v>
       </c>
       <c r="AZ39" s="11">
-        <v>68225</v>
+        <v>71750</v>
       </c>
       <c r="BA39" s="11">
-        <v>72064</v>
+        <v>84003</v>
       </c>
       <c r="BB39" s="11">
-        <v>71750</v>
+        <v>45790</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>57</v>
       </c>
@@ -4661,157 +4661,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>18439</v>
+        <v>71720</v>
       </c>
       <c r="F40" s="13">
-        <v>29422</v>
+        <v>55488</v>
       </c>
       <c r="G40" s="13">
-        <v>71720</v>
+        <v>43289</v>
       </c>
       <c r="H40" s="13">
-        <v>55488</v>
+        <v>15281</v>
       </c>
       <c r="I40" s="13">
-        <v>43289</v>
+        <v>27759</v>
       </c>
       <c r="J40" s="13">
-        <v>15281</v>
+        <v>39217</v>
       </c>
       <c r="K40" s="13">
-        <v>27759</v>
+        <v>20606</v>
       </c>
       <c r="L40" s="13">
-        <v>39217</v>
+        <v>47540</v>
       </c>
       <c r="M40" s="13">
-        <v>20606</v>
+        <v>54185</v>
       </c>
       <c r="N40" s="13">
-        <v>47540</v>
+        <v>50705</v>
       </c>
       <c r="O40" s="13">
-        <v>54185</v>
+        <v>56607</v>
       </c>
       <c r="P40" s="13">
-        <v>50705</v>
+        <v>58909</v>
       </c>
       <c r="Q40" s="13">
-        <v>56607</v>
+        <v>77815</v>
       </c>
       <c r="R40" s="13">
-        <v>58909</v>
+        <v>70999</v>
       </c>
       <c r="S40" s="13">
-        <v>77815</v>
+        <v>58169</v>
       </c>
       <c r="T40" s="13">
-        <v>70999</v>
+        <v>34810</v>
       </c>
       <c r="U40" s="13">
-        <v>58169</v>
+        <v>79868</v>
       </c>
       <c r="V40" s="13">
-        <v>34810</v>
+        <v>81496</v>
       </c>
       <c r="W40" s="13">
-        <v>79868</v>
+        <v>123933</v>
       </c>
       <c r="X40" s="13">
-        <v>81496</v>
+        <v>143947</v>
       </c>
       <c r="Y40" s="13">
-        <v>123933</v>
+        <v>218355</v>
       </c>
       <c r="Z40" s="13">
-        <v>143947</v>
+        <v>183944</v>
       </c>
       <c r="AA40" s="13">
-        <v>218355</v>
+        <v>146812</v>
       </c>
       <c r="AB40" s="13">
-        <v>183944</v>
+        <v>128691</v>
       </c>
       <c r="AC40" s="13">
-        <v>146812</v>
+        <v>160343</v>
       </c>
       <c r="AD40" s="13">
-        <v>128691</v>
+        <v>122939</v>
       </c>
       <c r="AE40" s="13">
-        <v>160343</v>
+        <v>138367</v>
       </c>
       <c r="AF40" s="13">
-        <v>122939</v>
+        <v>73709</v>
       </c>
       <c r="AG40" s="13">
-        <v>138367</v>
+        <v>251030</v>
       </c>
       <c r="AH40" s="13">
-        <v>73709</v>
+        <v>168392</v>
       </c>
       <c r="AI40" s="13">
-        <v>251030</v>
+        <v>157165</v>
       </c>
       <c r="AJ40" s="13">
-        <v>168392</v>
+        <v>95238</v>
       </c>
       <c r="AK40" s="13">
-        <v>157165</v>
+        <v>187439</v>
       </c>
       <c r="AL40" s="13">
-        <v>95238</v>
+        <v>148135</v>
       </c>
       <c r="AM40" s="13">
-        <v>187439</v>
+        <v>113068</v>
       </c>
       <c r="AN40" s="13">
-        <v>148135</v>
+        <v>108936</v>
       </c>
       <c r="AO40" s="13">
-        <v>113068</v>
+        <v>143156</v>
       </c>
       <c r="AP40" s="13">
-        <v>108936</v>
+        <v>96506</v>
       </c>
       <c r="AQ40" s="13">
-        <v>143156</v>
+        <v>204093</v>
       </c>
       <c r="AR40" s="13">
-        <v>96506</v>
+        <v>106605</v>
       </c>
       <c r="AS40" s="13">
-        <v>204093</v>
+        <v>145313</v>
       </c>
       <c r="AT40" s="13">
-        <v>106605</v>
+        <v>209357</v>
       </c>
       <c r="AU40" s="13">
-        <v>145313</v>
+        <v>201846</v>
       </c>
       <c r="AV40" s="13">
-        <v>209357</v>
+        <v>158735</v>
       </c>
       <c r="AW40" s="13">
-        <v>201846</v>
+        <v>247136</v>
       </c>
       <c r="AX40" s="13">
-        <v>158735</v>
+        <v>291847</v>
       </c>
       <c r="AY40" s="13">
-        <v>247136</v>
+        <v>309923</v>
       </c>
       <c r="AZ40" s="13">
-        <v>291847</v>
+        <v>146941</v>
       </c>
       <c r="BA40" s="13">
-        <v>309923</v>
+        <v>275175</v>
       </c>
       <c r="BB40" s="13">
-        <v>146941</v>
+        <v>173278</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>58</v>
       </c>
@@ -4820,157 +4820,157 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>219967</v>
+        <v>535445</v>
       </c>
       <c r="F41" s="11">
-        <v>349354</v>
+        <v>533608</v>
       </c>
       <c r="G41" s="11">
-        <v>535445</v>
+        <v>448969</v>
       </c>
       <c r="H41" s="11">
-        <v>533608</v>
+        <v>187457</v>
       </c>
       <c r="I41" s="11">
-        <v>448969</v>
+        <v>425131</v>
       </c>
       <c r="J41" s="11">
-        <v>187457</v>
+        <v>462139</v>
       </c>
       <c r="K41" s="11">
-        <v>425131</v>
+        <v>485420</v>
       </c>
       <c r="L41" s="11">
-        <v>462139</v>
+        <v>310686</v>
       </c>
       <c r="M41" s="11">
-        <v>485420</v>
+        <v>341393</v>
       </c>
       <c r="N41" s="11">
-        <v>310686</v>
+        <v>477290</v>
       </c>
       <c r="O41" s="11">
-        <v>341393</v>
+        <v>437358</v>
       </c>
       <c r="P41" s="11">
-        <v>477290</v>
+        <v>546458</v>
       </c>
       <c r="Q41" s="11">
-        <v>437358</v>
+        <v>575536</v>
       </c>
       <c r="R41" s="11">
-        <v>546458</v>
+        <v>589127</v>
       </c>
       <c r="S41" s="11">
-        <v>575536</v>
+        <v>547730</v>
       </c>
       <c r="T41" s="11">
-        <v>589127</v>
+        <v>243492</v>
       </c>
       <c r="U41" s="11">
-        <v>547730</v>
+        <v>652739</v>
       </c>
       <c r="V41" s="11">
-        <v>243492</v>
+        <v>740952</v>
       </c>
       <c r="W41" s="11">
-        <v>652739</v>
+        <v>849123</v>
       </c>
       <c r="X41" s="11">
-        <v>740952</v>
+        <v>595911</v>
       </c>
       <c r="Y41" s="11">
-        <v>849123</v>
+        <v>1108313</v>
       </c>
       <c r="Z41" s="11">
-        <v>595911</v>
+        <v>1031586</v>
       </c>
       <c r="AA41" s="11">
-        <v>1108313</v>
+        <v>1005646</v>
       </c>
       <c r="AB41" s="11">
-        <v>1031586</v>
+        <v>746742</v>
       </c>
       <c r="AC41" s="11">
-        <v>1005646</v>
+        <v>1069436</v>
       </c>
       <c r="AD41" s="11">
-        <v>746742</v>
+        <v>1281241</v>
       </c>
       <c r="AE41" s="11">
-        <v>1069436</v>
+        <v>1387108</v>
       </c>
       <c r="AF41" s="11">
-        <v>1281241</v>
+        <v>743677</v>
       </c>
       <c r="AG41" s="11">
-        <v>1387108</v>
+        <v>1588025</v>
       </c>
       <c r="AH41" s="11">
-        <v>743677</v>
+        <v>1975465</v>
       </c>
       <c r="AI41" s="11">
+        <v>1264333</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>1549929</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>1953240</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>1343690</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>1385257</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>1040898</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>1243622</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>993773</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>1686317</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>664396</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>2596866</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>1782819</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>2220167</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>1690006</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>2000867</v>
+      </c>
+      <c r="AX41" s="11">
+        <v>1764576</v>
+      </c>
+      <c r="AY41" s="11">
+        <v>2348278</v>
+      </c>
+      <c r="AZ41" s="11">
         <v>1588025</v>
       </c>
-      <c r="AJ41" s="11">
-        <v>1975465</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>1264333</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>1549929</v>
-      </c>
-      <c r="AM41" s="11">
-        <v>1953240</v>
-      </c>
-      <c r="AN41" s="11">
-        <v>1343690</v>
-      </c>
-      <c r="AO41" s="11">
-        <v>1385257</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>1040898</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>1243622</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>993773</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>1686317</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>664396</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>2596866</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>1782819</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>2220167</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>1690006</v>
-      </c>
-      <c r="AY41" s="11">
-        <v>2000867</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>1764576</v>
-      </c>
       <c r="BA41" s="11">
-        <v>2348278</v>
+        <v>1824448</v>
       </c>
       <c r="BB41" s="11">
-        <v>1588025</v>
+        <v>1711445</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -4979,157 +4979,157 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>643998</v>
+        <v>995821</v>
       </c>
       <c r="F42" s="13">
-        <v>636920</v>
+        <v>635261</v>
       </c>
       <c r="G42" s="13">
-        <v>995821</v>
+        <v>789265</v>
       </c>
       <c r="H42" s="13">
-        <v>635261</v>
+        <v>376792</v>
       </c>
       <c r="I42" s="13">
-        <v>789265</v>
+        <v>764712</v>
       </c>
       <c r="J42" s="13">
-        <v>376792</v>
+        <v>723791</v>
       </c>
       <c r="K42" s="13">
-        <v>764712</v>
+        <v>954083</v>
       </c>
       <c r="L42" s="13">
-        <v>723791</v>
+        <v>792838</v>
       </c>
       <c r="M42" s="13">
-        <v>954083</v>
+        <v>898914</v>
       </c>
       <c r="N42" s="13">
-        <v>792838</v>
+        <v>965541</v>
       </c>
       <c r="O42" s="13">
-        <v>898914</v>
+        <v>988974</v>
       </c>
       <c r="P42" s="13">
-        <v>965541</v>
+        <v>1089891</v>
       </c>
       <c r="Q42" s="13">
-        <v>988974</v>
+        <v>1078612</v>
       </c>
       <c r="R42" s="13">
-        <v>1089891</v>
+        <v>1089565</v>
       </c>
       <c r="S42" s="13">
-        <v>1078612</v>
+        <v>993642</v>
       </c>
       <c r="T42" s="13">
-        <v>1089565</v>
+        <v>495488</v>
       </c>
       <c r="U42" s="13">
-        <v>993642</v>
+        <v>1255737</v>
       </c>
       <c r="V42" s="13">
-        <v>495488</v>
+        <v>1248478</v>
       </c>
       <c r="W42" s="13">
-        <v>1255737</v>
+        <v>1378861</v>
       </c>
       <c r="X42" s="13">
-        <v>1248478</v>
+        <v>1226566</v>
       </c>
       <c r="Y42" s="13">
-        <v>1378861</v>
+        <v>2174719</v>
       </c>
       <c r="Z42" s="13">
-        <v>1226566</v>
+        <v>1858515</v>
       </c>
       <c r="AA42" s="13">
-        <v>2174719</v>
+        <v>1800961</v>
       </c>
       <c r="AB42" s="13">
-        <v>1858515</v>
+        <v>1859323</v>
       </c>
       <c r="AC42" s="13">
-        <v>1800961</v>
+        <v>2559714</v>
       </c>
       <c r="AD42" s="13">
-        <v>1859323</v>
+        <v>2583842</v>
       </c>
       <c r="AE42" s="13">
-        <v>2559714</v>
+        <v>2482218</v>
       </c>
       <c r="AF42" s="13">
-        <v>2583842</v>
+        <v>1489683</v>
       </c>
       <c r="AG42" s="13">
-        <v>2482218</v>
+        <v>2537265</v>
       </c>
       <c r="AH42" s="13">
-        <v>1489683</v>
+        <v>2608152</v>
       </c>
       <c r="AI42" s="13">
-        <v>2537265</v>
+        <v>3056985</v>
       </c>
       <c r="AJ42" s="13">
-        <v>2608152</v>
+        <v>1925926</v>
       </c>
       <c r="AK42" s="13">
-        <v>3056985</v>
+        <v>2743058</v>
       </c>
       <c r="AL42" s="13">
-        <v>1925926</v>
+        <v>2346792</v>
       </c>
       <c r="AM42" s="13">
-        <v>2743058</v>
+        <v>2598725</v>
       </c>
       <c r="AN42" s="13">
-        <v>2346792</v>
+        <v>3331106</v>
       </c>
       <c r="AO42" s="13">
-        <v>2598725</v>
+        <v>2562188</v>
       </c>
       <c r="AP42" s="13">
-        <v>3331106</v>
+        <v>3031193</v>
       </c>
       <c r="AQ42" s="13">
-        <v>2562188</v>
+        <v>2552731</v>
       </c>
       <c r="AR42" s="13">
-        <v>3031193</v>
+        <v>1680153</v>
       </c>
       <c r="AS42" s="13">
-        <v>2552731</v>
+        <v>3038928</v>
       </c>
       <c r="AT42" s="13">
-        <v>1680153</v>
+        <v>3861560</v>
       </c>
       <c r="AU42" s="13">
-        <v>3038928</v>
+        <v>3948718</v>
       </c>
       <c r="AV42" s="13">
-        <v>3861560</v>
+        <v>3781110</v>
       </c>
       <c r="AW42" s="13">
-        <v>4242534</v>
+        <v>3909644</v>
       </c>
       <c r="AX42" s="13">
-        <v>3790739</v>
+        <v>3038963</v>
       </c>
       <c r="AY42" s="13">
-        <v>3909644</v>
+        <v>4044982</v>
       </c>
       <c r="AZ42" s="13">
-        <v>3038963</v>
+        <v>4369990</v>
       </c>
       <c r="BA42" s="13">
-        <v>4044982</v>
+        <v>3789396</v>
       </c>
       <c r="BB42" s="13">
-        <v>4369990</v>
+        <v>4631609</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>69</v>
       </c>
@@ -5186,7 +5186,7 @@
       <c r="BA43" s="15"/>
       <c r="BB43" s="15"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>61</v>
       </c>
@@ -5248,11 +5248,11 @@
       <c r="V44" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W44" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X44" s="17" t="s">
-        <v>62</v>
+      <c r="W44" s="17">
+        <v>0</v>
+      </c>
+      <c r="X44" s="17">
+        <v>0</v>
       </c>
       <c r="Y44" s="17">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>70</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="BA45" s="15"/>
       <c r="BB45" s="15"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>66</v>
       </c>
@@ -5464,11 +5464,11 @@
       <c r="V46" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W46" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X46" s="17" t="s">
-        <v>62</v>
+      <c r="W46" s="17">
+        <v>0</v>
+      </c>
+      <c r="X46" s="17">
+        <v>0</v>
       </c>
       <c r="Y46" s="17">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>71</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>72</v>
       </c>
@@ -5680,11 +5680,11 @@
       <c r="V48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>62</v>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+      <c r="X48" s="11">
+        <v>0</v>
       </c>
       <c r="Y48" s="11">
         <v>0</v>
@@ -5777,164 +5777,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19">
-        <v>888327</v>
+        <v>1627733</v>
       </c>
       <c r="F49" s="19">
-        <v>1024191</v>
+        <v>1241319</v>
       </c>
       <c r="G49" s="19">
-        <v>1627733</v>
+        <v>1291758</v>
       </c>
       <c r="H49" s="19">
-        <v>1241319</v>
+        <v>582924</v>
       </c>
       <c r="I49" s="19">
-        <v>1291758</v>
+        <v>1225646</v>
       </c>
       <c r="J49" s="19">
-        <v>582924</v>
+        <v>1249242</v>
       </c>
       <c r="K49" s="19">
-        <v>1225646</v>
+        <v>1484060</v>
       </c>
       <c r="L49" s="19">
-        <v>1249242</v>
+        <v>1183486</v>
       </c>
       <c r="M49" s="19">
-        <v>1484060</v>
+        <v>1318216</v>
       </c>
       <c r="N49" s="19">
-        <v>1183486</v>
+        <v>1514965</v>
       </c>
       <c r="O49" s="19">
-        <v>1318216</v>
+        <v>1504664</v>
       </c>
       <c r="P49" s="19">
-        <v>1514965</v>
+        <v>1720547</v>
       </c>
       <c r="Q49" s="19">
-        <v>1504664</v>
+        <v>1759383</v>
       </c>
       <c r="R49" s="19">
-        <v>1720547</v>
+        <v>1772581</v>
       </c>
       <c r="S49" s="19">
-        <v>1759383</v>
+        <v>1626934</v>
       </c>
       <c r="T49" s="19">
-        <v>1772581</v>
+        <v>789407</v>
       </c>
       <c r="U49" s="19">
-        <v>1626934</v>
+        <v>2026182</v>
       </c>
       <c r="V49" s="19">
-        <v>789407</v>
+        <v>2103226</v>
       </c>
       <c r="W49" s="19">
-        <v>2026182</v>
+        <v>2400906</v>
       </c>
       <c r="X49" s="19">
-        <v>2103226</v>
+        <v>2006216</v>
       </c>
       <c r="Y49" s="19">
-        <v>2400906</v>
+        <v>3549670</v>
       </c>
       <c r="Z49" s="19">
-        <v>2006216</v>
+        <v>3116143</v>
       </c>
       <c r="AA49" s="19">
-        <v>3549670</v>
+        <v>2986064</v>
       </c>
       <c r="AB49" s="19">
-        <v>3116143</v>
+        <v>2767552</v>
       </c>
       <c r="AC49" s="19">
-        <v>2986064</v>
+        <v>3831290</v>
       </c>
       <c r="AD49" s="19">
-        <v>2767552</v>
+        <v>4033903</v>
       </c>
       <c r="AE49" s="19">
-        <v>3831290</v>
+        <v>4034565</v>
       </c>
       <c r="AF49" s="19">
-        <v>4033903</v>
+        <v>2320649</v>
       </c>
       <c r="AG49" s="19">
-        <v>4034565</v>
+        <v>4428509</v>
       </c>
       <c r="AH49" s="19">
-        <v>2320649</v>
+        <v>4788493</v>
       </c>
       <c r="AI49" s="19">
-        <v>4428509</v>
+        <v>4511972</v>
       </c>
       <c r="AJ49" s="19">
-        <v>4788493</v>
+        <v>3602455</v>
       </c>
       <c r="AK49" s="19">
-        <v>4511972</v>
+        <v>4941857</v>
       </c>
       <c r="AL49" s="19">
-        <v>3602455</v>
+        <v>3888793</v>
       </c>
       <c r="AM49" s="19">
-        <v>4941857</v>
+        <v>4139023</v>
       </c>
       <c r="AN49" s="19">
-        <v>3888793</v>
+        <v>4520951</v>
       </c>
       <c r="AO49" s="19">
-        <v>4139023</v>
+        <v>4004308</v>
       </c>
       <c r="AP49" s="19">
-        <v>4520951</v>
+        <v>4131713</v>
       </c>
       <c r="AQ49" s="19">
-        <v>4004308</v>
+        <v>4486693</v>
       </c>
       <c r="AR49" s="19">
-        <v>4131713</v>
+        <v>2481181</v>
       </c>
       <c r="AS49" s="19">
-        <v>4486693</v>
+        <v>5831222</v>
       </c>
       <c r="AT49" s="19">
-        <v>2481181</v>
+        <v>5891400</v>
       </c>
       <c r="AU49" s="19">
-        <v>5831222</v>
+        <v>6427032</v>
       </c>
       <c r="AV49" s="19">
-        <v>5891400</v>
+        <v>5677123</v>
       </c>
       <c r="AW49" s="19">
-        <v>6720848</v>
+        <v>6214474</v>
       </c>
       <c r="AX49" s="19">
-        <v>5686752</v>
+        <v>5163611</v>
       </c>
       <c r="AY49" s="19">
-        <v>6214474</v>
+        <v>6775247</v>
       </c>
       <c r="AZ49" s="19">
-        <v>5163611</v>
+        <v>6176706</v>
       </c>
       <c r="BA49" s="19">
-        <v>6775247</v>
+        <v>5973022</v>
       </c>
       <c r="BB49" s="19">
-        <v>6176706</v>
+        <v>6562122</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5989,7 +5989,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6044,7 +6044,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6099,7 +6099,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>73</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6311,7 +6311,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>74</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
@@ -6377,157 +6377,157 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>91659</v>
+        <v>137845</v>
       </c>
       <c r="F56" s="11">
-        <v>128806</v>
+        <v>134487</v>
       </c>
       <c r="G56" s="11">
-        <v>137845</v>
+        <v>137298</v>
       </c>
       <c r="H56" s="11">
-        <v>134487</v>
+        <v>174445</v>
       </c>
       <c r="I56" s="11">
-        <v>137298</v>
+        <v>139329</v>
       </c>
       <c r="J56" s="11">
-        <v>174445</v>
+        <v>132818</v>
       </c>
       <c r="K56" s="11">
-        <v>139329</v>
+        <v>178304</v>
       </c>
       <c r="L56" s="11">
-        <v>132818</v>
+        <v>175093</v>
       </c>
       <c r="M56" s="11">
-        <v>178304</v>
+        <v>165063</v>
       </c>
       <c r="N56" s="11">
-        <v>175093</v>
+        <v>170816</v>
       </c>
       <c r="O56" s="11">
-        <v>165063</v>
+        <v>200508</v>
       </c>
       <c r="P56" s="11">
-        <v>170816</v>
+        <v>206277</v>
       </c>
       <c r="Q56" s="11">
-        <v>200508</v>
+        <v>209603</v>
       </c>
       <c r="R56" s="11">
-        <v>206277</v>
+        <v>212574</v>
       </c>
       <c r="S56" s="11">
-        <v>209603</v>
+        <v>211689</v>
       </c>
       <c r="T56" s="11">
-        <v>212574</v>
+        <v>205125</v>
       </c>
       <c r="U56" s="11">
-        <v>211689</v>
+        <v>203652</v>
       </c>
       <c r="V56" s="11">
-        <v>205125</v>
+        <v>209280</v>
       </c>
       <c r="W56" s="11">
-        <v>203652</v>
+        <v>306705</v>
       </c>
       <c r="X56" s="11">
-        <v>209280</v>
+        <v>314775</v>
       </c>
       <c r="Y56" s="11">
-        <v>306705</v>
+        <v>315823</v>
       </c>
       <c r="Z56" s="11">
-        <v>314775</v>
+        <v>302687</v>
       </c>
       <c r="AA56" s="11">
-        <v>315823</v>
+        <v>295995</v>
       </c>
       <c r="AB56" s="11">
-        <v>302687</v>
+        <v>299294</v>
       </c>
       <c r="AC56" s="11">
-        <v>295995</v>
+        <v>290509</v>
       </c>
       <c r="AD56" s="11">
-        <v>299294</v>
+        <v>294279</v>
       </c>
       <c r="AE56" s="11">
-        <v>290509</v>
+        <v>300777</v>
       </c>
       <c r="AF56" s="11">
-        <v>294279</v>
+        <v>300582</v>
       </c>
       <c r="AG56" s="11">
-        <v>300777</v>
+        <v>294170</v>
       </c>
       <c r="AH56" s="11">
-        <v>300582</v>
+        <v>290450</v>
       </c>
       <c r="AI56" s="11">
-        <v>294170</v>
+        <v>291762</v>
       </c>
       <c r="AJ56" s="11">
-        <v>290450</v>
+        <v>294797</v>
       </c>
       <c r="AK56" s="11">
-        <v>291762</v>
+        <v>287252</v>
       </c>
       <c r="AL56" s="11">
-        <v>294797</v>
+        <v>289276</v>
       </c>
       <c r="AM56" s="11">
-        <v>287252</v>
+        <v>295687</v>
       </c>
       <c r="AN56" s="11">
-        <v>289276</v>
+        <v>291891</v>
       </c>
       <c r="AO56" s="11">
-        <v>295687</v>
+        <v>289166</v>
       </c>
       <c r="AP56" s="11">
-        <v>291891</v>
+        <v>386045</v>
       </c>
       <c r="AQ56" s="11">
-        <v>289166</v>
+        <v>350136</v>
       </c>
       <c r="AR56" s="11">
-        <v>386045</v>
+        <v>350893</v>
       </c>
       <c r="AS56" s="11">
-        <v>350136</v>
+        <v>480254</v>
       </c>
       <c r="AT56" s="11">
-        <v>350893</v>
+        <v>399817</v>
       </c>
       <c r="AU56" s="11">
-        <v>480254</v>
+        <v>458776</v>
       </c>
       <c r="AV56" s="11">
-        <v>399817</v>
+        <v>471292</v>
       </c>
       <c r="AW56" s="11">
-        <v>458776</v>
+        <v>479156</v>
       </c>
       <c r="AX56" s="11">
-        <v>471292</v>
+        <v>544037</v>
       </c>
       <c r="AY56" s="11">
-        <v>479156</v>
+        <v>614576</v>
       </c>
       <c r="AZ56" s="11">
-        <v>544037</v>
+        <v>580464</v>
       </c>
       <c r="BA56" s="11">
-        <v>614576</v>
+        <v>571733</v>
       </c>
       <c r="BB56" s="11">
-        <v>580464</v>
+        <v>578909</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
@@ -6536,157 +6536,157 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>166603</v>
+        <v>246383</v>
       </c>
       <c r="F57" s="13">
-        <v>208825</v>
+        <v>249698</v>
       </c>
       <c r="G57" s="13">
-        <v>246383</v>
+        <v>236449</v>
       </c>
       <c r="H57" s="13">
-        <v>249698</v>
+        <v>251792</v>
       </c>
       <c r="I57" s="13">
-        <v>236449</v>
+        <v>254115</v>
       </c>
       <c r="J57" s="13">
-        <v>251792</v>
+        <v>242107</v>
       </c>
       <c r="K57" s="13">
-        <v>254115</v>
+        <v>257804</v>
       </c>
       <c r="L57" s="13">
-        <v>242107</v>
+        <v>300991</v>
       </c>
       <c r="M57" s="13">
-        <v>257804</v>
+        <v>301341</v>
       </c>
       <c r="N57" s="13">
-        <v>300991</v>
+        <v>302274</v>
       </c>
       <c r="O57" s="13">
-        <v>301341</v>
+        <v>305194</v>
       </c>
       <c r="P57" s="13">
-        <v>302274</v>
+        <v>306591</v>
       </c>
       <c r="Q57" s="13">
-        <v>305194</v>
+        <v>304267</v>
       </c>
       <c r="R57" s="13">
-        <v>306591</v>
+        <v>303951</v>
       </c>
       <c r="S57" s="13">
-        <v>304267</v>
+        <v>308769</v>
       </c>
       <c r="T57" s="13">
-        <v>303951</v>
+        <v>302236</v>
       </c>
       <c r="U57" s="13">
-        <v>308769</v>
+        <v>307068</v>
       </c>
       <c r="V57" s="13">
-        <v>302236</v>
+        <v>308175</v>
       </c>
       <c r="W57" s="13">
-        <v>307068</v>
+        <v>503312</v>
       </c>
       <c r="X57" s="13">
-        <v>308175</v>
+        <v>550378</v>
       </c>
       <c r="Y57" s="13">
-        <v>503312</v>
+        <v>578137</v>
       </c>
       <c r="Z57" s="13">
-        <v>550378</v>
+        <v>576716</v>
       </c>
       <c r="AA57" s="13">
-        <v>578137</v>
+        <v>575645</v>
       </c>
       <c r="AB57" s="13">
-        <v>576716</v>
+        <v>583188</v>
       </c>
       <c r="AC57" s="13">
-        <v>575645</v>
+        <v>569608</v>
       </c>
       <c r="AD57" s="13">
-        <v>583188</v>
+        <v>582180</v>
       </c>
       <c r="AE57" s="13">
-        <v>569608</v>
+        <v>576844</v>
       </c>
       <c r="AF57" s="13">
-        <v>582180</v>
+        <v>574559</v>
       </c>
       <c r="AG57" s="13">
-        <v>576844</v>
+        <v>578913</v>
       </c>
       <c r="AH57" s="13">
-        <v>574559</v>
+        <v>581402</v>
       </c>
       <c r="AI57" s="13">
-        <v>578913</v>
+        <v>566914</v>
       </c>
       <c r="AJ57" s="13">
-        <v>581402</v>
+        <v>575112</v>
       </c>
       <c r="AK57" s="13">
-        <v>566914</v>
+        <v>565548</v>
       </c>
       <c r="AL57" s="13">
-        <v>575112</v>
+        <v>577982</v>
       </c>
       <c r="AM57" s="13">
-        <v>565548</v>
+        <v>581754</v>
       </c>
       <c r="AN57" s="13">
-        <v>577982</v>
+        <v>567375</v>
       </c>
       <c r="AO57" s="13">
-        <v>581754</v>
+        <v>581111</v>
       </c>
       <c r="AP57" s="13">
-        <v>567375</v>
+        <v>740031</v>
       </c>
       <c r="AQ57" s="13">
-        <v>581111</v>
+        <v>739192</v>
       </c>
       <c r="AR57" s="13">
-        <v>740031</v>
+        <v>740616</v>
       </c>
       <c r="AS57" s="13">
-        <v>739192</v>
+        <v>752527</v>
       </c>
       <c r="AT57" s="13">
-        <v>740616</v>
+        <v>715300</v>
       </c>
       <c r="AU57" s="13">
-        <v>752527</v>
+        <v>735907</v>
       </c>
       <c r="AV57" s="13">
-        <v>715300</v>
+        <v>858394</v>
       </c>
       <c r="AW57" s="13">
-        <v>735907</v>
+        <v>887708</v>
       </c>
       <c r="AX57" s="13">
-        <v>858394</v>
+        <v>1077658</v>
       </c>
       <c r="AY57" s="13">
-        <v>887708</v>
+        <v>1111799</v>
       </c>
       <c r="AZ57" s="13">
-        <v>1077658</v>
+        <v>1097172</v>
       </c>
       <c r="BA57" s="13">
-        <v>1111799</v>
+        <v>1060785</v>
       </c>
       <c r="BB57" s="13">
-        <v>1097172</v>
+        <v>1070761</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>58</v>
       </c>
@@ -6695,157 +6695,157 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>131990</v>
+        <v>178856</v>
       </c>
       <c r="F58" s="11">
-        <v>155689</v>
+        <v>179712</v>
       </c>
       <c r="G58" s="11">
-        <v>178856</v>
+        <v>178877</v>
       </c>
       <c r="H58" s="11">
-        <v>179712</v>
+        <v>182008</v>
       </c>
       <c r="I58" s="11">
-        <v>178877</v>
+        <v>181527</v>
       </c>
       <c r="J58" s="11">
-        <v>182008</v>
+        <v>184129</v>
       </c>
       <c r="K58" s="11">
-        <v>181527</v>
+        <v>207678</v>
       </c>
       <c r="L58" s="11">
-        <v>184129</v>
+        <v>251609</v>
       </c>
       <c r="M58" s="11">
-        <v>207678</v>
+        <v>213139</v>
       </c>
       <c r="N58" s="11">
-        <v>251609</v>
+        <v>220584</v>
       </c>
       <c r="O58" s="11">
-        <v>213139</v>
+        <v>221776</v>
       </c>
       <c r="P58" s="11">
-        <v>220584</v>
+        <v>224087</v>
       </c>
       <c r="Q58" s="11">
-        <v>221776</v>
+        <v>228297</v>
       </c>
       <c r="R58" s="11">
-        <v>224087</v>
+        <v>234931</v>
       </c>
       <c r="S58" s="11">
-        <v>228297</v>
+        <v>241354</v>
       </c>
       <c r="T58" s="11">
-        <v>234931</v>
+        <v>246282</v>
       </c>
       <c r="U58" s="11">
-        <v>241354</v>
+        <v>243111</v>
       </c>
       <c r="V58" s="11">
-        <v>246282</v>
+        <v>234318</v>
       </c>
       <c r="W58" s="11">
-        <v>243111</v>
+        <v>328893</v>
       </c>
       <c r="X58" s="11">
-        <v>234318</v>
+        <v>376941</v>
       </c>
       <c r="Y58" s="11">
-        <v>328893</v>
+        <v>415995</v>
       </c>
       <c r="Z58" s="11">
-        <v>376941</v>
+        <v>405545</v>
       </c>
       <c r="AA58" s="11">
-        <v>415995</v>
+        <v>408573</v>
       </c>
       <c r="AB58" s="11">
-        <v>405545</v>
+        <v>420444</v>
       </c>
       <c r="AC58" s="11">
-        <v>408573</v>
+        <v>504978</v>
       </c>
       <c r="AD58" s="11">
-        <v>420444</v>
+        <v>525014</v>
       </c>
       <c r="AE58" s="11">
-        <v>504978</v>
+        <v>643282</v>
       </c>
       <c r="AF58" s="11">
-        <v>525014</v>
+        <v>542330</v>
       </c>
       <c r="AG58" s="11">
-        <v>643282</v>
+        <v>550814</v>
       </c>
       <c r="AH58" s="11">
-        <v>542330</v>
+        <v>549417</v>
       </c>
       <c r="AI58" s="11">
-        <v>550814</v>
+        <v>550561</v>
       </c>
       <c r="AJ58" s="11">
-        <v>549417</v>
+        <v>547982</v>
       </c>
       <c r="AK58" s="11">
-        <v>550561</v>
+        <v>548345</v>
       </c>
       <c r="AL58" s="11">
-        <v>547982</v>
+        <v>539834</v>
       </c>
       <c r="AM58" s="11">
-        <v>548345</v>
+        <v>543543</v>
       </c>
       <c r="AN58" s="11">
-        <v>539834</v>
+        <v>624810</v>
       </c>
       <c r="AO58" s="11">
-        <v>543543</v>
+        <v>616443</v>
       </c>
       <c r="AP58" s="11">
-        <v>624810</v>
+        <v>597789</v>
       </c>
       <c r="AQ58" s="11">
-        <v>616443</v>
+        <v>648161</v>
       </c>
       <c r="AR58" s="11">
-        <v>597789</v>
+        <v>597741</v>
       </c>
       <c r="AS58" s="11">
-        <v>648161</v>
+        <v>620672</v>
       </c>
       <c r="AT58" s="11">
-        <v>597741</v>
+        <v>684449</v>
       </c>
       <c r="AU58" s="11">
-        <v>620672</v>
+        <v>721433</v>
       </c>
       <c r="AV58" s="11">
-        <v>684449</v>
+        <v>728398</v>
       </c>
       <c r="AW58" s="11">
-        <v>721433</v>
+        <v>754760</v>
       </c>
       <c r="AX58" s="11">
-        <v>728398</v>
+        <v>791806</v>
       </c>
       <c r="AY58" s="11">
-        <v>754760</v>
+        <v>816571</v>
       </c>
       <c r="AZ58" s="11">
-        <v>791806</v>
+        <v>828959</v>
       </c>
       <c r="BA58" s="11">
-        <v>816571</v>
+        <v>820968</v>
       </c>
       <c r="BB58" s="11">
-        <v>828959</v>
+        <v>824388</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>59</v>
       </c>
@@ -6854,154 +6854,154 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>154896</v>
+        <v>183175</v>
       </c>
       <c r="F59" s="13">
-        <v>170301</v>
+        <v>186367</v>
       </c>
       <c r="G59" s="13">
-        <v>183175</v>
+        <v>193173</v>
       </c>
       <c r="H59" s="13">
-        <v>186367</v>
+        <v>186070</v>
       </c>
       <c r="I59" s="13">
-        <v>193173</v>
+        <v>185305</v>
       </c>
       <c r="J59" s="13">
-        <v>186070</v>
+        <v>184250</v>
       </c>
       <c r="K59" s="13">
-        <v>185305</v>
+        <v>236497</v>
       </c>
       <c r="L59" s="13">
-        <v>184250</v>
+        <v>248717</v>
       </c>
       <c r="M59" s="13">
-        <v>236497</v>
+        <v>237748</v>
       </c>
       <c r="N59" s="13">
-        <v>248717</v>
+        <v>236474</v>
       </c>
       <c r="O59" s="13">
-        <v>237748</v>
+        <v>233857</v>
       </c>
       <c r="P59" s="13">
-        <v>236474</v>
+        <v>233530</v>
       </c>
       <c r="Q59" s="13">
-        <v>233857</v>
+        <v>236200</v>
       </c>
       <c r="R59" s="13">
-        <v>233530</v>
+        <v>237829</v>
       </c>
       <c r="S59" s="13">
-        <v>236200</v>
+        <v>236008</v>
       </c>
       <c r="T59" s="13">
-        <v>237829</v>
+        <v>236917</v>
       </c>
       <c r="U59" s="13">
-        <v>236008</v>
+        <v>237644</v>
       </c>
       <c r="V59" s="13">
-        <v>236917</v>
+        <v>235282</v>
       </c>
       <c r="W59" s="13">
-        <v>237644</v>
+        <v>291091</v>
       </c>
       <c r="X59" s="13">
-        <v>235282</v>
+        <v>346844</v>
       </c>
       <c r="Y59" s="13">
-        <v>291091</v>
+        <v>411781</v>
       </c>
       <c r="Z59" s="13">
-        <v>346844</v>
+        <v>383694</v>
       </c>
       <c r="AA59" s="13">
-        <v>411781</v>
+        <v>398841</v>
       </c>
       <c r="AB59" s="13">
-        <v>383694</v>
+        <v>488954</v>
       </c>
       <c r="AC59" s="13">
-        <v>398841</v>
+        <v>531741</v>
       </c>
       <c r="AD59" s="13">
-        <v>488954</v>
+        <v>577119</v>
       </c>
       <c r="AE59" s="13">
-        <v>531741</v>
+        <v>557771</v>
       </c>
       <c r="AF59" s="13">
-        <v>577119</v>
+        <v>538214</v>
       </c>
       <c r="AG59" s="13">
-        <v>557771</v>
+        <v>528048</v>
       </c>
       <c r="AH59" s="13">
-        <v>538214</v>
+        <v>523852</v>
       </c>
       <c r="AI59" s="13">
-        <v>528048</v>
+        <v>542727</v>
       </c>
       <c r="AJ59" s="13">
-        <v>523852</v>
+        <v>536376</v>
       </c>
       <c r="AK59" s="13">
-        <v>542727</v>
+        <v>546104</v>
       </c>
       <c r="AL59" s="13">
-        <v>536376</v>
+        <v>537761</v>
       </c>
       <c r="AM59" s="13">
-        <v>546104</v>
+        <v>546516</v>
       </c>
       <c r="AN59" s="13">
-        <v>537761</v>
+        <v>576893</v>
       </c>
       <c r="AO59" s="13">
-        <v>546516</v>
+        <v>594261</v>
       </c>
       <c r="AP59" s="13">
-        <v>576893</v>
+        <v>581885</v>
       </c>
       <c r="AQ59" s="13">
-        <v>594261</v>
+        <v>607603</v>
       </c>
       <c r="AR59" s="13">
-        <v>581885</v>
+        <v>615458</v>
       </c>
       <c r="AS59" s="13">
-        <v>607603</v>
+        <v>625178</v>
       </c>
       <c r="AT59" s="13">
-        <v>615458</v>
+        <v>699223</v>
       </c>
       <c r="AU59" s="13">
-        <v>625178</v>
+        <v>728732</v>
       </c>
       <c r="AV59" s="13">
-        <v>699223</v>
+        <v>810173</v>
       </c>
       <c r="AW59" s="13">
-        <v>744587</v>
+        <v>728063</v>
       </c>
       <c r="AX59" s="13">
-        <v>810195</v>
+        <v>791989</v>
       </c>
       <c r="AY59" s="13">
-        <v>728063</v>
+        <v>810822</v>
       </c>
       <c r="AZ59" s="13">
-        <v>791989</v>
+        <v>807995</v>
       </c>
       <c r="BA59" s="13">
-        <v>810822</v>
+        <v>819673</v>
       </c>
       <c r="BB59" s="13">
-        <v>807995</v>
+        <v>846672</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/monthly.xlsx
+++ b/database/industries/lastic/pekerman/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="76">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3209,154 +3209,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>145327</v>
+        <v>116904</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>116904</v>
+        <v>95451</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>95451</v>
+        <v>151783</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>151783</v>
+        <v>120955</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>120955</v>
+        <v>114780</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>114780</v>
+        <v>132928</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>132928</v>
+        <v>152516</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>152516</v>
+        <v>128823</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>128823</v>
+        <v>117676</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>117676</v>
+        <v>143963</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>143963</v>
+        <v>148065</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>148065</v>
+        <v>130464</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>130464</v>
+        <v>137491</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>137491</v>
+        <v>123926</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>123926</v>
+        <v>151869</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>151869</v>
+        <v>190579</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>190579</v>
+        <v>133862</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>133862</v>
+        <v>192349</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>192349</v>
+        <v>160459</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>160459</v>
+        <v>147792</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>147792</v>
+        <v>124953</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>124953</v>
+        <v>123835</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>123835</v>
+        <v>129275</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>129275</v>
+        <v>163599</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>163599</v>
+        <v>196055</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>196055</v>
+        <v>111434</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>111434</v>
+        <v>152945</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>152945</v>
+        <v>155975</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>155975</v>
+        <v>142096</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>142096</v>
+        <v>120974</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>120974</v>
+        <v>131422</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>131422</v>
+        <v>135395</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>135395</v>
+        <v>132289</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>132289</v>
+        <v>137703</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>137703</v>
+        <v>150376</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>150376</v>
+        <v>98751</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>98751</v>
+        <v>83857</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>83857</v>
+        <v>55707</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>55707</v>
+        <v>63774</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>63774</v>
+        <v>96015</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>96015</v>
+        <v>104375</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>104375</v>
+        <v>97588</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>97588</v>
+        <v>106321</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>106321</v>
+        <v>107491</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>107491</v>
+        <v>135177</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>135177</v>
+        <v>136180</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>136180</v>
+        <v>128226</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>128226</v>
+        <v>145562</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>145562</v>
+        <v>176437</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>176437</v>
+        <v>127980</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,154 +3368,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>210714</v>
+        <v>172748</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>172748</v>
+        <v>195662</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>195662</v>
+        <v>117680</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>117680</v>
+        <v>0</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>0</v>
+        <v>68867</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>68867</v>
+        <v>202751</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>202751</v>
+        <v>153332</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>153332</v>
+        <v>206060</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>206060</v>
+        <v>235229</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>235229</v>
+        <v>208451</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>208451</v>
+        <v>225759</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>225759</v>
+        <v>242073</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>242073</v>
+        <v>234858</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>234858</v>
+        <v>199813</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>199813</v>
+        <v>315140</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>315140</v>
+        <v>318642</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>318642</v>
+        <v>244820</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>244820</v>
+        <v>286880</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>286880</v>
+        <v>316978</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>316978</v>
+        <v>275490</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>275490</v>
+        <v>298710</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>298710</v>
+        <v>301000</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>301000</v>
+        <v>302677</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>302677</v>
+        <v>321774</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>321774</v>
+        <v>300944</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>300944</v>
+        <v>170432</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>170432</v>
+        <v>300451</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>300451</v>
+        <v>303856</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>303856</v>
+        <v>293876</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>293876</v>
+        <v>200669</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>200669</v>
+        <v>255651</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>255651</v>
+        <v>262963</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>262963</v>
+        <v>262524</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>262524</v>
+        <v>266704</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>266704</v>
+        <v>270866</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>270866</v>
+        <v>241075</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>241075</v>
+        <v>255272</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>255272</v>
+        <v>92280</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>92280</v>
+        <v>171554</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>171554</v>
+        <v>210493</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>210493</v>
+        <v>219954</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>219954</v>
+        <v>153426</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>153426</v>
+        <v>265597</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>265597</v>
+        <v>280858</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>280858</v>
+        <v>190885</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>190885</v>
+        <v>215965</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>215965</v>
+        <v>215410</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>215410</v>
+        <v>160565</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>160565</v>
+        <v>131822</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>131822</v>
+        <v>157010</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,154 +3527,154 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>2439318</v>
+        <v>2241890</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>2241890</v>
+        <v>2217869</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>2217869</v>
+        <v>2066449</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>2066449</v>
+        <v>2092900</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>2092900</v>
+        <v>1593761</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>1593761</v>
+        <v>830265</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>830265</v>
+        <v>1827468</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>1827468</v>
+        <v>2188884</v>
       </c>
       <c r="M13" s="12" t="n">
-        <v>2188884</v>
+        <v>2316548</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>2316548</v>
+        <v>2529554</v>
       </c>
       <c r="O13" s="12" t="n">
-        <v>2529554</v>
+        <v>2554143</v>
       </c>
       <c r="P13" s="12" t="n">
-        <v>2554143</v>
+        <v>2614667</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <v>2614667</v>
+        <v>2552799</v>
       </c>
       <c r="R13" s="12" t="n">
-        <v>2552799</v>
+        <v>1980293</v>
       </c>
       <c r="S13" s="12" t="n">
-        <v>1980293</v>
+        <v>2777237</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>2777237</v>
+        <v>2762873</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>2762873</v>
+        <v>2157117</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>2157117</v>
+        <v>2203077</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>2203077</v>
+        <v>2747977</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>2747977</v>
+        <v>2603431</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>2603431</v>
+        <v>2693222</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>2693222</v>
+        <v>2674037</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>2674037</v>
+        <v>2705137</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>2705137</v>
+        <v>2808741</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>2808741</v>
+        <v>2819587</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>2819587</v>
+        <v>1640722</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>1640722</v>
+        <v>2926884</v>
       </c>
       <c r="AF13" s="12" t="n">
-        <v>2926884</v>
+        <v>2861475</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>2861475</v>
+        <v>2914527</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>2914527</v>
+        <v>2070652</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>2070652</v>
+        <v>2535626</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>2535626</v>
+        <v>2697190</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>2697190</v>
+        <v>2677214</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>2677214</v>
+        <v>2619521</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>2619521</v>
+        <v>2630484</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>2630484</v>
+        <v>2603164</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>2603164</v>
+        <v>2193307</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>2193307</v>
+        <v>1418543</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>1418543</v>
+        <v>2608877</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>2608877</v>
+        <v>2692676</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>2692676</v>
+        <v>2711857</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>2711857</v>
+        <v>1787937</v>
       </c>
       <c r="AU13" s="12" t="n">
-        <v>1787937</v>
+        <v>2438795</v>
       </c>
       <c r="AV13" s="12" t="n">
-        <v>2438795</v>
+        <v>2443112</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>2443112</v>
+        <v>2370132</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>2370132</v>
+        <v>2339290</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>2339290</v>
+        <v>2247388</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>2247388</v>
+        <v>2264972</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>2264972</v>
+        <v>2162127</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>2162127</v>
+        <v>1789233</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,154 +3686,154 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="n">
-        <v>2957832</v>
+        <v>3592053</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>3592053</v>
+        <v>3749712</v>
       </c>
       <c r="G14" s="14" t="n">
-        <v>3749712</v>
+        <v>4301023</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>4301023</v>
+        <v>3301236</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>3301236</v>
+        <v>3711484</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>3711484</v>
+        <v>3196667</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>3196667</v>
+        <v>3286920</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>3286920</v>
+        <v>3960635</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>3960635</v>
+        <v>4376883</v>
       </c>
       <c r="N14" s="14" t="n">
-        <v>4376883</v>
+        <v>4742304</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>4742304</v>
+        <v>4751275</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>4751275</v>
+        <v>4880041</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>4880041</v>
+        <v>4434109</v>
       </c>
       <c r="R14" s="14" t="n">
-        <v>4434109</v>
+        <v>3452093</v>
       </c>
       <c r="S14" s="14" t="n">
-        <v>3452093</v>
+        <v>4958378</v>
       </c>
       <c r="T14" s="14" t="n">
-        <v>4958378</v>
+        <v>5126224</v>
       </c>
       <c r="U14" s="14" t="n">
-        <v>5126224</v>
+        <v>3859112</v>
       </c>
       <c r="V14" s="14" t="n">
-        <v>3859112</v>
+        <v>4620506</v>
       </c>
       <c r="W14" s="14" t="n">
-        <v>4620506</v>
+        <v>4740937</v>
       </c>
       <c r="X14" s="14" t="n">
-        <v>4740937</v>
+        <v>4610138</v>
       </c>
       <c r="Y14" s="14" t="n">
-        <v>4610138</v>
+        <v>4602770</v>
       </c>
       <c r="Z14" s="14" t="n">
-        <v>4602770</v>
+        <v>4636081</v>
       </c>
       <c r="AA14" s="14" t="n">
-        <v>4636081</v>
+        <v>4677931</v>
       </c>
       <c r="AB14" s="14" t="n">
-        <v>4677931</v>
+        <v>4882636</v>
       </c>
       <c r="AC14" s="14" t="n">
-        <v>4882636</v>
+        <v>4841085</v>
       </c>
       <c r="AD14" s="14" t="n">
-        <v>4841085</v>
+        <v>2737030</v>
       </c>
       <c r="AE14" s="14" t="n">
-        <v>2737030</v>
+        <v>5009156</v>
       </c>
       <c r="AF14" s="14" t="n">
-        <v>5009156</v>
+        <v>4698709</v>
       </c>
       <c r="AG14" s="14" t="n">
-        <v>4698709</v>
+        <v>5223075</v>
       </c>
       <c r="AH14" s="14" t="n">
-        <v>5223075</v>
+        <v>3217180</v>
       </c>
       <c r="AI14" s="14" t="n">
-        <v>3217180</v>
+        <v>4725551</v>
       </c>
       <c r="AJ14" s="14" t="n">
-        <v>4725551</v>
+        <v>4874454</v>
       </c>
       <c r="AK14" s="14" t="n">
-        <v>4874454</v>
+        <v>5084516</v>
       </c>
       <c r="AL14" s="14" t="n">
-        <v>5084516</v>
+        <v>5073476</v>
       </c>
       <c r="AM14" s="14" t="n">
-        <v>5073476</v>
+        <v>5051990</v>
       </c>
       <c r="AN14" s="14" t="n">
-        <v>5051990</v>
+        <v>4787135</v>
       </c>
       <c r="AO14" s="14" t="n">
-        <v>4787135</v>
+        <v>4209099</v>
       </c>
       <c r="AP14" s="14" t="n">
-        <v>4209099</v>
+        <v>3453025</v>
       </c>
       <c r="AQ14" s="14" t="n">
-        <v>3453025</v>
+        <v>5322608</v>
       </c>
       <c r="AR14" s="14" t="n">
-        <v>5322608</v>
+        <v>5478651</v>
       </c>
       <c r="AS14" s="14" t="n">
-        <v>5478651</v>
+        <v>5288140</v>
       </c>
       <c r="AT14" s="14" t="n">
-        <v>5288140</v>
+        <v>3913055</v>
       </c>
       <c r="AU14" s="14" t="n">
-        <v>3913055</v>
+        <v>5691649</v>
       </c>
       <c r="AV14" s="14" t="n">
-        <v>5691649</v>
+        <v>3828881</v>
       </c>
       <c r="AW14" s="14" t="n">
-        <v>3828881</v>
+        <v>4957770</v>
       </c>
       <c r="AX14" s="14" t="n">
-        <v>4957770</v>
+        <v>5196679</v>
       </c>
       <c r="AY14" s="14" t="n">
-        <v>5196679</v>
+        <v>5380132</v>
       </c>
       <c r="AZ14" s="14" t="n">
-        <v>5380132</v>
+        <v>5503327</v>
       </c>
       <c r="BA14" s="14" t="n">
-        <v>5503327</v>
+        <v>5322586</v>
       </c>
       <c r="BB14" s="14" t="n">
-        <v>5322586</v>
+        <v>4423815</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,8 +3947,8 @@
       <c r="T16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="18" t="s">
-        <v>62</v>
+      <c r="U16" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="18" t="n">
         <v>0</v>
@@ -4057,154 +4057,154 @@
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20" t="n">
-        <v>5753191</v>
+        <v>6123595</v>
       </c>
       <c r="F17" s="20" t="n">
-        <v>6123595</v>
+        <v>6258694</v>
       </c>
       <c r="G17" s="20" t="n">
-        <v>6258694</v>
+        <v>6636935</v>
       </c>
       <c r="H17" s="20" t="n">
-        <v>6636935</v>
+        <v>5515091</v>
       </c>
       <c r="I17" s="20" t="n">
-        <v>5515091</v>
+        <v>5488892</v>
       </c>
       <c r="J17" s="20" t="n">
-        <v>5488892</v>
+        <v>4362611</v>
       </c>
       <c r="K17" s="20" t="n">
-        <v>4362611</v>
+        <v>5420236</v>
       </c>
       <c r="L17" s="20" t="n">
-        <v>5420236</v>
+        <v>6484402</v>
       </c>
       <c r="M17" s="20" t="n">
-        <v>6484402</v>
+        <v>7046336</v>
       </c>
       <c r="N17" s="20" t="n">
-        <v>7046336</v>
+        <v>7624272</v>
       </c>
       <c r="O17" s="20" t="n">
-        <v>7624272</v>
+        <v>7679242</v>
       </c>
       <c r="P17" s="20" t="n">
-        <v>7679242</v>
+        <v>7867245</v>
       </c>
       <c r="Q17" s="20" t="n">
-        <v>7867245</v>
+        <v>7359257</v>
       </c>
       <c r="R17" s="20" t="n">
-        <v>7359257</v>
+        <v>5756125</v>
       </c>
       <c r="S17" s="20" t="n">
-        <v>5756125</v>
+        <v>8202624</v>
       </c>
       <c r="T17" s="20" t="n">
-        <v>8202624</v>
+        <v>8398318</v>
       </c>
       <c r="U17" s="20" t="n">
-        <v>8398318</v>
+        <v>6394911</v>
       </c>
       <c r="V17" s="20" t="n">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="W17" s="20" t="n">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="X17" s="20" t="n">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="Y17" s="20" t="n">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="Z17" s="20" t="n">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AA17" s="20" t="n">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AB17" s="20" t="n">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AC17" s="20" t="n">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AD17" s="20" t="n">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AE17" s="20" t="n">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AF17" s="20" t="n">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AG17" s="20" t="n">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AH17" s="20" t="n">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AI17" s="20" t="n">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AJ17" s="20" t="n">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AK17" s="20" t="n">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AL17" s="20" t="n">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AM17" s="20" t="n">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AN17" s="20" t="n">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AO17" s="20" t="n">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AP17" s="20" t="n">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AQ17" s="20" t="n">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AR17" s="20" t="n">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AS17" s="20" t="n">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AT17" s="20" t="n">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AU17" s="20" t="n">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="AV17" s="20" t="n">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="AW17" s="20" t="n">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
       <c r="AX17" s="20" t="n">
-        <v>7653964</v>
+        <v>7888114</v>
       </c>
       <c r="AY17" s="20" t="n">
-        <v>7888114</v>
+        <v>7971156</v>
       </c>
       <c r="AZ17" s="20" t="n">
-        <v>7971156</v>
+        <v>8074426</v>
       </c>
       <c r="BA17" s="20" t="n">
-        <v>8074426</v>
+        <v>7792972</v>
       </c>
       <c r="BB17" s="20" t="n">
-        <v>7792972</v>
+        <v>6498038</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,154 +4650,154 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12" t="n">
-        <v>126124</v>
+        <v>74546</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>74546</v>
+        <v>19456</v>
       </c>
       <c r="G24" s="12" t="n">
-        <v>19456</v>
+        <v>57734</v>
       </c>
       <c r="H24" s="12" t="n">
-        <v>57734</v>
+        <v>181413</v>
       </c>
       <c r="I24" s="12" t="n">
-        <v>181413</v>
+        <v>134327</v>
       </c>
       <c r="J24" s="12" t="n">
-        <v>134327</v>
+        <v>185170</v>
       </c>
       <c r="K24" s="12" t="n">
-        <v>185170</v>
+        <v>143727</v>
       </c>
       <c r="L24" s="12" t="n">
-        <v>143727</v>
+        <v>125451</v>
       </c>
       <c r="M24" s="12" t="n">
-        <v>125451</v>
+        <v>108350</v>
       </c>
       <c r="N24" s="12" t="n">
-        <v>108350</v>
+        <v>122597</v>
       </c>
       <c r="O24" s="12" t="n">
-        <v>122597</v>
+        <v>130819</v>
       </c>
       <c r="P24" s="12" t="n">
-        <v>130819</v>
+        <v>107680</v>
       </c>
       <c r="Q24" s="12" t="n">
-        <v>107680</v>
+        <v>129402</v>
       </c>
       <c r="R24" s="12" t="n">
-        <v>129402</v>
+        <v>76134</v>
       </c>
       <c r="S24" s="12" t="n">
-        <v>76134</v>
+        <v>185797</v>
       </c>
       <c r="T24" s="12" t="n">
-        <v>185797</v>
+        <v>154339</v>
       </c>
       <c r="U24" s="12" t="n">
-        <v>154339</v>
+        <v>159727</v>
       </c>
       <c r="V24" s="12" t="n">
-        <v>159727</v>
+        <v>126414</v>
       </c>
       <c r="W24" s="12" t="n">
-        <v>126414</v>
+        <v>152880</v>
       </c>
       <c r="X24" s="12" t="n">
-        <v>152880</v>
+        <v>139081</v>
       </c>
       <c r="Y24" s="12" t="n">
-        <v>139081</v>
+        <v>110289</v>
       </c>
       <c r="Z24" s="12" t="n">
-        <v>110289</v>
+        <v>109578</v>
       </c>
       <c r="AA24" s="12" t="n">
-        <v>109578</v>
+        <v>143875</v>
       </c>
       <c r="AB24" s="12" t="n">
-        <v>143875</v>
+        <v>155910</v>
       </c>
       <c r="AC24" s="12" t="n">
-        <v>155910</v>
+        <v>89342</v>
       </c>
       <c r="AD24" s="12" t="n">
-        <v>89342</v>
+        <v>45179</v>
       </c>
       <c r="AE24" s="12" t="n">
-        <v>45179</v>
+        <v>177411</v>
       </c>
       <c r="AF24" s="12" t="n">
-        <v>177411</v>
+        <v>125612</v>
       </c>
       <c r="AG24" s="12" t="n">
-        <v>125612</v>
+        <v>114782</v>
       </c>
       <c r="AH24" s="12" t="n">
-        <v>114782</v>
+        <v>106385</v>
       </c>
       <c r="AI24" s="12" t="n">
-        <v>106385</v>
+        <v>202331</v>
       </c>
       <c r="AJ24" s="12" t="n">
-        <v>202331</v>
+        <v>173454</v>
       </c>
       <c r="AK24" s="12" t="n">
-        <v>173454</v>
+        <v>141951</v>
       </c>
       <c r="AL24" s="12" t="n">
-        <v>141951</v>
+        <v>137075</v>
       </c>
       <c r="AM24" s="12" t="n">
-        <v>137075</v>
+        <v>191385</v>
       </c>
       <c r="AN24" s="12" t="n">
-        <v>191385</v>
+        <v>26528</v>
       </c>
       <c r="AO24" s="12" t="n">
-        <v>26528</v>
+        <v>124386</v>
       </c>
       <c r="AP24" s="12" t="n">
-        <v>124386</v>
+        <v>85573</v>
       </c>
       <c r="AQ24" s="12" t="n">
-        <v>85573</v>
+        <v>104351</v>
       </c>
       <c r="AR24" s="12" t="n">
-        <v>104351</v>
+        <v>94203</v>
       </c>
       <c r="AS24" s="12" t="n">
-        <v>94203</v>
+        <v>122720</v>
       </c>
       <c r="AT24" s="12" t="n">
-        <v>122720</v>
+        <v>100303</v>
       </c>
       <c r="AU24" s="12" t="n">
-        <v>100303</v>
+        <v>118598</v>
       </c>
       <c r="AV24" s="12" t="n">
-        <v>118598</v>
+        <v>125405</v>
       </c>
       <c r="AW24" s="12" t="n">
-        <v>125405</v>
+        <v>117258</v>
       </c>
       <c r="AX24" s="12" t="n">
-        <v>117258</v>
+        <v>123608</v>
       </c>
       <c r="AY24" s="12" t="n">
-        <v>123608</v>
+        <v>146927</v>
       </c>
       <c r="AZ24" s="12" t="n">
-        <v>146927</v>
+        <v>79097</v>
       </c>
       <c r="BA24" s="12" t="n">
-        <v>79097</v>
+        <v>127140</v>
       </c>
       <c r="BB24" s="12" t="n">
-        <v>127140</v>
+        <v>72728</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,154 +4809,154 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="n">
-        <v>222220</v>
+        <v>183080</v>
       </c>
       <c r="F25" s="14" t="n">
-        <v>183080</v>
+        <v>60689</v>
       </c>
       <c r="G25" s="14" t="n">
-        <v>60689</v>
+        <v>109238</v>
       </c>
       <c r="H25" s="14" t="n">
-        <v>109238</v>
+        <v>161982</v>
       </c>
       <c r="I25" s="14" t="n">
-        <v>161982</v>
+        <v>79929</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>79929</v>
+        <v>157945</v>
       </c>
       <c r="K25" s="14" t="n">
-        <v>157945</v>
+        <v>179813</v>
       </c>
       <c r="L25" s="14" t="n">
-        <v>179813</v>
+        <v>167745</v>
       </c>
       <c r="M25" s="14" t="n">
-        <v>167745</v>
+        <v>185479</v>
       </c>
       <c r="N25" s="14" t="n">
-        <v>185479</v>
+        <v>192142</v>
       </c>
       <c r="O25" s="14" t="n">
-        <v>192142</v>
+        <v>255746</v>
       </c>
       <c r="P25" s="14" t="n">
-        <v>255746</v>
+        <v>233587</v>
       </c>
       <c r="Q25" s="14" t="n">
-        <v>233587</v>
+        <v>188390</v>
       </c>
       <c r="R25" s="14" t="n">
-        <v>188390</v>
+        <v>115175</v>
       </c>
       <c r="S25" s="14" t="n">
-        <v>115175</v>
+        <v>260099</v>
       </c>
       <c r="T25" s="14" t="n">
-        <v>260099</v>
+        <v>264447</v>
       </c>
       <c r="U25" s="14" t="n">
-        <v>264447</v>
+        <v>246235</v>
       </c>
       <c r="V25" s="14" t="n">
-        <v>246235</v>
+        <v>261542</v>
       </c>
       <c r="W25" s="14" t="n">
-        <v>261542</v>
+        <v>377687</v>
       </c>
       <c r="X25" s="14" t="n">
-        <v>377687</v>
+        <v>318951</v>
       </c>
       <c r="Y25" s="14" t="n">
-        <v>318951</v>
+        <v>255039</v>
       </c>
       <c r="Z25" s="14" t="n">
-        <v>255039</v>
+        <v>220668</v>
       </c>
       <c r="AA25" s="14" t="n">
-        <v>220668</v>
+        <v>281497</v>
       </c>
       <c r="AB25" s="14" t="n">
-        <v>281497</v>
+        <v>211170</v>
       </c>
       <c r="AC25" s="14" t="n">
-        <v>211170</v>
+        <v>239869</v>
       </c>
       <c r="AD25" s="14" t="n">
-        <v>239869</v>
+        <v>128288</v>
       </c>
       <c r="AE25" s="14" t="n">
-        <v>128288</v>
+        <v>433623</v>
       </c>
       <c r="AF25" s="14" t="n">
-        <v>433623</v>
+        <v>289631</v>
       </c>
       <c r="AG25" s="14" t="n">
-        <v>289631</v>
+        <v>277229</v>
       </c>
       <c r="AH25" s="14" t="n">
-        <v>277229</v>
+        <v>165599</v>
       </c>
       <c r="AI25" s="14" t="n">
-        <v>165599</v>
+        <v>331429</v>
       </c>
       <c r="AJ25" s="14" t="n">
-        <v>331429</v>
+        <v>256297</v>
       </c>
       <c r="AK25" s="14" t="n">
-        <v>256297</v>
+        <v>194357</v>
       </c>
       <c r="AL25" s="14" t="n">
-        <v>194357</v>
+        <v>192000</v>
       </c>
       <c r="AM25" s="14" t="n">
-        <v>192000</v>
+        <v>246349</v>
       </c>
       <c r="AN25" s="14" t="n">
-        <v>246349</v>
+        <v>130408</v>
       </c>
       <c r="AO25" s="14" t="n">
-        <v>130408</v>
+        <v>276103</v>
       </c>
       <c r="AP25" s="14" t="n">
-        <v>276103</v>
+        <v>143941</v>
       </c>
       <c r="AQ25" s="14" t="n">
-        <v>143941</v>
+        <v>193100</v>
       </c>
       <c r="AR25" s="14" t="n">
-        <v>193100</v>
+        <v>292684</v>
       </c>
       <c r="AS25" s="14" t="n">
-        <v>292684</v>
+        <v>274282</v>
       </c>
       <c r="AT25" s="14" t="n">
-        <v>274282</v>
+        <v>184921</v>
       </c>
       <c r="AU25" s="14" t="n">
-        <v>184921</v>
+        <v>278398</v>
       </c>
       <c r="AV25" s="14" t="n">
-        <v>278398</v>
+        <v>270816</v>
       </c>
       <c r="AW25" s="14" t="n">
-        <v>270816</v>
+        <v>278758</v>
       </c>
       <c r="AX25" s="14" t="n">
-        <v>278758</v>
+        <v>133927</v>
       </c>
       <c r="AY25" s="14" t="n">
-        <v>133927</v>
+        <v>259407</v>
       </c>
       <c r="AZ25" s="14" t="n">
-        <v>259407</v>
+        <v>161827</v>
       </c>
       <c r="BA25" s="14" t="n">
-        <v>161827</v>
+        <v>110056</v>
       </c>
       <c r="BB25" s="14" t="n">
-        <v>110056</v>
+        <v>123789</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,154 +4968,154 @@
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="n">
-        <v>2969246</v>
+        <v>2509938</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>2509938</v>
+        <v>1029938</v>
       </c>
       <c r="G26" s="12" t="n">
-        <v>1029938</v>
+        <v>2341975</v>
       </c>
       <c r="H26" s="12" t="n">
-        <v>2341975</v>
+        <v>2509859</v>
       </c>
       <c r="I26" s="12" t="n">
-        <v>2509859</v>
+        <v>2337374</v>
       </c>
       <c r="J26" s="12" t="n">
-        <v>2337374</v>
+        <v>1234798</v>
       </c>
       <c r="K26" s="12" t="n">
-        <v>1234798</v>
+        <v>1601741</v>
       </c>
       <c r="L26" s="12" t="n">
-        <v>1601741</v>
+        <v>2163760</v>
       </c>
       <c r="M26" s="12" t="n">
-        <v>2163760</v>
+        <v>1972067</v>
       </c>
       <c r="N26" s="12" t="n">
-        <v>1972067</v>
+        <v>2438596</v>
       </c>
       <c r="O26" s="12" t="n">
-        <v>2438596</v>
+        <v>2520999</v>
       </c>
       <c r="P26" s="12" t="n">
-        <v>2520999</v>
+        <v>2507662</v>
       </c>
       <c r="Q26" s="12" t="n">
-        <v>2507662</v>
+        <v>2269406</v>
       </c>
       <c r="R26" s="12" t="n">
-        <v>2269406</v>
+        <v>988670</v>
       </c>
       <c r="S26" s="12" t="n">
-        <v>988670</v>
+        <v>2684946</v>
       </c>
       <c r="T26" s="12" t="n">
-        <v>2684946</v>
+        <v>3162169</v>
       </c>
       <c r="U26" s="12" t="n">
-        <v>3162169</v>
+        <v>2581762</v>
       </c>
       <c r="V26" s="12" t="n">
-        <v>2581762</v>
+        <v>1580913</v>
       </c>
       <c r="W26" s="12" t="n">
-        <v>1580913</v>
+        <v>2664249</v>
       </c>
       <c r="X26" s="12" t="n">
-        <v>2664249</v>
+        <v>2543703</v>
       </c>
       <c r="Y26" s="12" t="n">
-        <v>2543703</v>
+        <v>2461361</v>
       </c>
       <c r="Z26" s="12" t="n">
-        <v>2461361</v>
+        <v>1776079</v>
       </c>
       <c r="AA26" s="12" t="n">
-        <v>1776079</v>
+        <v>2117786</v>
       </c>
       <c r="AB26" s="12" t="n">
-        <v>2117786</v>
+        <v>2440395</v>
       </c>
       <c r="AC26" s="12" t="n">
-        <v>2440395</v>
+        <v>2156300</v>
       </c>
       <c r="AD26" s="12" t="n">
-        <v>2156300</v>
+        <v>1371262</v>
       </c>
       <c r="AE26" s="12" t="n">
-        <v>1371262</v>
+        <v>2883052</v>
       </c>
       <c r="AF26" s="12" t="n">
-        <v>2883052</v>
+        <v>3595563</v>
       </c>
       <c r="AG26" s="12" t="n">
-        <v>3595563</v>
+        <v>2296443</v>
       </c>
       <c r="AH26" s="12" t="n">
-        <v>2296443</v>
+        <v>2828429</v>
       </c>
       <c r="AI26" s="12" t="n">
-        <v>2828429</v>
+        <v>3562063</v>
       </c>
       <c r="AJ26" s="12" t="n">
-        <v>3562063</v>
+        <v>2489079</v>
       </c>
       <c r="AK26" s="12" t="n">
-        <v>2489079</v>
+        <v>2548569</v>
       </c>
       <c r="AL26" s="12" t="n">
-        <v>2548569</v>
+        <v>1665944</v>
       </c>
       <c r="AM26" s="12" t="n">
-        <v>1665944</v>
+        <v>2017416</v>
       </c>
       <c r="AN26" s="12" t="n">
-        <v>2017416</v>
+        <v>1662413</v>
       </c>
       <c r="AO26" s="12" t="n">
-        <v>1662413</v>
+        <v>2601693</v>
       </c>
       <c r="AP26" s="12" t="n">
-        <v>2601693</v>
+        <v>1111511</v>
       </c>
       <c r="AQ26" s="12" t="n">
-        <v>1111511</v>
+        <v>4183959</v>
       </c>
       <c r="AR26" s="12" t="n">
-        <v>4183959</v>
+        <v>2604751</v>
       </c>
       <c r="AS26" s="12" t="n">
-        <v>2604751</v>
+        <v>3077439</v>
       </c>
       <c r="AT26" s="12" t="n">
-        <v>3077439</v>
+        <v>2320167</v>
       </c>
       <c r="AU26" s="12" t="n">
-        <v>2320167</v>
+        <v>2650998</v>
       </c>
       <c r="AV26" s="12" t="n">
-        <v>2650998</v>
+        <v>2228545</v>
       </c>
       <c r="AW26" s="12" t="n">
-        <v>2228545</v>
+        <v>2875781</v>
       </c>
       <c r="AX26" s="12" t="n">
-        <v>2875781</v>
+        <v>1915686</v>
       </c>
       <c r="AY26" s="12" t="n">
-        <v>1915686</v>
+        <v>2222313</v>
       </c>
       <c r="AZ26" s="12" t="n">
-        <v>2222313</v>
+        <v>2076019</v>
       </c>
       <c r="BA26" s="12" t="n">
-        <v>2076019</v>
+        <v>2430311</v>
       </c>
       <c r="BB26" s="12" t="n">
-        <v>2430311</v>
+        <v>1970166</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,154 +5127,154 @@
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="n">
-        <v>3408649</v>
+        <v>4085789</v>
       </c>
       <c r="F27" s="14" t="n">
-        <v>4085789</v>
+        <v>2025004</v>
       </c>
       <c r="G27" s="14" t="n">
-        <v>2025004</v>
+        <v>4126780</v>
       </c>
       <c r="H27" s="14" t="n">
-        <v>4126780</v>
+        <v>3928308</v>
       </c>
       <c r="I27" s="14" t="n">
-        <v>3928308</v>
+        <v>4034226</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>4034226</v>
+        <v>3187709</v>
       </c>
       <c r="K27" s="14" t="n">
-        <v>3187709</v>
+        <v>3780946</v>
       </c>
       <c r="L27" s="14" t="n">
-        <v>3780946</v>
+        <v>4083070</v>
       </c>
       <c r="M27" s="14" t="n">
-        <v>4083070</v>
+        <v>4228969</v>
       </c>
       <c r="N27" s="14" t="n">
-        <v>4228969</v>
+        <v>4667026</v>
       </c>
       <c r="O27" s="14" t="n">
-        <v>4667026</v>
+        <v>4566513</v>
       </c>
       <c r="P27" s="14" t="n">
-        <v>4566513</v>
+        <v>4581305</v>
       </c>
       <c r="Q27" s="14" t="n">
-        <v>4581305</v>
+        <v>4210196</v>
       </c>
       <c r="R27" s="14" t="n">
-        <v>4210196</v>
+        <v>2091398</v>
       </c>
       <c r="S27" s="14" t="n">
-        <v>2091398</v>
+        <v>5284121</v>
       </c>
       <c r="T27" s="14" t="n">
-        <v>5284121</v>
+        <v>5306313</v>
       </c>
       <c r="U27" s="14" t="n">
-        <v>5306313</v>
+        <v>4736869</v>
       </c>
       <c r="V27" s="14" t="n">
-        <v>4736869</v>
+        <v>3536365</v>
       </c>
       <c r="W27" s="14" t="n">
-        <v>3536365</v>
+        <v>5281256</v>
       </c>
       <c r="X27" s="14" t="n">
-        <v>5281256</v>
+        <v>4843745</v>
       </c>
       <c r="Y27" s="14" t="n">
-        <v>4843745</v>
+        <v>4515487</v>
       </c>
       <c r="Z27" s="14" t="n">
-        <v>4515487</v>
+        <v>3802653</v>
       </c>
       <c r="AA27" s="14" t="n">
-        <v>3802653</v>
+        <v>4813840</v>
       </c>
       <c r="AB27" s="14" t="n">
-        <v>4813840</v>
+        <v>4477138</v>
       </c>
       <c r="AC27" s="14" t="n">
-        <v>4477138</v>
+        <v>4450246</v>
       </c>
       <c r="AD27" s="14" t="n">
-        <v>4450246</v>
+        <v>2767829</v>
       </c>
       <c r="AE27" s="14" t="n">
-        <v>2767829</v>
+        <v>4804993</v>
       </c>
       <c r="AF27" s="14" t="n">
-        <v>4804993</v>
+        <v>4978792</v>
       </c>
       <c r="AG27" s="14" t="n">
-        <v>4978792</v>
+        <v>5632641</v>
       </c>
       <c r="AH27" s="14" t="n">
-        <v>5632641</v>
+        <v>3590625</v>
       </c>
       <c r="AI27" s="14" t="n">
-        <v>3590625</v>
+        <v>5022958</v>
       </c>
       <c r="AJ27" s="14" t="n">
-        <v>5022958</v>
+        <v>4364005</v>
       </c>
       <c r="AK27" s="14" t="n">
-        <v>4364005</v>
+        <v>4755076</v>
       </c>
       <c r="AL27" s="14" t="n">
-        <v>4755076</v>
+        <v>5774215</v>
       </c>
       <c r="AM27" s="14" t="n">
-        <v>5774215</v>
+        <v>4311551</v>
       </c>
       <c r="AN27" s="14" t="n">
-        <v>4311551</v>
+        <v>5209264</v>
       </c>
       <c r="AO27" s="14" t="n">
-        <v>5209264</v>
+        <v>4201316</v>
       </c>
       <c r="AP27" s="14" t="n">
-        <v>4201316</v>
+        <v>2729923</v>
       </c>
       <c r="AQ27" s="14" t="n">
-        <v>2729923</v>
+        <v>4860901</v>
       </c>
       <c r="AR27" s="14" t="n">
-        <v>4860901</v>
+        <v>5522645</v>
       </c>
       <c r="AS27" s="14" t="n">
-        <v>5522645</v>
+        <v>5418613</v>
       </c>
       <c r="AT27" s="14" t="n">
-        <v>5418613</v>
+        <v>4667038</v>
       </c>
       <c r="AU27" s="14" t="n">
-        <v>4667038</v>
+        <v>5369924</v>
       </c>
       <c r="AV27" s="14" t="n">
-        <v>5369924</v>
+        <v>3837130</v>
       </c>
       <c r="AW27" s="14" t="n">
-        <v>3837130</v>
+        <v>4988744</v>
       </c>
       <c r="AX27" s="14" t="n">
-        <v>4988744</v>
+        <v>5408437</v>
       </c>
       <c r="AY27" s="14" t="n">
-        <v>5408437</v>
+        <v>4623059</v>
       </c>
       <c r="AZ27" s="14" t="n">
-        <v>4623059</v>
+        <v>5470371</v>
       </c>
       <c r="BA27" s="14" t="n">
-        <v>5470371</v>
+        <v>5117565</v>
       </c>
       <c r="BB27" s="14" t="n">
-        <v>5117565</v>
+        <v>2916992</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,8 +5388,8 @@
       <c r="T29" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U29" s="18" t="s">
-        <v>62</v>
+      <c r="U29" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V29" s="18" t="n">
         <v>0</v>
@@ -5602,8 +5602,8 @@
       <c r="T31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U31" s="18" t="s">
-        <v>62</v>
+      <c r="U31" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="18" t="n">
         <v>0</v>
@@ -5712,154 +5712,154 @@
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20" t="n">
-        <v>6726239</v>
+        <v>6853353</v>
       </c>
       <c r="F32" s="20" t="n">
-        <v>6853353</v>
+        <v>3135087</v>
       </c>
       <c r="G32" s="20" t="n">
-        <v>3135087</v>
+        <v>6635727</v>
       </c>
       <c r="H32" s="20" t="n">
-        <v>6635727</v>
+        <v>6781562</v>
       </c>
       <c r="I32" s="20" t="n">
-        <v>6781562</v>
+        <v>6585856</v>
       </c>
       <c r="J32" s="20" t="n">
-        <v>6585856</v>
+        <v>4765622</v>
       </c>
       <c r="K32" s="20" t="n">
-        <v>4765622</v>
+        <v>5706227</v>
       </c>
       <c r="L32" s="20" t="n">
-        <v>5706227</v>
+        <v>6540026</v>
       </c>
       <c r="M32" s="20" t="n">
-        <v>6540026</v>
+        <v>6494865</v>
       </c>
       <c r="N32" s="20" t="n">
-        <v>6494865</v>
+        <v>7420361</v>
       </c>
       <c r="O32" s="20" t="n">
-        <v>7420361</v>
+        <v>7474077</v>
       </c>
       <c r="P32" s="20" t="n">
-        <v>7474077</v>
+        <v>7430234</v>
       </c>
       <c r="Q32" s="20" t="n">
-        <v>7430234</v>
+        <v>6797394</v>
       </c>
       <c r="R32" s="20" t="n">
-        <v>6797394</v>
+        <v>3271377</v>
       </c>
       <c r="S32" s="20" t="n">
-        <v>3271377</v>
+        <v>8414963</v>
       </c>
       <c r="T32" s="20" t="n">
-        <v>8414963</v>
+        <v>8887268</v>
       </c>
       <c r="U32" s="20" t="n">
-        <v>8887268</v>
+        <v>7724593</v>
       </c>
       <c r="V32" s="20" t="n">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="W32" s="20" t="n">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="X32" s="20" t="n">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="Y32" s="20" t="n">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="Z32" s="20" t="n">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AA32" s="20" t="n">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AB32" s="20" t="n">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AC32" s="20" t="n">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AD32" s="20" t="n">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AE32" s="20" t="n">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AF32" s="20" t="n">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AG32" s="20" t="n">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AH32" s="20" t="n">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AI32" s="20" t="n">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AJ32" s="20" t="n">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AK32" s="20" t="n">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AL32" s="20" t="n">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AM32" s="20" t="n">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AN32" s="20" t="n">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AO32" s="20" t="n">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AP32" s="20" t="n">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AQ32" s="20" t="n">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AR32" s="20" t="n">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AS32" s="20" t="n">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AT32" s="20" t="n">
-        <v>8893054</v>
+        <v>7272429</v>
       </c>
       <c r="AU32" s="20" t="n">
-        <v>7272429</v>
+        <v>8417918</v>
       </c>
       <c r="AV32" s="20" t="n">
-        <v>8417918</v>
+        <v>6461896</v>
       </c>
       <c r="AW32" s="20" t="n">
-        <v>6461896</v>
+        <v>8260541</v>
       </c>
       <c r="AX32" s="20" t="n">
-        <v>8260541</v>
+        <v>7581658</v>
       </c>
       <c r="AY32" s="20" t="n">
-        <v>7581658</v>
+        <v>7251706</v>
       </c>
       <c r="AZ32" s="20" t="n">
-        <v>7251706</v>
+        <v>7787314</v>
       </c>
       <c r="BA32" s="20" t="n">
-        <v>7787314</v>
+        <v>7785072</v>
       </c>
       <c r="BB32" s="20" t="n">
-        <v>7785072</v>
+        <v>5083675</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,154 +6305,154 @@
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12" t="n">
-        <v>16962</v>
+        <v>10235</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>10235</v>
+        <v>3394</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>3394</v>
+        <v>8044</v>
       </c>
       <c r="H39" s="12" t="n">
-        <v>8044</v>
+        <v>24095</v>
       </c>
       <c r="I39" s="12" t="n">
-        <v>24095</v>
+        <v>23951</v>
       </c>
       <c r="J39" s="12" t="n">
-        <v>23951</v>
+        <v>32422</v>
       </c>
       <c r="K39" s="12" t="n">
-        <v>32422</v>
+        <v>23724</v>
       </c>
       <c r="L39" s="12" t="n">
-        <v>23724</v>
+        <v>21429</v>
       </c>
       <c r="M39" s="12" t="n">
-        <v>21429</v>
+        <v>21725</v>
       </c>
       <c r="N39" s="12" t="n">
-        <v>21725</v>
+        <v>25289</v>
       </c>
       <c r="O39" s="12" t="n">
-        <v>25289</v>
+        <v>27420</v>
       </c>
       <c r="P39" s="12" t="n">
-        <v>27420</v>
+        <v>22890</v>
       </c>
       <c r="Q39" s="12" t="n">
-        <v>22890</v>
+        <v>27393</v>
       </c>
       <c r="R39" s="12" t="n">
-        <v>27393</v>
+        <v>15617</v>
       </c>
       <c r="S39" s="12" t="n">
-        <v>15617</v>
+        <v>37838</v>
       </c>
       <c r="T39" s="12" t="n">
-        <v>37838</v>
+        <v>32300</v>
       </c>
       <c r="U39" s="12" t="n">
-        <v>32300</v>
+        <v>48989</v>
       </c>
       <c r="V39" s="12" t="n">
-        <v>48989</v>
+        <v>39792</v>
       </c>
       <c r="W39" s="12" t="n">
-        <v>39792</v>
+        <v>48283</v>
       </c>
       <c r="X39" s="12" t="n">
-        <v>48283</v>
+        <v>42098</v>
       </c>
       <c r="Y39" s="12" t="n">
-        <v>42098</v>
+        <v>32645</v>
       </c>
       <c r="Z39" s="12" t="n">
-        <v>32645</v>
+        <v>32796</v>
       </c>
       <c r="AA39" s="12" t="n">
-        <v>32796</v>
+        <v>41797</v>
       </c>
       <c r="AB39" s="12" t="n">
-        <v>41797</v>
+        <v>45881</v>
       </c>
       <c r="AC39" s="12" t="n">
-        <v>45881</v>
+        <v>26872</v>
       </c>
       <c r="AD39" s="12" t="n">
-        <v>26872</v>
+        <v>13580</v>
       </c>
       <c r="AE39" s="12" t="n">
-        <v>13580</v>
+        <v>52189</v>
       </c>
       <c r="AF39" s="12" t="n">
-        <v>52189</v>
+        <v>36484</v>
       </c>
       <c r="AG39" s="12" t="n">
-        <v>36484</v>
+        <v>33489</v>
       </c>
       <c r="AH39" s="12" t="n">
-        <v>33489</v>
+        <v>31362</v>
       </c>
       <c r="AI39" s="12" t="n">
-        <v>31362</v>
+        <v>58120</v>
       </c>
       <c r="AJ39" s="12" t="n">
-        <v>58120</v>
+        <v>50176</v>
       </c>
       <c r="AK39" s="12" t="n">
-        <v>50176</v>
+        <v>41973</v>
       </c>
       <c r="AL39" s="12" t="n">
-        <v>41973</v>
+        <v>40011</v>
       </c>
       <c r="AM39" s="12" t="n">
-        <v>40011</v>
+        <v>55342</v>
       </c>
       <c r="AN39" s="12" t="n">
-        <v>55342</v>
+        <v>10241</v>
       </c>
       <c r="AO39" s="12" t="n">
-        <v>10241</v>
+        <v>43552</v>
       </c>
       <c r="AP39" s="12" t="n">
-        <v>43552</v>
+        <v>30027</v>
       </c>
       <c r="AQ39" s="12" t="n">
-        <v>30027</v>
+        <v>50115</v>
       </c>
       <c r="AR39" s="12" t="n">
-        <v>50115</v>
+        <v>37664</v>
       </c>
       <c r="AS39" s="12" t="n">
-        <v>37664</v>
+        <v>56301</v>
       </c>
       <c r="AT39" s="12" t="n">
-        <v>56301</v>
+        <v>47272</v>
       </c>
       <c r="AU39" s="12" t="n">
-        <v>47272</v>
+        <v>56827</v>
       </c>
       <c r="AV39" s="12" t="n">
-        <v>56827</v>
+        <v>68225</v>
       </c>
       <c r="AW39" s="12" t="n">
-        <v>68225</v>
+        <v>72064</v>
       </c>
       <c r="AX39" s="12" t="n">
-        <v>72064</v>
+        <v>71750</v>
       </c>
       <c r="AY39" s="12" t="n">
-        <v>71750</v>
+        <v>84003</v>
       </c>
       <c r="AZ39" s="12" t="n">
-        <v>84003</v>
+        <v>45790</v>
       </c>
       <c r="BA39" s="12" t="n">
-        <v>45790</v>
+        <v>71331</v>
       </c>
       <c r="BB39" s="12" t="n">
-        <v>71331</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6464,154 +6464,154 @@
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="n">
-        <v>55488</v>
+        <v>43289</v>
       </c>
       <c r="F40" s="14" t="n">
-        <v>43289</v>
+        <v>15281</v>
       </c>
       <c r="G40" s="14" t="n">
-        <v>15281</v>
+        <v>27759</v>
       </c>
       <c r="H40" s="14" t="n">
-        <v>27759</v>
+        <v>39217</v>
       </c>
       <c r="I40" s="14" t="n">
-        <v>39217</v>
+        <v>20606</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>20606</v>
+        <v>47540</v>
       </c>
       <c r="K40" s="14" t="n">
-        <v>47540</v>
+        <v>54185</v>
       </c>
       <c r="L40" s="14" t="n">
-        <v>54185</v>
+        <v>50705</v>
       </c>
       <c r="M40" s="14" t="n">
-        <v>50705</v>
+        <v>56607</v>
       </c>
       <c r="N40" s="14" t="n">
-        <v>56607</v>
+        <v>58909</v>
       </c>
       <c r="O40" s="14" t="n">
-        <v>58909</v>
+        <v>77815</v>
       </c>
       <c r="P40" s="14" t="n">
-        <v>77815</v>
+        <v>70999</v>
       </c>
       <c r="Q40" s="14" t="n">
-        <v>70999</v>
+        <v>58169</v>
       </c>
       <c r="R40" s="14" t="n">
-        <v>58169</v>
+        <v>34810</v>
       </c>
       <c r="S40" s="14" t="n">
-        <v>34810</v>
+        <v>79868</v>
       </c>
       <c r="T40" s="14" t="n">
-        <v>79868</v>
+        <v>81496</v>
       </c>
       <c r="U40" s="14" t="n">
-        <v>81496</v>
+        <v>123933</v>
       </c>
       <c r="V40" s="14" t="n">
-        <v>123933</v>
+        <v>143947</v>
       </c>
       <c r="W40" s="14" t="n">
-        <v>143947</v>
+        <v>218355</v>
       </c>
       <c r="X40" s="14" t="n">
-        <v>218355</v>
+        <v>183944</v>
       </c>
       <c r="Y40" s="14" t="n">
-        <v>183944</v>
+        <v>146812</v>
       </c>
       <c r="Z40" s="14" t="n">
-        <v>146812</v>
+        <v>128691</v>
       </c>
       <c r="AA40" s="14" t="n">
-        <v>128691</v>
+        <v>160343</v>
       </c>
       <c r="AB40" s="14" t="n">
-        <v>160343</v>
+        <v>122939</v>
       </c>
       <c r="AC40" s="14" t="n">
-        <v>122939</v>
+        <v>138367</v>
       </c>
       <c r="AD40" s="14" t="n">
-        <v>138367</v>
+        <v>73709</v>
       </c>
       <c r="AE40" s="14" t="n">
-        <v>73709</v>
+        <v>251030</v>
       </c>
       <c r="AF40" s="14" t="n">
-        <v>251030</v>
+        <v>168392</v>
       </c>
       <c r="AG40" s="14" t="n">
-        <v>168392</v>
+        <v>157165</v>
       </c>
       <c r="AH40" s="14" t="n">
-        <v>157165</v>
+        <v>95238</v>
       </c>
       <c r="AI40" s="14" t="n">
-        <v>95238</v>
+        <v>187439</v>
       </c>
       <c r="AJ40" s="14" t="n">
-        <v>187439</v>
+        <v>148135</v>
       </c>
       <c r="AK40" s="14" t="n">
-        <v>148135</v>
+        <v>113068</v>
       </c>
       <c r="AL40" s="14" t="n">
-        <v>113068</v>
+        <v>108936</v>
       </c>
       <c r="AM40" s="14" t="n">
-        <v>108936</v>
+        <v>143156</v>
       </c>
       <c r="AN40" s="14" t="n">
-        <v>143156</v>
+        <v>96506</v>
       </c>
       <c r="AO40" s="14" t="n">
-        <v>96506</v>
+        <v>204093</v>
       </c>
       <c r="AP40" s="14" t="n">
-        <v>204093</v>
+        <v>106605</v>
       </c>
       <c r="AQ40" s="14" t="n">
-        <v>106605</v>
+        <v>145313</v>
       </c>
       <c r="AR40" s="14" t="n">
-        <v>145313</v>
+        <v>209357</v>
       </c>
       <c r="AS40" s="14" t="n">
-        <v>209357</v>
+        <v>201846</v>
       </c>
       <c r="AT40" s="14" t="n">
-        <v>201846</v>
+        <v>158735</v>
       </c>
       <c r="AU40" s="14" t="n">
-        <v>158735</v>
+        <v>247136</v>
       </c>
       <c r="AV40" s="14" t="n">
-        <v>247136</v>
+        <v>291847</v>
       </c>
       <c r="AW40" s="14" t="n">
-        <v>291847</v>
+        <v>309923</v>
       </c>
       <c r="AX40" s="14" t="n">
-        <v>309923</v>
+        <v>146941</v>
       </c>
       <c r="AY40" s="14" t="n">
-        <v>146941</v>
+        <v>275175</v>
       </c>
       <c r="AZ40" s="14" t="n">
-        <v>275175</v>
+        <v>173278</v>
       </c>
       <c r="BA40" s="14" t="n">
-        <v>173278</v>
+        <v>125128</v>
       </c>
       <c r="BB40" s="14" t="n">
-        <v>125128</v>
+        <v>139890</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,154 +6623,154 @@
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12" t="n">
-        <v>533608</v>
+        <v>448969</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>448969</v>
+        <v>187457</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>187457</v>
+        <v>425131</v>
       </c>
       <c r="H41" s="12" t="n">
-        <v>425131</v>
+        <v>462139</v>
       </c>
       <c r="I41" s="12" t="n">
-        <v>462139</v>
+        <v>485420</v>
       </c>
       <c r="J41" s="12" t="n">
-        <v>485420</v>
+        <v>310686</v>
       </c>
       <c r="K41" s="12" t="n">
-        <v>310686</v>
+        <v>341393</v>
       </c>
       <c r="L41" s="12" t="n">
-        <v>341393</v>
+        <v>477290</v>
       </c>
       <c r="M41" s="12" t="n">
-        <v>477290</v>
+        <v>437358</v>
       </c>
       <c r="N41" s="12" t="n">
-        <v>437358</v>
+        <v>546458</v>
       </c>
       <c r="O41" s="12" t="n">
-        <v>546458</v>
+        <v>575536</v>
       </c>
       <c r="P41" s="12" t="n">
-        <v>575536</v>
+        <v>589127</v>
       </c>
       <c r="Q41" s="12" t="n">
-        <v>589127</v>
+        <v>547730</v>
       </c>
       <c r="R41" s="12" t="n">
-        <v>547730</v>
+        <v>243492</v>
       </c>
       <c r="S41" s="12" t="n">
-        <v>243492</v>
+        <v>652739</v>
       </c>
       <c r="T41" s="12" t="n">
-        <v>652739</v>
+        <v>740952</v>
       </c>
       <c r="U41" s="12" t="n">
-        <v>740952</v>
+        <v>849123</v>
       </c>
       <c r="V41" s="12" t="n">
-        <v>849123</v>
+        <v>595911</v>
       </c>
       <c r="W41" s="12" t="n">
-        <v>595911</v>
+        <v>1108313</v>
       </c>
       <c r="X41" s="12" t="n">
-        <v>1108313</v>
+        <v>1031586</v>
       </c>
       <c r="Y41" s="12" t="n">
-        <v>1031586</v>
+        <v>1005646</v>
       </c>
       <c r="Z41" s="12" t="n">
-        <v>1005646</v>
+        <v>746742</v>
       </c>
       <c r="AA41" s="12" t="n">
-        <v>746742</v>
+        <v>1069436</v>
       </c>
       <c r="AB41" s="12" t="n">
-        <v>1069436</v>
+        <v>1281241</v>
       </c>
       <c r="AC41" s="12" t="n">
-        <v>1281241</v>
+        <v>1387108</v>
       </c>
       <c r="AD41" s="12" t="n">
-        <v>1387108</v>
+        <v>743677</v>
       </c>
       <c r="AE41" s="12" t="n">
-        <v>743677</v>
+        <v>1588025</v>
       </c>
       <c r="AF41" s="12" t="n">
+        <v>1975465</v>
+      </c>
+      <c r="AG41" s="12" t="n">
+        <v>1264333</v>
+      </c>
+      <c r="AH41" s="12" t="n">
+        <v>1549929</v>
+      </c>
+      <c r="AI41" s="12" t="n">
+        <v>1953240</v>
+      </c>
+      <c r="AJ41" s="12" t="n">
+        <v>1343690</v>
+      </c>
+      <c r="AK41" s="12" t="n">
+        <v>1385257</v>
+      </c>
+      <c r="AL41" s="12" t="n">
+        <v>1040898</v>
+      </c>
+      <c r="AM41" s="12" t="n">
+        <v>1243622</v>
+      </c>
+      <c r="AN41" s="12" t="n">
+        <v>993773</v>
+      </c>
+      <c r="AO41" s="12" t="n">
+        <v>1686317</v>
+      </c>
+      <c r="AP41" s="12" t="n">
+        <v>664396</v>
+      </c>
+      <c r="AQ41" s="12" t="n">
+        <v>2596866</v>
+      </c>
+      <c r="AR41" s="12" t="n">
+        <v>1782819</v>
+      </c>
+      <c r="AS41" s="12" t="n">
+        <v>2220167</v>
+      </c>
+      <c r="AT41" s="12" t="n">
+        <v>1690006</v>
+      </c>
+      <c r="AU41" s="12" t="n">
+        <v>2000867</v>
+      </c>
+      <c r="AV41" s="12" t="n">
+        <v>1764576</v>
+      </c>
+      <c r="AW41" s="12" t="n">
+        <v>2348278</v>
+      </c>
+      <c r="AX41" s="12" t="n">
         <v>1588025</v>
       </c>
-      <c r="AG41" s="12" t="n">
-        <v>1975465</v>
-      </c>
-      <c r="AH41" s="12" t="n">
-        <v>1264333</v>
-      </c>
-      <c r="AI41" s="12" t="n">
-        <v>1549929</v>
-      </c>
-      <c r="AJ41" s="12" t="n">
-        <v>1953240</v>
-      </c>
-      <c r="AK41" s="12" t="n">
-        <v>1343690</v>
-      </c>
-      <c r="AL41" s="12" t="n">
-        <v>1385257</v>
-      </c>
-      <c r="AM41" s="12" t="n">
-        <v>1040898</v>
-      </c>
-      <c r="AN41" s="12" t="n">
-        <v>1243622</v>
-      </c>
-      <c r="AO41" s="12" t="n">
-        <v>993773</v>
-      </c>
-      <c r="AP41" s="12" t="n">
-        <v>1686317</v>
-      </c>
-      <c r="AQ41" s="12" t="n">
-        <v>664396</v>
-      </c>
-      <c r="AR41" s="12" t="n">
-        <v>2596866</v>
-      </c>
-      <c r="AS41" s="12" t="n">
-        <v>1782819</v>
-      </c>
-      <c r="AT41" s="12" t="n">
-        <v>2220167</v>
-      </c>
-      <c r="AU41" s="12" t="n">
-        <v>1690006</v>
-      </c>
-      <c r="AV41" s="12" t="n">
-        <v>2000867</v>
-      </c>
-      <c r="AW41" s="12" t="n">
-        <v>1764576</v>
-      </c>
-      <c r="AX41" s="12" t="n">
-        <v>2348278</v>
-      </c>
       <c r="AY41" s="12" t="n">
-        <v>1588025</v>
+        <v>1824448</v>
       </c>
       <c r="AZ41" s="12" t="n">
-        <v>1824448</v>
+        <v>1711445</v>
       </c>
       <c r="BA41" s="12" t="n">
-        <v>1711445</v>
+        <v>2301204</v>
       </c>
       <c r="BB41" s="12" t="n">
-        <v>2301204</v>
+        <v>1798718</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,154 +6782,154 @@
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="n">
-        <v>635261</v>
+        <v>789265</v>
       </c>
       <c r="F42" s="14" t="n">
-        <v>789265</v>
+        <v>376792</v>
       </c>
       <c r="G42" s="14" t="n">
-        <v>376792</v>
+        <v>764712</v>
       </c>
       <c r="H42" s="14" t="n">
-        <v>764712</v>
+        <v>723791</v>
       </c>
       <c r="I42" s="14" t="n">
-        <v>723791</v>
+        <v>954083</v>
       </c>
       <c r="J42" s="14" t="n">
-        <v>954083</v>
+        <v>792838</v>
       </c>
       <c r="K42" s="14" t="n">
-        <v>792838</v>
+        <v>898914</v>
       </c>
       <c r="L42" s="14" t="n">
-        <v>898914</v>
+        <v>965541</v>
       </c>
       <c r="M42" s="14" t="n">
-        <v>965541</v>
+        <v>988974</v>
       </c>
       <c r="N42" s="14" t="n">
-        <v>988974</v>
+        <v>1089891</v>
       </c>
       <c r="O42" s="14" t="n">
-        <v>1089891</v>
+        <v>1078612</v>
       </c>
       <c r="P42" s="14" t="n">
-        <v>1078612</v>
+        <v>1089565</v>
       </c>
       <c r="Q42" s="14" t="n">
-        <v>1089565</v>
+        <v>993642</v>
       </c>
       <c r="R42" s="14" t="n">
-        <v>993642</v>
+        <v>495488</v>
       </c>
       <c r="S42" s="14" t="n">
-        <v>495488</v>
+        <v>1255737</v>
       </c>
       <c r="T42" s="14" t="n">
-        <v>1255737</v>
+        <v>1248478</v>
       </c>
       <c r="U42" s="14" t="n">
-        <v>1248478</v>
+        <v>1378861</v>
       </c>
       <c r="V42" s="14" t="n">
-        <v>1378861</v>
+        <v>1226566</v>
       </c>
       <c r="W42" s="14" t="n">
-        <v>1226566</v>
+        <v>2174719</v>
       </c>
       <c r="X42" s="14" t="n">
-        <v>2174719</v>
+        <v>1858515</v>
       </c>
       <c r="Y42" s="14" t="n">
-        <v>1858515</v>
+        <v>1800961</v>
       </c>
       <c r="Z42" s="14" t="n">
-        <v>1800961</v>
+        <v>1859323</v>
       </c>
       <c r="AA42" s="14" t="n">
-        <v>1859323</v>
+        <v>2559714</v>
       </c>
       <c r="AB42" s="14" t="n">
-        <v>2559714</v>
+        <v>2583842</v>
       </c>
       <c r="AC42" s="14" t="n">
-        <v>2583842</v>
+        <v>2482218</v>
       </c>
       <c r="AD42" s="14" t="n">
-        <v>2482218</v>
+        <v>1489683</v>
       </c>
       <c r="AE42" s="14" t="n">
-        <v>1489683</v>
+        <v>2537265</v>
       </c>
       <c r="AF42" s="14" t="n">
-        <v>2537265</v>
+        <v>2608152</v>
       </c>
       <c r="AG42" s="14" t="n">
-        <v>2608152</v>
+        <v>3056985</v>
       </c>
       <c r="AH42" s="14" t="n">
-        <v>3056985</v>
+        <v>1925926</v>
       </c>
       <c r="AI42" s="14" t="n">
-        <v>1925926</v>
+        <v>2743058</v>
       </c>
       <c r="AJ42" s="14" t="n">
-        <v>2743058</v>
+        <v>2346792</v>
       </c>
       <c r="AK42" s="14" t="n">
-        <v>2346792</v>
+        <v>2598725</v>
       </c>
       <c r="AL42" s="14" t="n">
-        <v>2598725</v>
+        <v>3331106</v>
       </c>
       <c r="AM42" s="14" t="n">
-        <v>3331106</v>
+        <v>2562188</v>
       </c>
       <c r="AN42" s="14" t="n">
-        <v>2562188</v>
+        <v>3031193</v>
       </c>
       <c r="AO42" s="14" t="n">
-        <v>3031193</v>
+        <v>2552731</v>
       </c>
       <c r="AP42" s="14" t="n">
-        <v>2552731</v>
+        <v>1680153</v>
       </c>
       <c r="AQ42" s="14" t="n">
-        <v>1680153</v>
+        <v>3038928</v>
       </c>
       <c r="AR42" s="14" t="n">
-        <v>3038928</v>
+        <v>3861560</v>
       </c>
       <c r="AS42" s="14" t="n">
-        <v>3861560</v>
+        <v>3948718</v>
       </c>
       <c r="AT42" s="14" t="n">
-        <v>3948718</v>
+        <v>3781110</v>
       </c>
       <c r="AU42" s="14" t="n">
-        <v>3781110</v>
+        <v>3909644</v>
       </c>
       <c r="AV42" s="14" t="n">
-        <v>3909644</v>
+        <v>3038963</v>
       </c>
       <c r="AW42" s="14" t="n">
-        <v>3038963</v>
+        <v>4044982</v>
       </c>
       <c r="AX42" s="14" t="n">
-        <v>4044982</v>
+        <v>4369990</v>
       </c>
       <c r="AY42" s="14" t="n">
-        <v>4369990</v>
+        <v>3789396</v>
       </c>
       <c r="AZ42" s="14" t="n">
-        <v>3789396</v>
+        <v>4631609</v>
       </c>
       <c r="BA42" s="14" t="n">
-        <v>4631609</v>
+        <v>4585351</v>
       </c>
       <c r="BB42" s="14" t="n">
-        <v>4585351</v>
+        <v>2806385</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,8 +7045,8 @@
       <c r="T44" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U44" s="18" t="s">
-        <v>62</v>
+      <c r="U44" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V44" s="21" t="n">
         <v>0</v>
@@ -7261,8 +7261,8 @@
       <c r="T46" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U46" s="18" t="s">
-        <v>62</v>
+      <c r="U46" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V46" s="21" t="n">
         <v>0</v>
@@ -7477,8 +7477,8 @@
       <c r="T48" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="U48" s="22" t="s">
-        <v>62</v>
+      <c r="U48" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V48" s="22" t="n">
         <v>0</v>
@@ -7587,154 +7587,154 @@
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="n">
-        <v>1241319</v>
+        <v>1291758</v>
       </c>
       <c r="F49" s="20" t="n">
-        <v>1291758</v>
+        <v>582924</v>
       </c>
       <c r="G49" s="20" t="n">
-        <v>582924</v>
+        <v>1225646</v>
       </c>
       <c r="H49" s="20" t="n">
-        <v>1225646</v>
+        <v>1249242</v>
       </c>
       <c r="I49" s="20" t="n">
-        <v>1249242</v>
+        <v>1484060</v>
       </c>
       <c r="J49" s="20" t="n">
-        <v>1484060</v>
+        <v>1183486</v>
       </c>
       <c r="K49" s="20" t="n">
-        <v>1183486</v>
+        <v>1318216</v>
       </c>
       <c r="L49" s="20" t="n">
-        <v>1318216</v>
+        <v>1514965</v>
       </c>
       <c r="M49" s="20" t="n">
-        <v>1514965</v>
+        <v>1504664</v>
       </c>
       <c r="N49" s="20" t="n">
-        <v>1504664</v>
+        <v>1720547</v>
       </c>
       <c r="O49" s="20" t="n">
-        <v>1720547</v>
+        <v>1759383</v>
       </c>
       <c r="P49" s="20" t="n">
-        <v>1759383</v>
+        <v>1772581</v>
       </c>
       <c r="Q49" s="20" t="n">
-        <v>1772581</v>
+        <v>1626934</v>
       </c>
       <c r="R49" s="20" t="n">
-        <v>1626934</v>
+        <v>789407</v>
       </c>
       <c r="S49" s="20" t="n">
-        <v>789407</v>
+        <v>2026182</v>
       </c>
       <c r="T49" s="20" t="n">
-        <v>2026182</v>
+        <v>2103226</v>
       </c>
       <c r="U49" s="20" t="n">
-        <v>2103226</v>
+        <v>2400906</v>
       </c>
       <c r="V49" s="20" t="n">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="W49" s="20" t="n">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="X49" s="20" t="n">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="Y49" s="20" t="n">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="Z49" s="20" t="n">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AA49" s="20" t="n">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AB49" s="20" t="n">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AC49" s="20" t="n">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AD49" s="20" t="n">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AE49" s="20" t="n">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AF49" s="20" t="n">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AG49" s="20" t="n">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AH49" s="20" t="n">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AI49" s="20" t="n">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AJ49" s="20" t="n">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AK49" s="20" t="n">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AL49" s="20" t="n">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AM49" s="20" t="n">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AN49" s="20" t="n">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AO49" s="20" t="n">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AP49" s="20" t="n">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AQ49" s="20" t="n">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AR49" s="20" t="n">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AS49" s="20" t="n">
-        <v>5891400</v>
+        <v>6427032</v>
       </c>
       <c r="AT49" s="20" t="n">
-        <v>6427032</v>
+        <v>5677123</v>
       </c>
       <c r="AU49" s="20" t="n">
-        <v>5677123</v>
+        <v>6214474</v>
       </c>
       <c r="AV49" s="20" t="n">
-        <v>6214474</v>
+        <v>5163611</v>
       </c>
       <c r="AW49" s="20" t="n">
-        <v>5163611</v>
+        <v>6775247</v>
       </c>
       <c r="AX49" s="20" t="n">
-        <v>6775247</v>
+        <v>6176706</v>
       </c>
       <c r="AY49" s="20" t="n">
-        <v>6176706</v>
+        <v>5973022</v>
       </c>
       <c r="AZ49" s="20" t="n">
-        <v>5973022</v>
+        <v>6562122</v>
       </c>
       <c r="BA49" s="20" t="n">
-        <v>6562122</v>
+        <v>7083014</v>
       </c>
       <c r="BB49" s="20" t="n">
-        <v>7083014</v>
+        <v>4786964</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,154 +8180,154 @@
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="22" t="n">
-        <v>134487</v>
+        <v>137298</v>
       </c>
       <c r="F56" s="22" t="n">
-        <v>137298</v>
+        <v>174445</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>174445</v>
+        <v>139329</v>
       </c>
       <c r="H56" s="22" t="n">
-        <v>139329</v>
+        <v>132818</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>132818</v>
+        <v>178304</v>
       </c>
       <c r="J56" s="22" t="n">
-        <v>178304</v>
+        <v>175093</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>175093</v>
+        <v>165063</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>165063</v>
+        <v>170816</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>170816</v>
+        <v>200508</v>
       </c>
       <c r="N56" s="22" t="n">
-        <v>200508</v>
+        <v>206277</v>
       </c>
       <c r="O56" s="22" t="n">
-        <v>206277</v>
+        <v>209603</v>
       </c>
       <c r="P56" s="22" t="n">
-        <v>209603</v>
+        <v>212574</v>
       </c>
       <c r="Q56" s="22" t="n">
-        <v>212574</v>
+        <v>211689</v>
       </c>
       <c r="R56" s="22" t="n">
-        <v>211689</v>
+        <v>205125</v>
       </c>
       <c r="S56" s="22" t="n">
-        <v>205125</v>
+        <v>203652</v>
       </c>
       <c r="T56" s="22" t="n">
-        <v>203652</v>
+        <v>209280</v>
       </c>
       <c r="U56" s="22" t="n">
-        <v>209280</v>
+        <v>306705</v>
       </c>
       <c r="V56" s="22" t="n">
-        <v>306705</v>
+        <v>314775</v>
       </c>
       <c r="W56" s="22" t="n">
-        <v>314775</v>
+        <v>315823</v>
       </c>
       <c r="X56" s="22" t="n">
-        <v>315823</v>
+        <v>302687</v>
       </c>
       <c r="Y56" s="22" t="n">
-        <v>302687</v>
+        <v>295995</v>
       </c>
       <c r="Z56" s="22" t="n">
-        <v>295995</v>
+        <v>299294</v>
       </c>
       <c r="AA56" s="22" t="n">
-        <v>299294</v>
+        <v>290509</v>
       </c>
       <c r="AB56" s="22" t="n">
-        <v>290509</v>
+        <v>294279</v>
       </c>
       <c r="AC56" s="22" t="n">
-        <v>294279</v>
+        <v>300777</v>
       </c>
       <c r="AD56" s="22" t="n">
-        <v>300777</v>
+        <v>300582</v>
       </c>
       <c r="AE56" s="22" t="n">
-        <v>300582</v>
+        <v>294170</v>
       </c>
       <c r="AF56" s="22" t="n">
-        <v>294170</v>
+        <v>290450</v>
       </c>
       <c r="AG56" s="22" t="n">
-        <v>290450</v>
+        <v>291762</v>
       </c>
       <c r="AH56" s="22" t="n">
-        <v>291762</v>
+        <v>294797</v>
       </c>
       <c r="AI56" s="22" t="n">
-        <v>294797</v>
+        <v>287252</v>
       </c>
       <c r="AJ56" s="22" t="n">
-        <v>287252</v>
+        <v>289276</v>
       </c>
       <c r="AK56" s="22" t="n">
-        <v>289276</v>
+        <v>295687</v>
       </c>
       <c r="AL56" s="22" t="n">
-        <v>295687</v>
+        <v>291891</v>
       </c>
       <c r="AM56" s="22" t="n">
-        <v>291891</v>
+        <v>289166</v>
       </c>
       <c r="AN56" s="22" t="n">
-        <v>289166</v>
+        <v>386045</v>
       </c>
       <c r="AO56" s="22" t="n">
-        <v>386045</v>
+        <v>350136</v>
       </c>
       <c r="AP56" s="22" t="n">
-        <v>350136</v>
+        <v>350893</v>
       </c>
       <c r="AQ56" s="22" t="n">
-        <v>350893</v>
+        <v>480254</v>
       </c>
       <c r="AR56" s="22" t="n">
-        <v>480254</v>
+        <v>399817</v>
       </c>
       <c r="AS56" s="22" t="n">
-        <v>399817</v>
+        <v>458776</v>
       </c>
       <c r="AT56" s="22" t="n">
-        <v>458776</v>
+        <v>471292</v>
       </c>
       <c r="AU56" s="22" t="n">
-        <v>471292</v>
+        <v>479156</v>
       </c>
       <c r="AV56" s="22" t="n">
-        <v>479156</v>
+        <v>544037</v>
       </c>
       <c r="AW56" s="22" t="n">
-        <v>544037</v>
+        <v>614576</v>
       </c>
       <c r="AX56" s="22" t="n">
-        <v>614576</v>
+        <v>580464</v>
       </c>
       <c r="AY56" s="22" t="n">
-        <v>580464</v>
+        <v>571733</v>
       </c>
       <c r="AZ56" s="22" t="n">
-        <v>571733</v>
+        <v>578909</v>
       </c>
       <c r="BA56" s="22" t="n">
-        <v>578909</v>
+        <v>561043</v>
       </c>
       <c r="BB56" s="22" t="n">
-        <v>561043</v>
+        <v>577095</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8339,154 +8339,154 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14" t="n">
-        <v>249698</v>
+        <v>236449</v>
       </c>
       <c r="F57" s="14" t="n">
-        <v>236449</v>
+        <v>251792</v>
       </c>
       <c r="G57" s="14" t="n">
-        <v>251792</v>
+        <v>254115</v>
       </c>
       <c r="H57" s="14" t="n">
-        <v>254115</v>
+        <v>242107</v>
       </c>
       <c r="I57" s="14" t="n">
-        <v>242107</v>
+        <v>257804</v>
       </c>
       <c r="J57" s="14" t="n">
-        <v>257804</v>
+        <v>300991</v>
       </c>
       <c r="K57" s="14" t="n">
-        <v>300991</v>
+        <v>301341</v>
       </c>
       <c r="L57" s="14" t="n">
-        <v>301341</v>
+        <v>302274</v>
       </c>
       <c r="M57" s="14" t="n">
-        <v>302274</v>
+        <v>305194</v>
       </c>
       <c r="N57" s="14" t="n">
-        <v>305194</v>
+        <v>306591</v>
       </c>
       <c r="O57" s="14" t="n">
-        <v>306591</v>
+        <v>304267</v>
       </c>
       <c r="P57" s="14" t="n">
-        <v>304267</v>
+        <v>303951</v>
       </c>
       <c r="Q57" s="14" t="n">
-        <v>303951</v>
+        <v>308769</v>
       </c>
       <c r="R57" s="14" t="n">
-        <v>308769</v>
+        <v>302236</v>
       </c>
       <c r="S57" s="14" t="n">
-        <v>302236</v>
+        <v>307068</v>
       </c>
       <c r="T57" s="14" t="n">
-        <v>307068</v>
+        <v>308175</v>
       </c>
       <c r="U57" s="14" t="n">
-        <v>308175</v>
+        <v>503312</v>
       </c>
       <c r="V57" s="14" t="n">
-        <v>503312</v>
+        <v>550378</v>
       </c>
       <c r="W57" s="14" t="n">
-        <v>550378</v>
+        <v>578137</v>
       </c>
       <c r="X57" s="14" t="n">
-        <v>578137</v>
+        <v>576716</v>
       </c>
       <c r="Y57" s="14" t="n">
-        <v>576716</v>
+        <v>575645</v>
       </c>
       <c r="Z57" s="14" t="n">
-        <v>575645</v>
+        <v>583188</v>
       </c>
       <c r="AA57" s="14" t="n">
-        <v>583188</v>
+        <v>569608</v>
       </c>
       <c r="AB57" s="14" t="n">
-        <v>569608</v>
+        <v>582180</v>
       </c>
       <c r="AC57" s="14" t="n">
-        <v>582180</v>
+        <v>576844</v>
       </c>
       <c r="AD57" s="14" t="n">
-        <v>576844</v>
+        <v>574559</v>
       </c>
       <c r="AE57" s="14" t="n">
-        <v>574559</v>
+        <v>578913</v>
       </c>
       <c r="AF57" s="14" t="n">
-        <v>578913</v>
+        <v>581402</v>
       </c>
       <c r="AG57" s="14" t="n">
-        <v>581402</v>
+        <v>566914</v>
       </c>
       <c r="AH57" s="14" t="n">
-        <v>566914</v>
+        <v>575112</v>
       </c>
       <c r="AI57" s="14" t="n">
-        <v>575112</v>
+        <v>565548</v>
       </c>
       <c r="AJ57" s="14" t="n">
-        <v>565548</v>
+        <v>577982</v>
       </c>
       <c r="AK57" s="14" t="n">
-        <v>577982</v>
+        <v>581754</v>
       </c>
       <c r="AL57" s="14" t="n">
-        <v>581754</v>
+        <v>567375</v>
       </c>
       <c r="AM57" s="14" t="n">
-        <v>567375</v>
+        <v>581111</v>
       </c>
       <c r="AN57" s="14" t="n">
-        <v>581111</v>
+        <v>740031</v>
       </c>
       <c r="AO57" s="14" t="n">
-        <v>740031</v>
+        <v>739192</v>
       </c>
       <c r="AP57" s="14" t="n">
-        <v>739192</v>
+        <v>740616</v>
       </c>
       <c r="AQ57" s="14" t="n">
-        <v>740616</v>
+        <v>752527</v>
       </c>
       <c r="AR57" s="14" t="n">
-        <v>752527</v>
+        <v>715300</v>
       </c>
       <c r="AS57" s="14" t="n">
-        <v>715300</v>
+        <v>735907</v>
       </c>
       <c r="AT57" s="14" t="n">
-        <v>735907</v>
+        <v>858394</v>
       </c>
       <c r="AU57" s="14" t="n">
-        <v>858394</v>
+        <v>887708</v>
       </c>
       <c r="AV57" s="14" t="n">
-        <v>887708</v>
+        <v>1077658</v>
       </c>
       <c r="AW57" s="14" t="n">
-        <v>1077658</v>
+        <v>1111799</v>
       </c>
       <c r="AX57" s="14" t="n">
-        <v>1111799</v>
+        <v>1097172</v>
       </c>
       <c r="AY57" s="14" t="n">
-        <v>1097172</v>
+        <v>1060785</v>
       </c>
       <c r="AZ57" s="14" t="n">
-        <v>1060785</v>
+        <v>1070761</v>
       </c>
       <c r="BA57" s="14" t="n">
-        <v>1070761</v>
+        <v>1136948</v>
       </c>
       <c r="BB57" s="14" t="n">
-        <v>1136948</v>
+        <v>1130068</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,154 +8498,154 @@
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="n">
-        <v>179712</v>
+        <v>178877</v>
       </c>
       <c r="F58" s="22" t="n">
-        <v>178877</v>
+        <v>182008</v>
       </c>
       <c r="G58" s="22" t="n">
-        <v>182008</v>
+        <v>181527</v>
       </c>
       <c r="H58" s="22" t="n">
-        <v>181527</v>
+        <v>184129</v>
       </c>
       <c r="I58" s="22" t="n">
-        <v>184129</v>
+        <v>207678</v>
       </c>
       <c r="J58" s="22" t="n">
-        <v>207678</v>
+        <v>251609</v>
       </c>
       <c r="K58" s="22" t="n">
-        <v>251609</v>
+        <v>213139</v>
       </c>
       <c r="L58" s="22" t="n">
-        <v>213139</v>
+        <v>220584</v>
       </c>
       <c r="M58" s="22" t="n">
-        <v>220584</v>
+        <v>221776</v>
       </c>
       <c r="N58" s="22" t="n">
-        <v>221776</v>
+        <v>224087</v>
       </c>
       <c r="O58" s="22" t="n">
-        <v>224087</v>
+        <v>228297</v>
       </c>
       <c r="P58" s="22" t="n">
-        <v>228297</v>
+        <v>234931</v>
       </c>
       <c r="Q58" s="22" t="n">
-        <v>234931</v>
+        <v>241354</v>
       </c>
       <c r="R58" s="22" t="n">
-        <v>241354</v>
+        <v>246282</v>
       </c>
       <c r="S58" s="22" t="n">
-        <v>246282</v>
+        <v>243111</v>
       </c>
       <c r="T58" s="22" t="n">
-        <v>243111</v>
+        <v>234318</v>
       </c>
       <c r="U58" s="22" t="n">
-        <v>234318</v>
+        <v>328893</v>
       </c>
       <c r="V58" s="22" t="n">
-        <v>328893</v>
+        <v>376941</v>
       </c>
       <c r="W58" s="22" t="n">
-        <v>376941</v>
+        <v>415995</v>
       </c>
       <c r="X58" s="22" t="n">
-        <v>415995</v>
+        <v>405545</v>
       </c>
       <c r="Y58" s="22" t="n">
-        <v>405545</v>
+        <v>408573</v>
       </c>
       <c r="Z58" s="22" t="n">
-        <v>408573</v>
+        <v>420444</v>
       </c>
       <c r="AA58" s="22" t="n">
-        <v>420444</v>
+        <v>504978</v>
       </c>
       <c r="AB58" s="22" t="n">
-        <v>504978</v>
+        <v>525014</v>
       </c>
       <c r="AC58" s="22" t="n">
-        <v>525014</v>
+        <v>643282</v>
       </c>
       <c r="AD58" s="22" t="n">
-        <v>643282</v>
+        <v>542330</v>
       </c>
       <c r="AE58" s="22" t="n">
-        <v>542330</v>
+        <v>550814</v>
       </c>
       <c r="AF58" s="22" t="n">
-        <v>550814</v>
+        <v>549417</v>
       </c>
       <c r="AG58" s="22" t="n">
-        <v>549417</v>
+        <v>550561</v>
       </c>
       <c r="AH58" s="22" t="n">
-        <v>550561</v>
+        <v>547982</v>
       </c>
       <c r="AI58" s="22" t="n">
-        <v>547982</v>
+        <v>548345</v>
       </c>
       <c r="AJ58" s="22" t="n">
-        <v>548345</v>
+        <v>539834</v>
       </c>
       <c r="AK58" s="22" t="n">
-        <v>539834</v>
+        <v>543543</v>
       </c>
       <c r="AL58" s="22" t="n">
-        <v>543543</v>
+        <v>624810</v>
       </c>
       <c r="AM58" s="22" t="n">
-        <v>624810</v>
+        <v>616443</v>
       </c>
       <c r="AN58" s="22" t="n">
-        <v>616443</v>
+        <v>597789</v>
       </c>
       <c r="AO58" s="22" t="n">
-        <v>597789</v>
+        <v>648161</v>
       </c>
       <c r="AP58" s="22" t="n">
-        <v>648161</v>
+        <v>597741</v>
       </c>
       <c r="AQ58" s="22" t="n">
-        <v>597741</v>
+        <v>620672</v>
       </c>
       <c r="AR58" s="22" t="n">
-        <v>620672</v>
+        <v>684449</v>
       </c>
       <c r="AS58" s="22" t="n">
-        <v>684449</v>
+        <v>721433</v>
       </c>
       <c r="AT58" s="22" t="n">
-        <v>721433</v>
+        <v>728398</v>
       </c>
       <c r="AU58" s="22" t="n">
-        <v>728398</v>
+        <v>754760</v>
       </c>
       <c r="AV58" s="22" t="n">
-        <v>754760</v>
+        <v>791806</v>
       </c>
       <c r="AW58" s="22" t="n">
-        <v>791806</v>
+        <v>816571</v>
       </c>
       <c r="AX58" s="22" t="n">
-        <v>816571</v>
+        <v>828959</v>
       </c>
       <c r="AY58" s="22" t="n">
-        <v>828959</v>
+        <v>820968</v>
       </c>
       <c r="AZ58" s="22" t="n">
-        <v>820968</v>
+        <v>824388</v>
       </c>
       <c r="BA58" s="22" t="n">
-        <v>824388</v>
+        <v>946876</v>
       </c>
       <c r="BB58" s="22" t="n">
-        <v>946876</v>
+        <v>912978</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8657,154 +8657,154 @@
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14" t="n">
-        <v>186367</v>
+        <v>193173</v>
       </c>
       <c r="F59" s="14" t="n">
-        <v>193173</v>
+        <v>186070</v>
       </c>
       <c r="G59" s="14" t="n">
-        <v>186070</v>
+        <v>185305</v>
       </c>
       <c r="H59" s="14" t="n">
-        <v>185305</v>
+        <v>184250</v>
       </c>
       <c r="I59" s="14" t="n">
-        <v>184250</v>
+        <v>236497</v>
       </c>
       <c r="J59" s="14" t="n">
-        <v>236497</v>
+        <v>248717</v>
       </c>
       <c r="K59" s="14" t="n">
-        <v>248717</v>
+        <v>237748</v>
       </c>
       <c r="L59" s="14" t="n">
-        <v>237748</v>
+        <v>236474</v>
       </c>
       <c r="M59" s="14" t="n">
-        <v>236474</v>
+        <v>233857</v>
       </c>
       <c r="N59" s="14" t="n">
-        <v>233857</v>
+        <v>233530</v>
       </c>
       <c r="O59" s="14" t="n">
-        <v>233530</v>
+        <v>236200</v>
       </c>
       <c r="P59" s="14" t="n">
-        <v>236200</v>
+        <v>237829</v>
       </c>
       <c r="Q59" s="14" t="n">
-        <v>237829</v>
+        <v>236008</v>
       </c>
       <c r="R59" s="14" t="n">
-        <v>236008</v>
+        <v>236917</v>
       </c>
       <c r="S59" s="14" t="n">
-        <v>236917</v>
+        <v>237644</v>
       </c>
       <c r="T59" s="14" t="n">
-        <v>237644</v>
+        <v>235282</v>
       </c>
       <c r="U59" s="14" t="n">
-        <v>235282</v>
+        <v>291091</v>
       </c>
       <c r="V59" s="14" t="n">
-        <v>291091</v>
+        <v>346844</v>
       </c>
       <c r="W59" s="14" t="n">
-        <v>346844</v>
+        <v>411781</v>
       </c>
       <c r="X59" s="14" t="n">
-        <v>411781</v>
+        <v>383694</v>
       </c>
       <c r="Y59" s="14" t="n">
-        <v>383694</v>
+        <v>398841</v>
       </c>
       <c r="Z59" s="14" t="n">
-        <v>398841</v>
+        <v>488954</v>
       </c>
       <c r="AA59" s="14" t="n">
-        <v>488954</v>
+        <v>531741</v>
       </c>
       <c r="AB59" s="14" t="n">
-        <v>531741</v>
+        <v>577119</v>
       </c>
       <c r="AC59" s="14" t="n">
-        <v>577119</v>
+        <v>557771</v>
       </c>
       <c r="AD59" s="14" t="n">
-        <v>557771</v>
+        <v>538214</v>
       </c>
       <c r="AE59" s="14" t="n">
-        <v>538214</v>
+        <v>528048</v>
       </c>
       <c r="AF59" s="14" t="n">
-        <v>528048</v>
+        <v>523852</v>
       </c>
       <c r="AG59" s="14" t="n">
-        <v>523852</v>
+        <v>542727</v>
       </c>
       <c r="AH59" s="14" t="n">
-        <v>542727</v>
+        <v>536376</v>
       </c>
       <c r="AI59" s="14" t="n">
-        <v>536376</v>
+        <v>546104</v>
       </c>
       <c r="AJ59" s="14" t="n">
-        <v>546104</v>
+        <v>537761</v>
       </c>
       <c r="AK59" s="14" t="n">
-        <v>537761</v>
+        <v>546516</v>
       </c>
       <c r="AL59" s="14" t="n">
-        <v>546516</v>
+        <v>576893</v>
       </c>
       <c r="AM59" s="14" t="n">
-        <v>576893</v>
+        <v>594261</v>
       </c>
       <c r="AN59" s="14" t="n">
-        <v>594261</v>
+        <v>581885</v>
       </c>
       <c r="AO59" s="14" t="n">
-        <v>581885</v>
+        <v>607603</v>
       </c>
       <c r="AP59" s="14" t="n">
-        <v>607603</v>
+        <v>615458</v>
       </c>
       <c r="AQ59" s="14" t="n">
-        <v>615458</v>
+        <v>625178</v>
       </c>
       <c r="AR59" s="14" t="n">
-        <v>625178</v>
+        <v>699223</v>
       </c>
       <c r="AS59" s="14" t="n">
-        <v>699223</v>
+        <v>728732</v>
       </c>
       <c r="AT59" s="14" t="n">
-        <v>728732</v>
+        <v>810173</v>
       </c>
       <c r="AU59" s="14" t="n">
-        <v>810173</v>
+        <v>728063</v>
       </c>
       <c r="AV59" s="14" t="n">
-        <v>728063</v>
+        <v>791989</v>
       </c>
       <c r="AW59" s="14" t="n">
-        <v>791989</v>
+        <v>810822</v>
       </c>
       <c r="AX59" s="14" t="n">
-        <v>810822</v>
+        <v>807995</v>
       </c>
       <c r="AY59" s="14" t="n">
-        <v>807995</v>
+        <v>819673</v>
       </c>
       <c r="AZ59" s="14" t="n">
-        <v>819673</v>
+        <v>846672</v>
       </c>
       <c r="BA59" s="14" t="n">
-        <v>846672</v>
+        <v>896002</v>
       </c>
       <c r="BB59" s="14" t="n">
-        <v>896002</v>
+        <v>962082</v>
       </c>
     </row>
   </sheetData>
